--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -200,7 +200,7 @@
     <t>shivakrishnamur1</t>
   </si>
   <si>
-    <t>44.28%</t>
+    <t>44.36%</t>
   </si>
   <si>
     <t>22R01A66D1</t>
@@ -800,7 +800,7 @@
     <t>cmr_22r01a73b6</t>
   </si>
   <si>
-    <t>29.52%</t>
+    <t>29.56%</t>
   </si>
   <si>
     <t>22R01A7355</t>
@@ -1364,6 +1364,27 @@
     <t>23.46%</t>
   </si>
   <si>
+    <t>22R01A05L5</t>
+  </si>
+  <si>
+    <t>akshay_18229</t>
+  </si>
+  <si>
+    <t>22r01a6ofu</t>
+  </si>
+  <si>
+    <t>Akshay_Kireet</t>
+  </si>
+  <si>
+    <t>a_22r01a05l5</t>
+  </si>
+  <si>
+    <t>KIREET_5L5</t>
+  </si>
+  <si>
+    <t>22.28%</t>
+  </si>
+  <si>
     <t>22R01A05K5</t>
   </si>
   <si>
@@ -1413,27 +1434,6 @@
   </si>
   <si>
     <t>21.56%</t>
-  </si>
-  <si>
-    <t>22R01A05L5</t>
-  </si>
-  <si>
-    <t>akshay_18229</t>
-  </si>
-  <si>
-    <t>22r01a6ofu</t>
-  </si>
-  <si>
-    <t>Akshay_Kireet</t>
-  </si>
-  <si>
-    <t>a_22r01a05l5</t>
-  </si>
-  <si>
-    <t>KIREET_5L5</t>
-  </si>
-  <si>
-    <t>20.73%</t>
   </si>
   <si>
     <t>22R01A0564</t>
@@ -10164,7 +10164,7 @@
         <v>10.0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>57</v>
@@ -11924,7 +11924,7 @@
         <v>10.0</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>56.0</v>
+        <v>60.0</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>260</v>
@@ -13719,34 +13719,34 @@
         <v>451</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>354.0</v>
+        <v>0.0</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>452</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>0.0</v>
+        <v>107.0</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>453</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>1438.0</v>
+        <v>1331.0</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>454</v>
       </c>
       <c r="K93" s="2" t="n">
-        <v>0.0</v>
+        <v>1069.0</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>455</v>
       </c>
       <c r="M93" s="2" t="n">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>456</v>
@@ -13763,37 +13763,37 @@
         <v>458</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>345.0</v>
+        <v>354.0</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>0.0</v>
+        <v>1438.0</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K94" s="2" t="n">
-        <v>1171.0</v>
+        <v>0.0</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="M94" s="2" t="n">
         <v>39.0</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="95">
@@ -13801,43 +13801,43 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0.0</v>
+        <v>345.0</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>1576.0</v>
+        <v>0.0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K95" s="2" t="n">
-        <v>1197.0</v>
+        <v>1171.0</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>465</v>
       </c>
       <c r="M95" s="2" t="n">
-        <v>4.0</v>
+        <v>39.0</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="96">
@@ -13845,40 +13845,40 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>107.0</v>
+        <v>4.0</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>470</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>1331.0</v>
+        <v>1576.0</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>471</v>
       </c>
       <c r="K96" s="2" t="n">
-        <v>1069.0</v>
+        <v>1197.0</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>472</v>
       </c>
       <c r="M96" s="2" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>473</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -128,6 +128,18 @@
     <t>54.47%</t>
   </si>
   <si>
+    <t>22R01A05Q2</t>
+  </si>
+  <si>
+    <t>22r01a05q2</t>
+  </si>
+  <si>
+    <t>praneetha5q2</t>
+  </si>
+  <si>
+    <t>50.48%</t>
+  </si>
+  <si>
     <t>22R01A0531</t>
   </si>
   <si>
@@ -158,18 +170,6 @@
     <t>49.83%</t>
   </si>
   <si>
-    <t>22R01A05Q2</t>
-  </si>
-  <si>
-    <t>22r01a05q2</t>
-  </si>
-  <si>
-    <t>praneetha5q2</t>
-  </si>
-  <si>
-    <t>48.52%</t>
-  </si>
-  <si>
     <t>22R01A0597</t>
   </si>
   <si>
@@ -206,6 +206,21 @@
     <t>48.28%</t>
   </si>
   <si>
+    <t>22R01A05N4</t>
+  </si>
+  <si>
+    <t>mkeerthi63027</t>
+  </si>
+  <si>
+    <t>mkeerthify</t>
+  </si>
+  <si>
+    <t>keerthi_mangali</t>
+  </si>
+  <si>
+    <t>48.03%</t>
+  </si>
+  <si>
     <t>22R01A05B2</t>
   </si>
   <si>
@@ -239,22 +254,7 @@
     <t>KIREET_5L5</t>
   </si>
   <si>
-    <t>47.28%</t>
-  </si>
-  <si>
-    <t>22R01A05N4</t>
-  </si>
-  <si>
-    <t>mkeerthi63027</t>
-  </si>
-  <si>
-    <t>mkeerthify</t>
-  </si>
-  <si>
-    <t>keerthi_mangali</t>
-  </si>
-  <si>
-    <t>46.67%</t>
+    <t>47.3%</t>
   </si>
   <si>
     <t>22R01A05A1</t>
@@ -710,7 +710,7 @@
     <t>saiteja665</t>
   </si>
   <si>
-    <t>34.35%</t>
+    <t>34.37%</t>
   </si>
   <si>
     <t>22R01A67D1</t>
@@ -917,7 +917,7 @@
     <t>cmr_22r01a73b6</t>
   </si>
   <si>
-    <t>29.77%</t>
+    <t>29.81%</t>
   </si>
   <si>
     <t>22R01A0566</t>
@@ -10000,13 +10000,13 @@
         <v>39</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>779.0</v>
+        <v>816.0</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0.0</v>
@@ -10015,19 +10015,19 @@
         <v>39</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1349.0</v>
+        <v>1490.0</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1413.0</v>
+        <v>1050.0</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>6.0</v>
+        <v>156.0</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>41</v>
@@ -10044,37 +10044,37 @@
         <v>43</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>624.0</v>
+        <v>779.0</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>1349.0</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>1409.0</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="K9" s="2" t="n">
-        <v>1320.0</v>
+        <v>1413.0</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -10082,40 +10082,40 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>624.0</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>753.0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F10" s="2" t="n">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1490.0</v>
+        <v>1409.0</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1050.0</v>
+        <v>1320.0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>156.0</v>
+        <v>4.0</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>51</v>
@@ -10220,7 +10220,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>807.0</v>
+        <v>755.0</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>66</v>
@@ -10232,22 +10232,22 @@
         <v>0.0</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>1477.0</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="2" t="n">
-        <v>1424.0</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="K13" s="2" t="n">
-        <v>1139.0</v>
+        <v>1092.0</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>114.0</v>
+        <v>143.0</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>68</v>
@@ -10264,37 +10264,37 @@
         <v>70</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>660.0</v>
+        <v>807.0</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>127.0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>1424.0</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="2" t="n">
-        <v>1331.0</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="n">
+        <v>1139.0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>1102.0</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -10302,40 +10302,40 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="F15" s="2" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>711.0</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="I15" s="2" t="n">
+        <v>1331.0</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="K15" s="2" t="n">
+        <v>1102.0</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="2" t="n">
-        <v>1477.0</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>1092.0</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="M15" s="2" t="n">
-        <v>143.0</v>
+        <v>85.0</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>80</v>
@@ -11637,7 +11637,7 @@
         <v>118.0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>116.0</v>
+        <v>118.0</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>230</v>
@@ -12297,7 +12297,7 @@
         <v>10.0</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>64.0</v>
+        <v>68.0</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>299</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -233,6 +233,24 @@
     <t>keerthi_mangali</t>
   </si>
   <si>
+    <t>22R01A66A5</t>
+  </si>
+  <si>
+    <t>22r01a66a5</t>
+  </si>
+  <si>
+    <t>22r01a9x5i</t>
+  </si>
+  <si>
+    <t>shivakrishna21</t>
+  </si>
+  <si>
+    <t>shivakrishnamur1</t>
+  </si>
+  <si>
+    <t>47.32%</t>
+  </si>
+  <si>
     <t>22R01A05L5</t>
   </si>
   <si>
@@ -285,24 +303,6 @@
   </si>
   <si>
     <t>45.26%</t>
-  </si>
-  <si>
-    <t>22R01A66A5</t>
-  </si>
-  <si>
-    <t>22r01a66a5</t>
-  </si>
-  <si>
-    <t>22r01a9x5i</t>
-  </si>
-  <si>
-    <t>shivakrishna21</t>
-  </si>
-  <si>
-    <t>shivakrishnamur1</t>
-  </si>
-  <si>
-    <t>44.75%</t>
   </si>
   <si>
     <t>22R01A67E0</t>
@@ -10311,37 +10311,37 @@
         <v>74</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>660.0</v>
+        <v>709.0</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>137.0</v>
+        <v>37.0</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>1511.0</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="2" t="n">
-        <v>1331.0</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="n">
+        <v>1544.0</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="2" t="n">
-        <v>1104.0</v>
-      </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="16">
@@ -10349,40 +10349,40 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>895.0</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="n">
+        <v>1331.0</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="2" t="n">
-        <v>1475.0</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="n">
+        <v>1104.0</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="2" t="n">
-        <v>1411.0</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="M16" s="2" t="n">
-        <v>1.0</v>
+        <v>85.0</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>85</v>
@@ -10399,7 +10399,7 @@
         <v>87</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>760.0</v>
+        <v>895.0</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>88</v>
@@ -10411,25 +10411,25 @@
         <v>0.0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>1434.0</v>
+        <v>1475.0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1054.0</v>
+        <v>1411.0</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>103.0</v>
+        <v>1.0</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
@@ -10437,40 +10437,40 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>709.0</v>
+        <v>760.0</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="I18" s="2" t="n">
-        <v>1511.0</v>
+        <v>1434.0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1544.0</v>
+        <v>1054.0</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>29.0</v>
+        <v>103.0</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>96</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -221,7 +221,7 @@
     <t>22r01a05l1</t>
   </si>
   <si>
-    <t>48.17%</t>
+    <t>48.21%</t>
   </si>
   <si>
     <t>22R01A05B2</t>
@@ -272,7 +272,7 @@
     <t>KIREET_5L5</t>
   </si>
   <si>
-    <t>46.65%</t>
+    <t>46.67%</t>
   </si>
   <si>
     <t>22R01A05A1</t>
@@ -428,7 +428,7 @@
     <t>macom_harshita</t>
   </si>
   <si>
-    <t>41.01%</t>
+    <t>41.26%</t>
   </si>
   <si>
     <t>22R01A66E8</t>
@@ -10226,7 +10226,7 @@
         <v>40.0</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>66</v>
@@ -10358,7 +10358,7 @@
         <v>40.0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>137.0</v>
+        <v>139.0</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>83</v>
@@ -10816,7 +10816,7 @@
         <v>137</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>138</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -143,7 +143,7 @@
     <t>shivakrishnamur1</t>
   </si>
   <si>
-    <t>53.03%</t>
+    <t>53.26%</t>
   </si>
   <si>
     <t>22R01A05L5</t>
@@ -164,7 +164,7 @@
     <t>KIREET_5L5</t>
   </si>
   <si>
-    <t>52.33%</t>
+    <t>52.35%</t>
   </si>
   <si>
     <t>22R01A05L1</t>
@@ -185,7 +185,7 @@
     <t>22r01a05l1</t>
   </si>
   <si>
-    <t>51.37%</t>
+    <t>51.39%</t>
   </si>
   <si>
     <t>22R01A05Q6</t>
@@ -635,7 +635,7 @@
     <t>eshu5886</t>
   </si>
   <si>
-    <t>35.92%</t>
+    <t>35.93%</t>
   </si>
   <si>
     <t>22R01A66F7</t>
@@ -704,7 +704,7 @@
     <t>saiteja665</t>
   </si>
   <si>
-    <t>34.44%</t>
+    <t>34.46%</t>
   </si>
   <si>
     <t>22R01A67D1</t>
@@ -10147,7 +10147,7 @@
         <v>10.0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>41.0</v>
+        <v>65.0</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>38</v>
@@ -10191,7 +10191,7 @@
         <v>40.0</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>177.0</v>
+        <v>179.0</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>47</v>
@@ -10235,7 +10235,7 @@
         <v>40.0</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>166.0</v>
+        <v>168.0</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>54</v>
@@ -11599,7 +11599,7 @@
         <v>17.0</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>205</v>
@@ -11775,7 +11775,7 @@
         <v>118.0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>128.0</v>
+        <v>130.0</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>228</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -113,6 +113,27 @@
     <t>55.56%</t>
   </si>
   <si>
+    <t>22R01A05L1</t>
+  </si>
+  <si>
+    <t>bobbalavarshithreddy</t>
+  </si>
+  <si>
+    <t>22r01aupp6</t>
+  </si>
+  <si>
+    <t>varshith__reddie</t>
+  </si>
+  <si>
+    <t>v22r01a05l1</t>
+  </si>
+  <si>
+    <t>22r01a05l1</t>
+  </si>
+  <si>
+    <t>55.22%</t>
+  </si>
+  <si>
     <t>22R01A05Q6</t>
   </si>
   <si>
@@ -167,27 +188,6 @@
     <t>53.2%</t>
   </si>
   <si>
-    <t>22R01A05L1</t>
-  </si>
-  <si>
-    <t>bobbalavarshithreddy</t>
-  </si>
-  <si>
-    <t>22r01aupp6</t>
-  </si>
-  <si>
-    <t>varshith__reddie</t>
-  </si>
-  <si>
-    <t>v22r01a05l1</t>
-  </si>
-  <si>
-    <t>22r01a05l1</t>
-  </si>
-  <si>
-    <t>52.76%</t>
-  </si>
-  <si>
     <t>22R01A66A5</t>
   </si>
   <si>
@@ -1700,6 +1700,15 @@
     <t>25.76%</t>
   </si>
   <si>
+    <t>22R01A6670</t>
+  </si>
+  <si>
+    <t>varshini_arige</t>
+  </si>
+  <si>
+    <t>25.71%</t>
+  </si>
+  <si>
     <t>22R01A6667</t>
   </si>
   <si>
@@ -1865,15 +1874,6 @@
     <t>24.48%</t>
   </si>
   <si>
-    <t>22R01A6670</t>
-  </si>
-  <si>
-    <t>varshini_arige</t>
-  </si>
-  <si>
-    <t>24.44%</t>
-  </si>
-  <si>
     <t>22R01A7355</t>
   </si>
   <si>
@@ -4100,6 +4100,21 @@
     <t>7.64%</t>
   </si>
   <si>
+    <t>22R01A66A2</t>
+  </si>
+  <si>
+    <t>22r01a66a2</t>
+  </si>
+  <si>
+    <t>22r01az40l</t>
+  </si>
+  <si>
+    <t>a22r01a66a2</t>
+  </si>
+  <si>
+    <t>7.63%</t>
+  </si>
+  <si>
     <t>22R01A7331</t>
   </si>
   <si>
@@ -4968,21 +4983,6 @@
   </si>
   <si>
     <t>6.29%</t>
-  </si>
-  <si>
-    <t>22R01A66A2</t>
-  </si>
-  <si>
-    <t>22r01a66a2</t>
-  </si>
-  <si>
-    <t>22r01az40l</t>
-  </si>
-  <si>
-    <t>a22r01a66a2</t>
-  </si>
-  <si>
-    <t>6.28%</t>
   </si>
   <si>
     <t>22R01A04H1</t>
@@ -10463,37 +10463,37 @@
         <v>34</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>775.0</v>
+        <v>904.0</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>104.0</v>
+        <v>70.0</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>102.0</v>
+        <v>200.0</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>1371.0</v>
+        <v>1394.0</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1376.0</v>
+        <v>1371.0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -10501,43 +10501,43 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>779.0</v>
+        <v>775.0</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>1371.0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>1376.0</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>1575.0</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>1320.0</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="M8" s="2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -10545,40 +10545,40 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>830.0</v>
+        <v>779.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>50.0</v>
+        <v>93.0</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>237.0</v>
+        <v>19.0</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1322.0</v>
+        <v>1575.0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1141.0</v>
+        <v>1320.0</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>85.0</v>
+        <v>0.0</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>50</v>
@@ -10595,7 +10595,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>904.0</v>
+        <v>830.0</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>53</v>
@@ -10604,25 +10604,25 @@
         <v>50.0</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>200.0</v>
+        <v>237.0</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1394.0</v>
+        <v>1322.0</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1371.0</v>
+        <v>1141.0</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>57</v>
@@ -15303,16 +15303,16 @@
         <v>563</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>608.0</v>
+        <v>614.0</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>563</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>50.0</v>
+        <v>4.0</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>563</v>
@@ -15324,16 +15324,16 @@
         <v>563</v>
       </c>
       <c r="K117" s="2" t="n">
-        <v>1050.0</v>
+        <v>932.0</v>
       </c>
       <c r="L117" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="M117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N117" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="M117" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N117" s="2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="118">
@@ -15341,43 +15341,43 @@
         <v>117.0</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="L118" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D118" s="2" t="n">
-        <v>354.0</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F118" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G118" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="I118" s="2" t="n">
-        <v>1438.0</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="K118" s="2" t="n">
-        <v>887.0</v>
-      </c>
-      <c r="L118" s="2" t="s">
+      <c r="M118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N118" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="M118" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N118" s="2" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="119">
@@ -15385,16 +15385,16 @@
         <v>118.0</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>571</v>
-      </c>
       <c r="D119" s="2" t="n">
-        <v>635.0</v>
+        <v>354.0</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>198</v>
+        <v>570</v>
       </c>
       <c r="F119" s="2" t="n">
         <v>0.0</v>
@@ -15406,22 +15406,22 @@
         <v>570</v>
       </c>
       <c r="I119" s="2" t="n">
-        <v>0.0</v>
+        <v>1438.0</v>
       </c>
       <c r="J119" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>887.0</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N119" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="K119" s="2" t="n">
-        <v>864.0</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="M119" s="2" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="N119" s="2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="120">
@@ -15429,43 +15429,43 @@
         <v>119.0</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>635.0</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J120" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="K120" s="2" t="n">
+        <v>864.0</v>
+      </c>
+      <c r="L120" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D120" s="2" t="n">
-        <v>345.0</v>
-      </c>
-      <c r="E120" s="2" t="s">
+      <c r="M120" s="2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N120" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="F120" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G120" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="I120" s="2" t="n">
-        <v>1422.0</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="K120" s="2" t="n">
-        <v>925.0</v>
-      </c>
-      <c r="L120" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="M120" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N120" s="2" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="121">
@@ -15473,34 +15473,34 @@
         <v>120.0</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H121" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>357.0</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F121" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G121" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="I121" s="2" t="n">
-        <v>1410.0</v>
+        <v>1422.0</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K121" s="2" t="n">
-        <v>865.0</v>
+        <v>925.0</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>582</v>
@@ -15509,7 +15509,7 @@
         <v>0.0</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="122">
@@ -15517,43 +15517,43 @@
         <v>121.0</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="2" t="n">
+        <v>357.0</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>1410.0</v>
+      </c>
+      <c r="J122" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D122" s="2" t="n">
-        <v>611.0</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F122" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G122" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="I122" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J122" s="2" t="s">
+      <c r="K122" s="2" t="n">
+        <v>865.0</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="M122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N122" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="K122" s="2" t="n">
-        <v>1006.0</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="M122" s="2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="123">
@@ -15561,43 +15561,43 @@
         <v>122.0</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>611.0</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J123" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>587.0</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F123" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G123" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="I123" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>592</v>
-      </c>
       <c r="K123" s="2" t="n">
-        <v>1002.0</v>
+        <v>1006.0</v>
       </c>
       <c r="L123" s="2" t="s">
         <v>591</v>
       </c>
       <c r="M123" s="2" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="124">
@@ -15605,16 +15605,16 @@
         <v>123.0</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="D124" s="2" t="n">
-        <v>584.0</v>
+        <v>587.0</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F124" s="2" t="n">
         <v>0.0</v>
@@ -15623,7 +15623,7 @@
         <v>0.0</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I124" s="2" t="n">
         <v>0.0</v>
@@ -15632,16 +15632,16 @@
         <v>595</v>
       </c>
       <c r="K124" s="2" t="n">
-        <v>1130.0</v>
+        <v>1002.0</v>
       </c>
       <c r="L124" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="N124" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="M124" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N124" s="2" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="125">
@@ -15649,43 +15649,43 @@
         <v>124.0</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="2" t="n">
+        <v>584.0</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="L125" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D125" s="2" t="n">
-        <v>595.0</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="M125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N125" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="F125" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G125" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="I125" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="K125" s="2" t="n">
-        <v>1059.0</v>
-      </c>
-      <c r="L125" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="M125" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N125" s="2" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="126">
@@ -15693,34 +15693,34 @@
         <v>125.0</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>595.0</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H126" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>598.0</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="F126" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G126" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>607</v>
-      </c>
       <c r="I126" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="K126" s="2" t="n">
-        <v>1036.0</v>
+        <v>1059.0</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>605</v>
@@ -15729,7 +15729,7 @@
         <v>0.0</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="127">
@@ -15737,43 +15737,43 @@
         <v>126.0</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>598.0</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H127" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="I127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J127" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D127" s="2" t="n">
-        <v>589.0</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="K127" s="2" t="n">
+        <v>1036.0</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="M127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N127" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="F127" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G127" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="I127" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="K127" s="2" t="n">
-        <v>1053.0</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="M127" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="128">
@@ -15781,34 +15781,34 @@
         <v>127.0</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>589.0</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J128" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>614.0</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="F128" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G128" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="I128" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>618</v>
-      </c>
       <c r="K128" s="2" t="n">
-        <v>932.0</v>
+        <v>1053.0</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>618</v>
@@ -22522,13 +22522,13 @@
         <v>0.0</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="F281" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G281" s="2" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H281" s="2" t="s">
         <v>1363</v>
@@ -22537,19 +22537,19 @@
         <v>0.0</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="K281" s="2" t="n">
-        <v>1179.0</v>
+        <v>926.0</v>
       </c>
       <c r="L281" s="2" t="s">
         <v>1363</v>
       </c>
       <c r="M281" s="2" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="N281" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="282">
@@ -22557,16 +22557,16 @@
         <v>281.0</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="F282" s="2" t="n">
         <v>0.0</v>
@@ -22575,25 +22575,25 @@
         <v>0.0</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="I282" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J282" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K282" s="2" t="n">
+        <v>1179.0</v>
+      </c>
+      <c r="L282" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="K282" s="2" t="n">
-        <v>997.0</v>
-      </c>
-      <c r="L282" s="2" t="s">
-        <v>1367</v>
-      </c>
       <c r="M282" s="2" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="N282" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="283">
@@ -22601,16 +22601,16 @@
         <v>282.0</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D283" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="F283" s="2" t="n">
         <v>0.0</v>
@@ -22619,25 +22619,25 @@
         <v>0.0</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="I283" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J283" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K283" s="2" t="n">
+        <v>997.0</v>
+      </c>
+      <c r="L283" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="K283" s="2" t="n">
-        <v>1166.0</v>
-      </c>
-      <c r="L283" s="2" t="s">
-        <v>1371</v>
-      </c>
       <c r="M283" s="2" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="N283" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="284">
@@ -22645,43 +22645,43 @@
         <v>283.0</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>198</v>
+        <v>1376</v>
       </c>
       <c r="D284" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="F284" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G284" s="2" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>198</v>
+        <v>1376</v>
       </c>
       <c r="I284" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J284" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="K284" s="2" t="n">
+        <v>1166.0</v>
+      </c>
+      <c r="L284" s="2" t="s">
         <v>1376</v>
       </c>
-      <c r="K284" s="2" t="n">
-        <v>997.0</v>
-      </c>
-      <c r="L284" s="2" t="s">
-        <v>1375</v>
-      </c>
       <c r="M284" s="2" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="N284" s="2" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="285">
@@ -22689,10 +22689,10 @@
         <v>284.0</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>1379</v>
+        <v>198</v>
       </c>
       <c r="D285" s="2" t="n">
         <v>0.0</v>
@@ -22704,10 +22704,10 @@
         <v>0.0</v>
       </c>
       <c r="G285" s="2" t="n">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>1379</v>
+        <v>198</v>
       </c>
       <c r="I285" s="2" t="n">
         <v>0.0</v>
@@ -22716,16 +22716,16 @@
         <v>1381</v>
       </c>
       <c r="K285" s="2" t="n">
-        <v>934.0</v>
+        <v>997.0</v>
       </c>
       <c r="L285" s="2" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="M285" s="2" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="N285" s="2" t="s">
-        <v>1377</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="286">
@@ -22733,22 +22733,22 @@
         <v>285.0</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="D286" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="F286" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G286" s="2" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H286" s="2" t="s">
         <v>1384</v>
@@ -22757,19 +22757,19 @@
         <v>0.0</v>
       </c>
       <c r="J286" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="K286" s="2" t="n">
+        <v>934.0</v>
+      </c>
+      <c r="L286" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="K286" s="2" t="n">
-        <v>1161.0</v>
-      </c>
-      <c r="L286" s="2" t="s">
-        <v>1385</v>
-      </c>
       <c r="M286" s="2" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="N286" s="2" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="287">
@@ -22780,7 +22780,7 @@
         <v>1387</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D287" s="2" t="n">
         <v>0.0</v>
@@ -22795,7 +22795,7 @@
         <v>0.0</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="I287" s="2" t="n">
         <v>0.0</v>
@@ -22804,16 +22804,16 @@
         <v>1389</v>
       </c>
       <c r="K287" s="2" t="n">
-        <v>971.0</v>
+        <v>1161.0</v>
       </c>
       <c r="L287" s="2" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="M287" s="2" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="N287" s="2" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="288">
@@ -22821,16 +22821,16 @@
         <v>287.0</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D288" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>198</v>
+        <v>1393</v>
       </c>
       <c r="F288" s="2" t="n">
         <v>0.0</v>
@@ -22848,16 +22848,16 @@
         <v>1394</v>
       </c>
       <c r="K288" s="2" t="n">
-        <v>1141.0</v>
+        <v>971.0</v>
       </c>
       <c r="L288" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="M288" s="2" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="N288" s="2" t="s">
         <v>1395</v>
-      </c>
-      <c r="M288" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N288" s="2" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="289">
@@ -22865,43 +22865,43 @@
         <v>288.0</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>1397</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="D289" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E289" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F289" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G289" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H289" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="F289" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G289" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H289" s="2" t="s">
+      <c r="I289" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J289" s="2" t="s">
         <v>1399</v>
-      </c>
-      <c r="I289" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J289" s="2" t="s">
-        <v>1400</v>
       </c>
       <c r="K289" s="2" t="n">
         <v>1141.0</v>
       </c>
       <c r="L289" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="M289" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N289" s="2" t="s">
         <v>1401</v>
-      </c>
-      <c r="M289" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N289" s="2" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="290">
@@ -22918,7 +22918,7 @@
         <v>0.0</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>198</v>
+        <v>1403</v>
       </c>
       <c r="F290" s="2" t="n">
         <v>0.0</v>
@@ -22927,25 +22927,25 @@
         <v>0.0</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="I290" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="K290" s="2" t="n">
-        <v>1102.0</v>
+        <v>1141.0</v>
       </c>
       <c r="L290" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="M290" s="2" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="N290" s="2" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="291">
@@ -22980,13 +22980,13 @@
         <v>1409</v>
       </c>
       <c r="K291" s="2" t="n">
-        <v>921.0</v>
+        <v>1102.0</v>
       </c>
       <c r="L291" s="2" t="s">
         <v>1410</v>
       </c>
       <c r="M291" s="2" t="n">
-        <v>28.0</v>
+        <v>5.0</v>
       </c>
       <c r="N291" s="2" t="s">
         <v>1411</v>
@@ -23006,16 +23006,16 @@
         <v>0.0</v>
       </c>
       <c r="E292" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F292" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G292" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H292" s="2" t="s">
         <v>1413</v>
-      </c>
-      <c r="F292" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G292" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H292" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="I292" s="2" t="n">
         <v>0.0</v>
@@ -23024,16 +23024,16 @@
         <v>1414</v>
       </c>
       <c r="K292" s="2" t="n">
-        <v>1134.0</v>
+        <v>921.0</v>
       </c>
       <c r="L292" s="2" t="s">
-        <v>198</v>
+        <v>1415</v>
       </c>
       <c r="M292" s="2" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="N292" s="2" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="293">
@@ -23041,16 +23041,16 @@
         <v>292.0</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>1416</v>
+        <v>198</v>
       </c>
       <c r="D293" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="F293" s="2" t="n">
         <v>0.0</v>
@@ -23059,19 +23059,19 @@
         <v>0.0</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>1416</v>
+        <v>198</v>
       </c>
       <c r="I293" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J293" s="2" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="K293" s="2" t="n">
-        <v>1132.0</v>
+        <v>1134.0</v>
       </c>
       <c r="L293" s="2" t="s">
-        <v>1419</v>
+        <v>198</v>
       </c>
       <c r="M293" s="2" t="n">
         <v>0.0</v>
@@ -23088,7 +23088,7 @@
         <v>1421</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>198</v>
+        <v>1421</v>
       </c>
       <c r="D294" s="2" t="n">
         <v>0.0</v>
@@ -23103,25 +23103,25 @@
         <v>0.0</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I294" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="K294" s="2" t="n">
-        <v>1129.0</v>
+        <v>1132.0</v>
       </c>
       <c r="L294" s="2" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="M294" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N294" s="2" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="295">
@@ -23129,16 +23129,16 @@
         <v>294.0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>1425</v>
+        <v>198</v>
       </c>
       <c r="D295" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="F295" s="2" t="n">
         <v>0.0</v>
@@ -23147,22 +23147,22 @@
         <v>0.0</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="I295" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J295" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="K295" s="2" t="n">
-        <v>1046.0</v>
+        <v>1129.0</v>
       </c>
       <c r="L295" s="2" t="s">
         <v>1427</v>
       </c>
       <c r="M295" s="2" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="N295" s="2" t="s">
         <v>1428</v>
@@ -23176,13 +23176,13 @@
         <v>1429</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D296" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="F296" s="2" t="n">
         <v>0.0</v>
@@ -23191,7 +23191,7 @@
         <v>0.0</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="I296" s="2" t="n">
         <v>0.0</v>
@@ -23200,13 +23200,13 @@
         <v>1431</v>
       </c>
       <c r="K296" s="2" t="n">
-        <v>1095.0</v>
+        <v>1046.0</v>
       </c>
       <c r="L296" s="2" t="s">
         <v>1432</v>
       </c>
       <c r="M296" s="2" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="N296" s="2" t="s">
         <v>1433</v>
@@ -23220,13 +23220,13 @@
         <v>1434</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D297" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>198</v>
+        <v>1434</v>
       </c>
       <c r="F297" s="2" t="n">
         <v>0.0</v>
@@ -23244,16 +23244,16 @@
         <v>1436</v>
       </c>
       <c r="K297" s="2" t="n">
-        <v>1092.0</v>
+        <v>1095.0</v>
       </c>
       <c r="L297" s="2" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="M297" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N297" s="2" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="298">
@@ -23261,16 +23261,16 @@
         <v>297.0</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D298" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>1439</v>
+        <v>198</v>
       </c>
       <c r="F298" s="2" t="n">
         <v>0.0</v>
@@ -23279,25 +23279,25 @@
         <v>0.0</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="I298" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J298" s="2" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="K298" s="2" t="n">
-        <v>1090.0</v>
+        <v>1092.0</v>
       </c>
       <c r="L298" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="M298" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N298" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="299">
@@ -23305,16 +23305,16 @@
         <v>298.0</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="D299" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="F299" s="2" t="n">
         <v>0.0</v>
@@ -23323,7 +23323,7 @@
         <v>0.0</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="I299" s="2" t="n">
         <v>0.0</v>
@@ -23332,16 +23332,16 @@
         <v>1444</v>
       </c>
       <c r="K299" s="2" t="n">
-        <v>1089.0</v>
+        <v>1090.0</v>
       </c>
       <c r="L299" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="M299" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N299" s="2" t="s">
         <v>1445</v>
-      </c>
-      <c r="M299" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N299" s="2" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="300">
@@ -23349,43 +23349,43 @@
         <v>299.0</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C300" s="2" t="s">
         <v>1447</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="D300" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E300" s="2" t="s">
         <v>1448</v>
       </c>
-      <c r="D300" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E300" s="2" t="s">
+      <c r="F300" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G300" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I300" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J300" s="2" t="s">
         <v>1449</v>
-      </c>
-      <c r="F300" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G300" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H300" s="2" t="s">
-        <v>1450</v>
-      </c>
-      <c r="I300" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J300" s="2" t="s">
-        <v>1451</v>
       </c>
       <c r="K300" s="2" t="n">
         <v>1089.0</v>
       </c>
       <c r="L300" s="2" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="M300" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N300" s="2" t="s">
-        <v>1446</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="301">
@@ -23393,43 +23393,43 @@
         <v>300.0</v>
       </c>
       <c r="B301" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>1453</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="D301" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E301" s="2" t="s">
         <v>1454</v>
       </c>
-      <c r="D301" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E301" s="2" t="s">
+      <c r="F301" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G301" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H301" s="2" t="s">
         <v>1455</v>
       </c>
-      <c r="F301" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G301" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H301" s="2" t="s">
+      <c r="I301" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J301" s="2" t="s">
         <v>1456</v>
       </c>
-      <c r="I301" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J301" s="2" t="s">
+      <c r="K301" s="2" t="n">
+        <v>1089.0</v>
+      </c>
+      <c r="L301" s="2" t="s">
         <v>1457</v>
       </c>
-      <c r="K301" s="2" t="n">
-        <v>1057.0</v>
-      </c>
-      <c r="L301" s="2" t="s">
-        <v>1456</v>
-      </c>
       <c r="M301" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="N301" s="2" t="s">
-        <v>1458</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="302">
@@ -23437,10 +23437,10 @@
         <v>301.0</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>1459</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="D302" s="2" t="n">
         <v>0.0</v>
@@ -23461,19 +23461,19 @@
         <v>0.0</v>
       </c>
       <c r="J302" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K302" s="2" t="n">
+        <v>1057.0</v>
+      </c>
+      <c r="L302" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="K302" s="2" t="n">
-        <v>1087.0</v>
-      </c>
-      <c r="L302" s="2" t="s">
-        <v>1462</v>
-      </c>
       <c r="M302" s="2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="N302" s="2" t="s">
-        <v>1458</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="303">
@@ -23481,16 +23481,16 @@
         <v>302.0</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>1464</v>
+        <v>198</v>
       </c>
       <c r="D303" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>198</v>
+        <v>1465</v>
       </c>
       <c r="F303" s="2" t="n">
         <v>0.0</v>
@@ -23499,7 +23499,7 @@
         <v>0.0</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="I303" s="2" t="n">
         <v>0.0</v>
@@ -23508,16 +23508,16 @@
         <v>1466</v>
       </c>
       <c r="K303" s="2" t="n">
-        <v>994.0</v>
+        <v>1087.0</v>
       </c>
       <c r="L303" s="2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="M303" s="2" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N303" s="2" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="304">
@@ -23528,13 +23528,13 @@
         <v>1468</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>198</v>
+        <v>1469</v>
       </c>
       <c r="D304" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>1469</v>
+        <v>198</v>
       </c>
       <c r="F304" s="2" t="n">
         <v>0.0</v>
@@ -23543,25 +23543,25 @@
         <v>0.0</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="I304" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="K304" s="2" t="n">
-        <v>1086.0</v>
+        <v>994.0</v>
       </c>
       <c r="L304" s="2" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="M304" s="2" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="N304" s="2" t="s">
-        <v>1467</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="305">
@@ -23569,7 +23569,7 @@
         <v>304.0</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>198</v>
@@ -23578,7 +23578,7 @@
         <v>0.0</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>198</v>
+        <v>1474</v>
       </c>
       <c r="F305" s="2" t="n">
         <v>0.0</v>
@@ -23587,25 +23587,25 @@
         <v>0.0</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="I305" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J305" s="2" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="K305" s="2" t="n">
-        <v>802.0</v>
+        <v>1086.0</v>
       </c>
       <c r="L305" s="2" t="s">
         <v>1474</v>
       </c>
       <c r="M305" s="2" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="N305" s="2" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="306">
@@ -23622,16 +23622,16 @@
         <v>0.0</v>
       </c>
       <c r="E306" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F306" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G306" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H306" s="2" t="s">
         <v>1477</v>
-      </c>
-      <c r="F306" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G306" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H306" s="2" t="s">
-        <v>1478</v>
       </c>
       <c r="I306" s="2" t="n">
         <v>0.0</v>
@@ -23640,13 +23640,13 @@
         <v>1478</v>
       </c>
       <c r="K306" s="2" t="n">
-        <v>1076.0</v>
+        <v>802.0</v>
       </c>
       <c r="L306" s="2" t="s">
         <v>1479</v>
       </c>
       <c r="M306" s="2" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="N306" s="2" t="s">
         <v>1480</v>
@@ -23681,16 +23681,16 @@
         <v>0.0</v>
       </c>
       <c r="J307" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K307" s="2" t="n">
+        <v>1076.0</v>
+      </c>
+      <c r="L307" s="2" t="s">
         <v>1484</v>
       </c>
-      <c r="K307" s="2" t="n">
-        <v>952.0</v>
-      </c>
-      <c r="L307" s="2" t="s">
-        <v>1481</v>
-      </c>
       <c r="M307" s="2" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="N307" s="2" t="s">
         <v>1485</v>
@@ -23704,40 +23704,40 @@
         <v>1486</v>
       </c>
       <c r="C308" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D308" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E308" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="D308" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E308" s="2" t="s">
+      <c r="F308" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G308" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H308" s="2" t="s">
         <v>1488</v>
       </c>
-      <c r="F308" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G308" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H308" s="2" t="s">
+      <c r="I308" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J308" s="2" t="s">
         <v>1489</v>
       </c>
-      <c r="I308" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J308" s="2" t="s">
+      <c r="K308" s="2" t="n">
+        <v>952.0</v>
+      </c>
+      <c r="L308" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="M308" s="2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N308" s="2" t="s">
         <v>1490</v>
-      </c>
-      <c r="K308" s="2" t="n">
-        <v>1034.0</v>
-      </c>
-      <c r="L308" s="2" t="s">
-        <v>1487</v>
-      </c>
-      <c r="M308" s="2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="N308" s="2" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="309">
@@ -23745,43 +23745,43 @@
         <v>308.0</v>
       </c>
       <c r="B309" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>1492</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="D309" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E309" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="D309" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E309" s="2" t="s">
+      <c r="F309" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G309" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H309" s="2" t="s">
         <v>1494</v>
       </c>
-      <c r="F309" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G309" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H309" s="2" t="s">
+      <c r="I309" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J309" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="I309" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J309" s="2" t="s">
+      <c r="K309" s="2" t="n">
+        <v>1034.0</v>
+      </c>
+      <c r="L309" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="M309" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N309" s="2" t="s">
         <v>1496</v>
-      </c>
-      <c r="K309" s="2" t="n">
-        <v>1060.0</v>
-      </c>
-      <c r="L309" s="2" t="s">
-        <v>1493</v>
-      </c>
-      <c r="M309" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N309" s="2" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="310">
@@ -23789,25 +23789,25 @@
         <v>309.0</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="D310" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E310" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="D310" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E310" s="2" t="s">
+      <c r="F310" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G310" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H310" s="2" t="s">
         <v>1500</v>
-      </c>
-      <c r="F310" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G310" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H310" s="2" t="s">
-        <v>1499</v>
       </c>
       <c r="I310" s="2" t="n">
         <v>0.0</v>
@@ -23816,10 +23816,10 @@
         <v>1501</v>
       </c>
       <c r="K310" s="2" t="n">
-        <v>1058.0</v>
+        <v>1060.0</v>
       </c>
       <c r="L310" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="M310" s="2" t="n">
         <v>0.0</v>
@@ -23842,13 +23842,13 @@
         <v>0.0</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="F311" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G311" s="2" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H311" s="2" t="s">
         <v>1504</v>
@@ -23857,19 +23857,19 @@
         <v>0.0</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="K311" s="2" t="n">
-        <v>986.0</v>
+        <v>1058.0</v>
       </c>
       <c r="L311" s="2" t="s">
         <v>1504</v>
       </c>
       <c r="M311" s="2" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="N311" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="312">
@@ -23877,22 +23877,22 @@
         <v>311.0</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D312" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="F312" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G312" s="2" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H312" s="2" t="s">
         <v>1509</v>
@@ -23901,19 +23901,19 @@
         <v>0.0</v>
       </c>
       <c r="J312" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="K312" s="2" t="n">
+        <v>986.0</v>
+      </c>
+      <c r="L312" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="K312" s="2" t="n">
-        <v>948.0</v>
-      </c>
-      <c r="L312" s="2" t="s">
-        <v>1508</v>
-      </c>
       <c r="M312" s="2" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="N312" s="2" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="313">
@@ -23921,10 +23921,10 @@
         <v>312.0</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D313" s="2" t="n">
         <v>0.0</v>
@@ -23945,19 +23945,19 @@
         <v>0.0</v>
       </c>
       <c r="J313" s="2" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="K313" s="2" t="n">
-        <v>1048.0</v>
+        <v>948.0</v>
       </c>
       <c r="L313" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="M313" s="2" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="N313" s="2" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="314">
@@ -23965,43 +23965,43 @@
         <v>313.0</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D314" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F314" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G314" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H314" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="I314" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J314" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K314" s="2" t="n">
+        <v>1048.0</v>
+      </c>
+      <c r="L314" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M314" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N314" s="2" t="s">
         <v>1515</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D314" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="F314" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G314" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H314" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="I314" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J314" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="K314" s="2" t="n">
-        <v>1047.0</v>
-      </c>
-      <c r="L314" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="M314" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N314" s="2" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="315">
@@ -24009,43 +24009,43 @@
         <v>314.0</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>198</v>
+        <v>1521</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E315" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F315" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G315" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H315" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="F315" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G315" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H315" s="2" t="s">
+      <c r="I315" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J315" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K315" s="2" t="n">
+        <v>1047.0</v>
+      </c>
+      <c r="L315" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="I315" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J315" s="2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="K315" s="2" t="n">
-        <v>1042.0</v>
-      </c>
-      <c r="L315" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="M315" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N315" s="2" t="s">
-        <v>1523</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="316">
@@ -24056,13 +24056,13 @@
         <v>1524</v>
       </c>
       <c r="C316" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D316" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E316" s="2" t="s">
         <v>1525</v>
-      </c>
-      <c r="D316" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="F316" s="2" t="n">
         <v>0.0</v>
@@ -24080,16 +24080,16 @@
         <v>1527</v>
       </c>
       <c r="K316" s="2" t="n">
-        <v>1041.0</v>
+        <v>1042.0</v>
       </c>
       <c r="L316" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M316" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N316" s="2" t="s">
         <v>1528</v>
-      </c>
-      <c r="M316" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N316" s="2" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="317">
@@ -24097,10 +24097,10 @@
         <v>316.0</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>1530</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>1531</v>
       </c>
       <c r="D317" s="2" t="n">
         <v>0.0</v>
@@ -24124,16 +24124,16 @@
         <v>1532</v>
       </c>
       <c r="K317" s="2" t="n">
-        <v>1034.0</v>
+        <v>1041.0</v>
       </c>
       <c r="L317" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="M317" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N317" s="2" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="318">
@@ -24141,16 +24141,16 @@
         <v>317.0</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>198</v>
+        <v>1536</v>
       </c>
       <c r="D318" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>1535</v>
+        <v>198</v>
       </c>
       <c r="F318" s="2" t="n">
         <v>0.0</v>
@@ -24159,25 +24159,25 @@
         <v>0.0</v>
       </c>
       <c r="H318" s="2" t="s">
-        <v>198</v>
+        <v>1536</v>
       </c>
       <c r="I318" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="K318" s="2" t="n">
-        <v>1031.0</v>
+        <v>1034.0</v>
       </c>
       <c r="L318" s="2" t="s">
-        <v>198</v>
+        <v>1537</v>
       </c>
       <c r="M318" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N318" s="2" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="319">
@@ -24185,7 +24185,7 @@
         <v>318.0</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>198</v>
@@ -24194,7 +24194,7 @@
         <v>0.0</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="F319" s="2" t="n">
         <v>0.0</v>
@@ -24203,25 +24203,25 @@
         <v>0.0</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>1539</v>
+        <v>198</v>
       </c>
       <c r="I319" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="K319" s="2" t="n">
-        <v>922.0</v>
+        <v>1031.0</v>
       </c>
       <c r="L319" s="2" t="s">
-        <v>1539</v>
+        <v>198</v>
       </c>
       <c r="M319" s="2" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="N319" s="2" t="s">
-        <v>1537</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="320">
@@ -24229,43 +24229,43 @@
         <v>319.0</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="C320" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D320" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F320" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G320" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H320" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I320" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J320" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K320" s="2" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="L320" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="M320" s="2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="N320" s="2" t="s">
         <v>1542</v>
-      </c>
-      <c r="D320" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E320" s="2" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F320" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G320" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H320" s="2" t="s">
-        <v>1542</v>
-      </c>
-      <c r="I320" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J320" s="2" t="s">
-        <v>1543</v>
-      </c>
-      <c r="K320" s="2" t="n">
-        <v>933.0</v>
-      </c>
-      <c r="L320" s="2" t="s">
-        <v>1542</v>
-      </c>
-      <c r="M320" s="2" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="N320" s="2" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="321">
@@ -24273,16 +24273,16 @@
         <v>320.0</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D321" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>198</v>
+        <v>1547</v>
       </c>
       <c r="F321" s="2" t="n">
         <v>0.0</v>
@@ -24297,16 +24297,16 @@
         <v>0.0</v>
       </c>
       <c r="J321" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="K321" s="2" t="n">
+        <v>933.0</v>
+      </c>
+      <c r="L321" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="K321" s="2" t="n">
-        <v>1020.0</v>
-      </c>
-      <c r="L321" s="2" t="s">
-        <v>1548</v>
-      </c>
       <c r="M321" s="2" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="N321" s="2" t="s">
         <v>1549</v>
@@ -24326,34 +24326,34 @@
         <v>0.0</v>
       </c>
       <c r="E322" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F322" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G322" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H322" s="2" t="s">
         <v>1552</v>
       </c>
-      <c r="F322" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G322" s="2" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="H322" s="2" t="s">
+      <c r="I322" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J322" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K322" s="2" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="L322" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="I322" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J322" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="K322" s="2" t="n">
-        <v>889.0</v>
-      </c>
-      <c r="L322" s="2" t="s">
+      <c r="M322" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N322" s="2" t="s">
         <v>1554</v>
-      </c>
-      <c r="M322" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N322" s="2" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="323">
@@ -24361,34 +24361,34 @@
         <v>322.0</v>
       </c>
       <c r="B323" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C323" s="2" t="s">
         <v>1556</v>
       </c>
-      <c r="C323" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="D323" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>198</v>
+        <v>1557</v>
       </c>
       <c r="F323" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G323" s="2" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="I323" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J323" s="2" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="K323" s="2" t="n">
-        <v>1018.0</v>
+        <v>889.0</v>
       </c>
       <c r="L323" s="2" t="s">
         <v>1559</v>
@@ -24397,7 +24397,7 @@
         <v>0.0</v>
       </c>
       <c r="N323" s="2" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="324">
@@ -24405,43 +24405,43 @@
         <v>323.0</v>
       </c>
       <c r="B324" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D324" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F324" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G324" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H324" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="I324" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J324" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K324" s="2" t="n">
+        <v>1018.0</v>
+      </c>
+      <c r="L324" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="M324" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N324" s="2" t="s">
         <v>1560</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D324" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F324" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G324" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H324" s="2" t="s">
-        <v>1560</v>
-      </c>
-      <c r="I324" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J324" s="2" t="s">
-        <v>1562</v>
-      </c>
-      <c r="K324" s="2" t="n">
-        <v>1017.0</v>
-      </c>
-      <c r="L324" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="M324" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N324" s="2" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="325">
@@ -24449,25 +24449,25 @@
         <v>324.0</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C325" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D325" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F325" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G325" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H325" s="2" t="s">
         <v>1565</v>
-      </c>
-      <c r="D325" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E325" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F325" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G325" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H325" s="2" t="s">
-        <v>1566</v>
       </c>
       <c r="I325" s="2" t="n">
         <v>0.0</v>
@@ -24476,13 +24476,13 @@
         <v>1567</v>
       </c>
       <c r="K325" s="2" t="n">
-        <v>869.0</v>
+        <v>1017.0</v>
       </c>
       <c r="L325" s="2" t="s">
         <v>1566</v>
       </c>
       <c r="M325" s="2" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="N325" s="2" t="s">
         <v>1568</v>
@@ -24502,34 +24502,34 @@
         <v>0.0</v>
       </c>
       <c r="E326" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F326" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G326" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H326" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="F326" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G326" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H326" s="2" t="s">
+      <c r="I326" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J326" s="2" t="s">
         <v>1572</v>
       </c>
-      <c r="I326" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J326" s="2" t="s">
+      <c r="K326" s="2" t="n">
+        <v>869.0</v>
+      </c>
+      <c r="L326" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="M326" s="2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="N326" s="2" t="s">
         <v>1573</v>
-      </c>
-      <c r="K326" s="2" t="n">
-        <v>1015.0</v>
-      </c>
-      <c r="L326" s="2" t="s">
-        <v>1574</v>
-      </c>
-      <c r="M326" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N326" s="2" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="327">
@@ -24537,16 +24537,16 @@
         <v>326.0</v>
       </c>
       <c r="B327" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>1575</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="D327" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E327" s="2" t="s">
         <v>1576</v>
-      </c>
-      <c r="D327" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E327" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="F327" s="2" t="n">
         <v>0.0</v>
@@ -24564,16 +24564,16 @@
         <v>1578</v>
       </c>
       <c r="K327" s="2" t="n">
-        <v>1009.0</v>
+        <v>1015.0</v>
       </c>
       <c r="L327" s="2" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="M327" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N327" s="2" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="328">
@@ -24584,13 +24584,13 @@
         <v>1580</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="D328" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>1581</v>
+        <v>198</v>
       </c>
       <c r="F328" s="2" t="n">
         <v>0.0</v>
@@ -24599,16 +24599,16 @@
         <v>0.0</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="I328" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J328" s="2" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="K328" s="2" t="n">
-        <v>1008.0</v>
+        <v>1009.0</v>
       </c>
       <c r="L328" s="2" t="s">
         <v>1580</v>
@@ -24617,7 +24617,7 @@
         <v>0.0</v>
       </c>
       <c r="N328" s="2" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="329">
@@ -24625,16 +24625,16 @@
         <v>328.0</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>198</v>
+        <v>1585</v>
       </c>
       <c r="D329" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="F329" s="2" t="n">
         <v>0.0</v>
@@ -24643,16 +24643,16 @@
         <v>0.0</v>
       </c>
       <c r="H329" s="2" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="I329" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="K329" s="2" t="n">
-        <v>1006.0</v>
+        <v>1008.0</v>
       </c>
       <c r="L329" s="2" t="s">
         <v>1585</v>
@@ -24661,7 +24661,7 @@
         <v>0.0</v>
       </c>
       <c r="N329" s="2" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="330">
@@ -24669,7 +24669,7 @@
         <v>329.0</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>198</v>
@@ -24678,7 +24678,7 @@
         <v>0.0</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F330" s="2" t="n">
         <v>0.0</v>
@@ -24693,19 +24693,19 @@
         <v>0.0</v>
       </c>
       <c r="J330" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K330" s="2" t="n">
+        <v>1006.0</v>
+      </c>
+      <c r="L330" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="K330" s="2" t="n">
-        <v>905.0</v>
-      </c>
-      <c r="L330" s="2" t="s">
+      <c r="M330" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N330" s="2" t="s">
         <v>1591</v>
-      </c>
-      <c r="M330" s="2" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="N330" s="2" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="331">
@@ -24716,40 +24716,40 @@
         <v>1592</v>
       </c>
       <c r="C331" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D331" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E331" s="2" t="s">
         <v>1593</v>
       </c>
-      <c r="D331" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E331" s="2" t="s">
+      <c r="F331" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G331" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H331" s="2" t="s">
         <v>1594</v>
       </c>
-      <c r="F331" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G331" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H331" s="2" t="s">
+      <c r="I331" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J331" s="2" t="s">
         <v>1595</v>
       </c>
-      <c r="I331" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J331" s="2" t="s">
+      <c r="K331" s="2" t="n">
+        <v>905.0</v>
+      </c>
+      <c r="L331" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="K331" s="2" t="n">
-        <v>1004.0</v>
-      </c>
-      <c r="L331" s="2" t="s">
-        <v>1593</v>
-      </c>
       <c r="M331" s="2" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="N331" s="2" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="332">
@@ -24757,43 +24757,43 @@
         <v>331.0</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="D332" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E332" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="D332" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E332" s="2" t="s">
+      <c r="F332" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G332" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H332" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="F332" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G332" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H332" s="2" t="s">
+      <c r="I332" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J332" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="I332" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J332" s="2" t="s">
+      <c r="K332" s="2" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="L332" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="M332" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N332" s="2" t="s">
         <v>1602</v>
-      </c>
-      <c r="K332" s="2" t="n">
-        <v>1003.0</v>
-      </c>
-      <c r="L332" s="2" t="s">
-        <v>1599</v>
-      </c>
-      <c r="M332" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N332" s="2" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="333">
@@ -24801,10 +24801,10 @@
         <v>332.0</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>1604</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>0.0</v>
@@ -24819,25 +24819,25 @@
         <v>0.0</v>
       </c>
       <c r="H333" s="2" t="s">
-        <v>198</v>
+        <v>1606</v>
       </c>
       <c r="I333" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J333" s="2" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="K333" s="2" t="n">
-        <v>1001.0</v>
+        <v>1003.0</v>
       </c>
       <c r="L333" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="M333" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N333" s="2" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="334">
@@ -24845,34 +24845,34 @@
         <v>333.0</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>1609</v>
+        <v>198</v>
       </c>
       <c r="D334" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="F334" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G334" s="2" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>1609</v>
+        <v>198</v>
       </c>
       <c r="I334" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J334" s="2" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="K334" s="2" t="n">
-        <v>982.0</v>
+        <v>1001.0</v>
       </c>
       <c r="L334" s="2" t="s">
         <v>1610</v>
@@ -24881,7 +24881,7 @@
         <v>0.0</v>
       </c>
       <c r="N334" s="2" t="s">
-        <v>1607</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="335">
@@ -24889,43 +24889,43 @@
         <v>334.0</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>198</v>
+        <v>1614</v>
       </c>
       <c r="D335" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>198</v>
+        <v>1614</v>
       </c>
       <c r="F335" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G335" s="2" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H335" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I335" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J335" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K335" s="2" t="n">
+        <v>982.0</v>
+      </c>
+      <c r="L335" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="M335" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N335" s="2" t="s">
         <v>1612</v>
-      </c>
-      <c r="I335" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J335" s="2" t="s">
-        <v>1613</v>
-      </c>
-      <c r="K335" s="2" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="L335" s="2" t="s">
-        <v>1614</v>
-      </c>
-      <c r="M335" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N335" s="2" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="336">
@@ -24936,13 +24936,13 @@
         <v>1616</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>1617</v>
+        <v>198</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>1617</v>
+        <v>198</v>
       </c>
       <c r="F336" s="2" t="n">
         <v>0.0</v>
@@ -24957,19 +24957,19 @@
         <v>0.0</v>
       </c>
       <c r="J336" s="2" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="K336" s="2" t="n">
-        <v>998.0</v>
+        <v>1000.0</v>
       </c>
       <c r="L336" s="2" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="M336" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N336" s="2" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="337">
@@ -24977,16 +24977,16 @@
         <v>336.0</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="D337" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="F337" s="2" t="n">
         <v>0.0</v>
@@ -25001,19 +25001,19 @@
         <v>0.0</v>
       </c>
       <c r="J337" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K337" s="2" t="n">
+        <v>998.0</v>
+      </c>
+      <c r="L337" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="M337" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N337" s="2" t="s">
         <v>1623</v>
-      </c>
-      <c r="K337" s="2" t="n">
-        <v>902.0</v>
-      </c>
-      <c r="L337" s="2" t="s">
-        <v>1620</v>
-      </c>
-      <c r="M337" s="2" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="N337" s="2" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="338">
@@ -25021,17 +25021,17 @@
         <v>337.0</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>1625</v>
       </c>
-      <c r="C338" s="2" t="s">
+      <c r="D338" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E338" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="D338" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="F338" s="2" t="n">
         <v>0.0</v>
       </c>
@@ -25039,25 +25039,25 @@
         <v>0.0</v>
       </c>
       <c r="H338" s="2" t="s">
-        <v>198</v>
+        <v>1627</v>
       </c>
       <c r="I338" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J338" s="2" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="K338" s="2" t="n">
-        <v>993.0</v>
+        <v>902.0</v>
       </c>
       <c r="L338" s="2" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="M338" s="2" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="N338" s="2" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="339">
@@ -25065,10 +25065,10 @@
         <v>338.0</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="D339" s="2" t="n">
         <v>0.0</v>
@@ -25083,7 +25083,7 @@
         <v>0.0</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>1631</v>
+        <v>198</v>
       </c>
       <c r="I339" s="2" t="n">
         <v>0.0</v>
@@ -25092,10 +25092,10 @@
         <v>1632</v>
       </c>
       <c r="K339" s="2" t="n">
-        <v>991.0</v>
+        <v>993.0</v>
       </c>
       <c r="L339" s="2" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="M339" s="2" t="n">
         <v>0.0</v>
@@ -25118,28 +25118,28 @@
         <v>0.0</v>
       </c>
       <c r="E340" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F340" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G340" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H340" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="F340" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G340" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H340" s="2" t="s">
+      <c r="I340" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J340" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="I340" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J340" s="2" t="s">
+      <c r="K340" s="2" t="n">
+        <v>991.0</v>
+      </c>
+      <c r="L340" s="2" t="s">
         <v>1635</v>
-      </c>
-      <c r="K340" s="2" t="n">
-        <v>990.0</v>
-      </c>
-      <c r="L340" s="2" t="s">
-        <v>1637</v>
       </c>
       <c r="M340" s="2" t="n">
         <v>0.0</v>
@@ -25171,7 +25171,7 @@
         <v>0.0</v>
       </c>
       <c r="H341" s="2" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="I341" s="2" t="n">
         <v>0.0</v>
@@ -25189,7 +25189,7 @@
         <v>0.0</v>
       </c>
       <c r="N341" s="2" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="342">
@@ -25197,16 +25197,16 @@
         <v>341.0</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>198</v>
+        <v>1645</v>
       </c>
       <c r="D342" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>198</v>
+        <v>1646</v>
       </c>
       <c r="F342" s="2" t="n">
         <v>0.0</v>
@@ -25215,7 +25215,7 @@
         <v>0.0</v>
       </c>
       <c r="H342" s="2" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="I342" s="2" t="n">
         <v>0.0</v>
@@ -25224,16 +25224,16 @@
         <v>1645</v>
       </c>
       <c r="K342" s="2" t="n">
-        <v>979.0</v>
+        <v>990.0</v>
       </c>
       <c r="L342" s="2" t="s">
-        <v>198</v>
+        <v>1647</v>
       </c>
       <c r="M342" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N342" s="2" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="343">
@@ -25241,10 +25241,10 @@
         <v>342.0</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>1648</v>
+        <v>198</v>
       </c>
       <c r="D343" s="2" t="n">
         <v>0.0</v>
@@ -25265,13 +25265,13 @@
         <v>0.0</v>
       </c>
       <c r="J343" s="2" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="K343" s="2" t="n">
-        <v>973.0</v>
+        <v>979.0</v>
       </c>
       <c r="L343" s="2" t="s">
-        <v>1650</v>
+        <v>198</v>
       </c>
       <c r="M343" s="2" t="n">
         <v>0.0</v>
@@ -25294,31 +25294,31 @@
         <v>0.0</v>
       </c>
       <c r="E344" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F344" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G344" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H344" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="F344" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G344" s="2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H344" s="2" t="s">
-        <v>1653</v>
-      </c>
       <c r="I344" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J344" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="K344" s="2" t="n">
+        <v>973.0</v>
+      </c>
+      <c r="L344" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="K344" s="2" t="n">
-        <v>926.0</v>
-      </c>
-      <c r="L344" s="2" t="s">
-        <v>1653</v>
-      </c>
       <c r="M344" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="N344" s="2" t="s">
         <v>1656</v>
@@ -31316,13 +31316,13 @@
         <v>2251</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="D481" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="F481" s="2" t="n">
         <v>0.0</v>
@@ -42419,7 +42419,7 @@
         <v>0.0</v>
       </c>
       <c r="H733" s="2" t="s">
-        <v>1605</v>
+        <v>1610</v>
       </c>
       <c r="I733" s="2" t="n">
         <v>0.0</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -194,6 +194,24 @@
     <t>56.47%</t>
   </si>
   <si>
+    <t>22R01A05Q6</t>
+  </si>
+  <si>
+    <t>22r01a05q6</t>
+  </si>
+  <si>
+    <t>22r01a0tkh</t>
+  </si>
+  <si>
+    <t>22R01A05W6</t>
+  </si>
+  <si>
+    <t>shahid24</t>
+  </si>
+  <si>
+    <t>56.27%</t>
+  </si>
+  <si>
     <t>22R01A66D5</t>
   </si>
   <si>
@@ -206,25 +224,7 @@
     <t>Sakethreddy168</t>
   </si>
   <si>
-    <t>56.33%</t>
-  </si>
-  <si>
-    <t>22R01A05Q6</t>
-  </si>
-  <si>
-    <t>22r01a05q6</t>
-  </si>
-  <si>
-    <t>22r01a0tkh</t>
-  </si>
-  <si>
-    <t>22R01A05W6</t>
-  </si>
-  <si>
-    <t>shahid24</t>
-  </si>
-  <si>
-    <t>56.25%</t>
+    <t>54.19%</t>
   </si>
   <si>
     <t>22R01A0531</t>
@@ -281,7 +281,7 @@
     <t>koushikpatel</t>
   </si>
   <si>
-    <t>49.25%</t>
+    <t>49.31%</t>
   </si>
   <si>
     <t>22R01A05A1</t>
@@ -3965,6 +3965,21 @@
     <t>8.58%</t>
   </si>
   <si>
+    <t>22R01A66A2</t>
+  </si>
+  <si>
+    <t>22r01a66a2</t>
+  </si>
+  <si>
+    <t>22r01az40l</t>
+  </si>
+  <si>
+    <t>a22r01a66a2</t>
+  </si>
+  <si>
+    <t>8.57%</t>
+  </si>
+  <si>
     <t>22R01A05C3</t>
   </si>
   <si>
@@ -4073,21 +4088,6 @@
     <t>22r01a6644</t>
   </si>
   <si>
-    <t>22R01A66A2</t>
-  </si>
-  <si>
-    <t>22r01a66a2</t>
-  </si>
-  <si>
-    <t>22r01az40l</t>
-  </si>
-  <si>
-    <t>a22r01a66a2</t>
-  </si>
-  <si>
-    <t>8.13%</t>
-  </si>
-  <si>
     <t>22R01A6211</t>
   </si>
   <si>
@@ -4892,7 +4892,7 @@
     <t>sonikamogili</t>
   </si>
   <si>
-    <t>6.54%</t>
+    <t>6.58%</t>
   </si>
   <si>
     <t>22R01A6679</t>
@@ -10729,37 +10729,37 @@
         <v>61</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>779.0</v>
+        <v>776.0</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>103.0</v>
+        <v>104.0</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>19.0</v>
+        <v>106.0</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>1371.0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>1399.0</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="2" t="n">
-        <v>1575.0</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>1379.0</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="M11" s="2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -10767,40 +10767,40 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>776.0</v>
+        <v>779.0</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="I12" s="2" t="n">
-        <v>1371.0</v>
+        <v>1575.0</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>1049.0</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="2" t="n">
-        <v>1399.0</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="M12" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>70</v>
@@ -10958,7 +10958,7 @@
         <v>0.0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>87</v>
@@ -22260,13 +22260,13 @@
         <v>0.0</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="F273" s="2" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="G273" s="2" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>1318</v>
@@ -22275,19 +22275,19 @@
         <v>0.0</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="K273" s="2" t="n">
-        <v>1130.0</v>
+        <v>922.0</v>
       </c>
       <c r="L273" s="2" t="s">
         <v>1318</v>
       </c>
       <c r="M273" s="2" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="N273" s="2" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="274">
@@ -22295,19 +22295,19 @@
         <v>273.0</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>205</v>
+        <v>1323</v>
       </c>
       <c r="D274" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="F274" s="2" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G274" s="2" t="n">
         <v>0.0</v>
@@ -22316,13 +22316,13 @@
         <v>1323</v>
       </c>
       <c r="I274" s="2" t="n">
-        <v>1358.0</v>
+        <v>0.0</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>1324</v>
       </c>
       <c r="K274" s="2" t="n">
-        <v>0.0</v>
+        <v>1130.0</v>
       </c>
       <c r="L274" s="2" t="s">
         <v>1323</v>
@@ -22342,7 +22342,7 @@
         <v>1326</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1327</v>
+        <v>205</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>0.0</v>
@@ -22357,22 +22357,22 @@
         <v>0.0</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="I275" s="2" t="n">
-        <v>0.0</v>
+        <v>1358.0</v>
       </c>
       <c r="J275" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K275" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L275" s="2" t="s">
         <v>1328</v>
       </c>
-      <c r="K275" s="2" t="n">
-        <v>1023.0</v>
-      </c>
-      <c r="L275" s="2" t="s">
-        <v>1329</v>
-      </c>
       <c r="M275" s="2" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="N275" s="2" t="s">
         <v>1330</v>
@@ -22392,7 +22392,7 @@
         <v>0.0</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>205</v>
+        <v>1332</v>
       </c>
       <c r="F276" s="2" t="n">
         <v>0.0</v>
@@ -22401,7 +22401,7 @@
         <v>0.0</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>205</v>
+        <v>1332</v>
       </c>
       <c r="I276" s="2" t="n">
         <v>0.0</v>
@@ -22410,16 +22410,16 @@
         <v>1333</v>
       </c>
       <c r="K276" s="2" t="n">
-        <v>1171.0</v>
+        <v>1023.0</v>
       </c>
       <c r="L276" s="2" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="M276" s="2" t="n">
-        <v>14.0</v>
+        <v>35.0</v>
       </c>
       <c r="N276" s="2" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="277">
@@ -22427,19 +22427,19 @@
         <v>276.0</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D277" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>1337</v>
+        <v>205</v>
       </c>
       <c r="F277" s="2" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="G277" s="2" t="n">
         <v>0.0</v>
@@ -22454,13 +22454,13 @@
         <v>1338</v>
       </c>
       <c r="K277" s="2" t="n">
-        <v>889.0</v>
+        <v>1171.0</v>
       </c>
       <c r="L277" s="2" t="s">
         <v>1336</v>
       </c>
       <c r="M277" s="2" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="N277" s="2" t="s">
         <v>1339</v>
@@ -22483,31 +22483,31 @@
         <v>1342</v>
       </c>
       <c r="F278" s="2" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="G278" s="2" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H278" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I278" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J278" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="I278" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J278" s="2" t="s">
+      <c r="K278" s="2" t="n">
+        <v>889.0</v>
+      </c>
+      <c r="L278" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="K278" s="2" t="n">
-        <v>935.0</v>
-      </c>
-      <c r="L278" s="2" t="s">
+      <c r="M278" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N278" s="2" t="s">
         <v>1344</v>
-      </c>
-      <c r="M278" s="2" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="N278" s="2" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="279">
@@ -22515,10 +22515,10 @@
         <v>278.0</v>
       </c>
       <c r="B279" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>1346</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>1347</v>
       </c>
       <c r="D279" s="2" t="n">
         <v>0.0</v>
@@ -22533,25 +22533,25 @@
         <v>5.0</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="I279" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="K279" s="2" t="n">
-        <v>904.0</v>
+        <v>935.0</v>
       </c>
       <c r="L279" s="2" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="M279" s="2" t="n">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
       <c r="N279" s="2" t="s">
-        <v>1345</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="280">
@@ -22559,22 +22559,22 @@
         <v>279.0</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D280" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="F280" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G280" s="2" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H280" s="2" t="s">
         <v>1352</v>
@@ -22583,19 +22583,19 @@
         <v>0.0</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="K280" s="2" t="n">
-        <v>1119.0</v>
+        <v>904.0</v>
       </c>
       <c r="L280" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="M280" s="2" t="n">
-        <v>19.0</v>
+        <v>46.0</v>
       </c>
       <c r="N280" s="2" t="s">
-        <v>1345</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="281">
@@ -22603,43 +22603,43 @@
         <v>280.0</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D281" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E281" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F281" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G281" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H281" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I281" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J281" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="F281" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G281" s="2" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H281" s="2" t="s">
-        <v>1354</v>
-      </c>
-      <c r="I281" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J281" s="2" t="s">
-        <v>1356</v>
-      </c>
       <c r="K281" s="2" t="n">
-        <v>922.0</v>
+        <v>1119.0</v>
       </c>
       <c r="L281" s="2" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="M281" s="2" t="n">
-        <v>41.0</v>
+        <v>19.0</v>
       </c>
       <c r="N281" s="2" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="282">
@@ -25082,7 +25082,7 @@
         <v>0.0</v>
       </c>
       <c r="G337" s="2" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>1624</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -113,7 +113,7 @@
     <t>sellilavanya</t>
   </si>
   <si>
-    <t>60.63%</t>
+    <t>60.65%</t>
   </si>
   <si>
     <t>22R01A05L5</t>
@@ -2903,6 +2903,24 @@
     <t>18.15%</t>
   </si>
   <si>
+    <t>22R01A0409</t>
+  </si>
+  <si>
+    <t>Ramana333</t>
+  </si>
+  <si>
+    <t>22r01awyry</t>
+  </si>
+  <si>
+    <t>22r01a409</t>
+  </si>
+  <si>
+    <t>22r01a0409</t>
+  </si>
+  <si>
+    <t>17.98%</t>
+  </si>
+  <si>
     <t>22R01A6662</t>
   </si>
   <si>
@@ -2969,24 +2987,6 @@
     <t>17.07%</t>
   </si>
   <si>
-    <t>22R01A0409</t>
-  </si>
-  <si>
-    <t>Ramana333</t>
-  </si>
-  <si>
-    <t>22r01awyry</t>
-  </si>
-  <si>
-    <t>22r01a409</t>
-  </si>
-  <si>
-    <t>22r01a0409</t>
-  </si>
-  <si>
-    <t>16.99%</t>
-  </si>
-  <si>
     <t>22R01A67A5</t>
   </si>
   <si>
@@ -4007,7 +4007,7 @@
     <t>a22r01a66a2</t>
   </si>
   <si>
-    <t>11.05%</t>
+    <t>11.1%</t>
   </si>
   <si>
     <t>22R01A73C3</t>
@@ -10573,7 +10573,7 @@
         <v>166.0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>95.0</v>
+        <v>97.0</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>31</v>
@@ -19056,7 +19056,7 @@
         <v>964</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>354.0</v>
+        <v>0.0</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>965</v>
@@ -19065,25 +19065,25 @@
         <v>0.0</v>
       </c>
       <c r="G198" s="2" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>966</v>
       </c>
       <c r="I198" s="2" t="n">
-        <v>0.0</v>
+        <v>1411.0</v>
       </c>
       <c r="J198" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="K198" s="2" t="n">
+        <v>998.0</v>
+      </c>
+      <c r="L198" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="K198" s="2" t="n">
-        <v>1351.0</v>
-      </c>
-      <c r="L198" s="2" t="s">
-        <v>964</v>
-      </c>
       <c r="M198" s="2" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="N198" s="2" t="s">
         <v>968</v>
@@ -19100,37 +19100,37 @@
         <v>970</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>344.0</v>
+        <v>354.0</v>
       </c>
       <c r="E199" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="F199" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G199" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="I199" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="K199" s="2" t="n">
+        <v>1351.0</v>
+      </c>
+      <c r="L199" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="F199" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G199" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H199" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="I199" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J199" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="K199" s="2" t="n">
-        <v>1021.0</v>
-      </c>
-      <c r="L199" s="2" t="s">
-        <v>972</v>
-      </c>
       <c r="M199" s="2" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="200">
@@ -19138,13 +19138,13 @@
         <v>199.0</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>359.0</v>
+        <v>344.0</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>976</v>
@@ -19165,16 +19165,16 @@
         <v>977</v>
       </c>
       <c r="K200" s="2" t="n">
-        <v>1218.0</v>
+        <v>1021.0</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="M200" s="2" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="201">
@@ -19182,16 +19182,16 @@
         <v>200.0</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>270</v>
+        <v>981</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>0.0</v>
+        <v>359.0</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="F201" s="2" t="n">
         <v>0.0</v>
@@ -19200,25 +19200,25 @@
         <v>0.0</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="I201" s="2" t="n">
-        <v>1485.0</v>
+        <v>0.0</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="K201" s="2" t="n">
-        <v>0.0</v>
+        <v>1218.0</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="M201" s="2" t="n">
-        <v>160.0</v>
+        <v>0.0</v>
       </c>
       <c r="N201" s="2" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
     </row>
     <row r="202">
@@ -19226,43 +19226,43 @@
         <v>201.0</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>982</v>
+        <v>270</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>388.0</v>
+        <v>0.0</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="F202" s="2" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="G202" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="I202" s="2" t="n">
-        <v>0.0</v>
+        <v>1485.0</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="K202" s="2" t="n">
-        <v>888.0</v>
+        <v>0.0</v>
       </c>
       <c r="L202" s="2" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="M202" s="2" t="n">
-        <v>0.0</v>
+        <v>160.0</v>
       </c>
       <c r="N202" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="203">
@@ -19270,40 +19270,40 @@
         <v>202.0</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>0.0</v>
+        <v>388.0</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F203" s="2" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G203" s="2" t="n">
-        <v>62.0</v>
+        <v>2.0</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>988</v>
       </c>
       <c r="I203" s="2" t="n">
-        <v>1411.0</v>
+        <v>0.0</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="K203" s="2" t="n">
-        <v>998.0</v>
+        <v>888.0</v>
       </c>
       <c r="L203" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="M203" s="2" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="N203" s="2" t="s">
         <v>990</v>
@@ -22339,7 +22339,7 @@
         <v>1328</v>
       </c>
       <c r="M272" s="2" t="n">
-        <v>103.0</v>
+        <v>104.0</v>
       </c>
       <c r="N272" s="2" t="s">
         <v>1331</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -101,7 +101,7 @@
     <t>rohithgoje21</t>
   </si>
   <si>
-    <t>63.2%</t>
+    <t>63.22%</t>
   </si>
   <si>
     <t>22R01A0554</t>
@@ -113,7 +113,7 @@
     <t>sellilavanya</t>
   </si>
   <si>
-    <t>60.65%</t>
+    <t>60.69%</t>
   </si>
   <si>
     <t>22R01A05L5</t>
@@ -191,7 +191,7 @@
     <t>22r01a05l1</t>
   </si>
   <si>
-    <t>52.8%</t>
+    <t>52.81%</t>
   </si>
   <si>
     <t>22R01A66D5</t>
@@ -4007,7 +4007,7 @@
     <t>a22r01a66a2</t>
   </si>
   <si>
-    <t>11.1%</t>
+    <t>11.18%</t>
   </si>
   <si>
     <t>22R01A73C3</t>
@@ -10529,7 +10529,7 @@
         <v>244.0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>175.0</v>
+        <v>177.0</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>28</v>
@@ -10573,7 +10573,7 @@
         <v>166.0</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>97.0</v>
+        <v>101.0</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>31</v>
@@ -10793,7 +10793,7 @@
         <v>80.0</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>208.0</v>
+        <v>210.0</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>56</v>
@@ -22321,7 +22321,7 @@
         <v>0.0</v>
       </c>
       <c r="G272" s="2" t="n">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="H272" s="2" t="s">
         <v>1328</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7952" uniqueCount="3414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7952" uniqueCount="3415">
   <si>
     <t>Rank</t>
   </si>
@@ -125,7 +125,7 @@
     <t>sakethreddybejadi121</t>
   </si>
   <si>
-    <t>59.8%</t>
+    <t>60.14%</t>
   </si>
   <si>
     <t>22R01A05L5</t>
@@ -242,7 +242,7 @@
     <t>varshini_arige</t>
   </si>
   <si>
-    <t>49.91%</t>
+    <t>49.29%</t>
   </si>
   <si>
     <t>22R01A66D1</t>
@@ -326,7 +326,7 @@
     <t>ravi22r01a67k1</t>
   </si>
   <si>
-    <t>44.38%</t>
+    <t>43.81%</t>
   </si>
   <si>
     <t>22R01A05A1</t>
@@ -410,6 +410,21 @@
     <t>41.21%</t>
   </si>
   <si>
+    <t>22R01A0474</t>
+  </si>
+  <si>
+    <t>22r01a0474</t>
+  </si>
+  <si>
+    <t>22r01A0474</t>
+  </si>
+  <si>
+    <t>niharika_474</t>
+  </si>
+  <si>
+    <t>40.91%</t>
+  </si>
+  <si>
     <t>22R01A66A3</t>
   </si>
   <si>
@@ -419,22 +434,7 @@
     <t>muddam_anusha</t>
   </si>
   <si>
-    <t>41.16%</t>
-  </si>
-  <si>
-    <t>22R01A0474</t>
-  </si>
-  <si>
-    <t>22r01a0474</t>
-  </si>
-  <si>
-    <t>22r01A0474</t>
-  </si>
-  <si>
-    <t>niharika_474</t>
-  </si>
-  <si>
-    <t>40.91%</t>
+    <t>40.66%</t>
   </si>
   <si>
     <t>22R01A67E0</t>
@@ -449,7 +449,7 @@
     <t>22r01a67e0</t>
   </si>
   <si>
-    <t>40.77%</t>
+    <t>40.46%</t>
   </si>
   <si>
     <t>22R01A05A5</t>
@@ -461,9 +461,6 @@
     <t>cmr_22r01a05a5</t>
   </si>
   <si>
-    <t>40.46%</t>
-  </si>
-  <si>
     <t>22R01A0524</t>
   </si>
   <si>
@@ -677,6 +674,18 @@
     <t>36.73%</t>
   </si>
   <si>
+    <t>22R01A6678</t>
+  </si>
+  <si>
+    <t>22r01a6678</t>
+  </si>
+  <si>
+    <t>cmr_22r01a6678</t>
+  </si>
+  <si>
+    <t>36.59%</t>
+  </si>
+  <si>
     <t>22R01A0466</t>
   </si>
   <si>
@@ -695,16 +704,7 @@
     <t>Cmrit26_22r01a0</t>
   </si>
   <si>
-    <t>22R01A6678</t>
-  </si>
-  <si>
-    <t>22r01a6678</t>
-  </si>
-  <si>
-    <t>cmr_22r01a6678</t>
-  </si>
-  <si>
-    <t>36.59%</t>
+    <t>36.34%</t>
   </si>
   <si>
     <t>22R01A05B3</t>
@@ -1280,6 +1280,186 @@
     <t>sricharankanduk1</t>
   </si>
   <si>
+    <t>22R01A05D6</t>
+  </si>
+  <si>
+    <t>bhavya_5d6</t>
+  </si>
+  <si>
+    <t>bhavyasa5b91</t>
+  </si>
+  <si>
+    <t>Bokka_Bhavya_Sahithi</t>
+  </si>
+  <si>
+    <t>bhavya_sahithi6</t>
+  </si>
+  <si>
+    <t>30.64%</t>
+  </si>
+  <si>
+    <t>22R01A05A3</t>
+  </si>
+  <si>
+    <t>ramyareddym</t>
+  </si>
+  <si>
+    <t>22r01a05a3</t>
+  </si>
+  <si>
+    <t>30.52%</t>
+  </si>
+  <si>
+    <t>22R01A7334</t>
+  </si>
+  <si>
+    <t>22r01a7334</t>
+  </si>
+  <si>
+    <t>Kusuma2005</t>
+  </si>
+  <si>
+    <t>kusuma34</t>
+  </si>
+  <si>
+    <t>Kusuma12</t>
+  </si>
+  <si>
+    <t>30.51%</t>
+  </si>
+  <si>
+    <t>22R01A6652</t>
+  </si>
+  <si>
+    <t>yasasvi42</t>
+  </si>
+  <si>
+    <t>22r01as7w2</t>
+  </si>
+  <si>
+    <t>22r01a6652</t>
+  </si>
+  <si>
+    <t>30.5%</t>
+  </si>
+  <si>
+    <t>22R01A6648</t>
+  </si>
+  <si>
+    <t>22r01a6648</t>
+  </si>
+  <si>
+    <t>22r01apbgr</t>
+  </si>
+  <si>
+    <t>cmr_22r01a6648</t>
+  </si>
+  <si>
+    <t>30.46%</t>
+  </si>
+  <si>
+    <t>22R01A6255</t>
+  </si>
+  <si>
+    <t>Sumanthreddy_25</t>
+  </si>
+  <si>
+    <t>22r01auy5s</t>
+  </si>
+  <si>
+    <t>Sumanth_25</t>
+  </si>
+  <si>
+    <t>sumanthreddy_25</t>
+  </si>
+  <si>
+    <t>30.43%</t>
+  </si>
+  <si>
+    <t>22R01A66C8</t>
+  </si>
+  <si>
+    <t>sathvikaguptha_15</t>
+  </si>
+  <si>
+    <t>sathvikagh04s</t>
+  </si>
+  <si>
+    <t>sathvikaguptha_2</t>
+  </si>
+  <si>
+    <t>sathvika_66c8</t>
+  </si>
+  <si>
+    <t>sathvikaguptha03</t>
+  </si>
+  <si>
+    <t>30.42%</t>
+  </si>
+  <si>
+    <t>22R01A0544</t>
+  </si>
+  <si>
+    <t>Nooreen_44</t>
+  </si>
+  <si>
+    <t>22r01a0544</t>
+  </si>
+  <si>
+    <t>nooreen_44</t>
+  </si>
+  <si>
+    <t>22R01A6673</t>
+  </si>
+  <si>
+    <t>sujay120805</t>
+  </si>
+  <si>
+    <t>sujay1cto0</t>
+  </si>
+  <si>
+    <t>sujay12</t>
+  </si>
+  <si>
+    <t>30.36%</t>
+  </si>
+  <si>
+    <t>22R01A0599</t>
+  </si>
+  <si>
+    <t>22r01a0599</t>
+  </si>
+  <si>
+    <t>cmr_22r01a0599</t>
+  </si>
+  <si>
+    <t>30.35%</t>
+  </si>
+  <si>
+    <t>22R01A6780</t>
+  </si>
+  <si>
+    <t>22r01a6780</t>
+  </si>
+  <si>
+    <t>meghana6780</t>
+  </si>
+  <si>
+    <t>30.31%</t>
+  </si>
+  <si>
+    <t>22R01A6738</t>
+  </si>
+  <si>
+    <t>sowmyasree15</t>
+  </si>
+  <si>
+    <t>22r01a6738</t>
+  </si>
+  <si>
+    <t>Sowmyasree15</t>
+  </si>
+  <si>
     <t>22R01A05A4</t>
   </si>
   <si>
@@ -1289,187 +1469,7 @@
     <t>greeshma_5a4</t>
   </si>
   <si>
-    <t>30.7%</t>
-  </si>
-  <si>
-    <t>22R01A05D6</t>
-  </si>
-  <si>
-    <t>bhavya_5d6</t>
-  </si>
-  <si>
-    <t>bhavyasa5b91</t>
-  </si>
-  <si>
-    <t>Bokka_Bhavya_Sahithi</t>
-  </si>
-  <si>
-    <t>bhavya_sahithi6</t>
-  </si>
-  <si>
-    <t>30.64%</t>
-  </si>
-  <si>
-    <t>22R01A05A3</t>
-  </si>
-  <si>
-    <t>ramyareddym</t>
-  </si>
-  <si>
-    <t>22r01a05a3</t>
-  </si>
-  <si>
-    <t>30.52%</t>
-  </si>
-  <si>
-    <t>22R01A7334</t>
-  </si>
-  <si>
-    <t>22r01a7334</t>
-  </si>
-  <si>
-    <t>Kusuma2005</t>
-  </si>
-  <si>
-    <t>kusuma34</t>
-  </si>
-  <si>
-    <t>Kusuma12</t>
-  </si>
-  <si>
-    <t>30.51%</t>
-  </si>
-  <si>
-    <t>22R01A6652</t>
-  </si>
-  <si>
-    <t>yasasvi42</t>
-  </si>
-  <si>
-    <t>22r01as7w2</t>
-  </si>
-  <si>
-    <t>22r01a6652</t>
-  </si>
-  <si>
-    <t>30.5%</t>
-  </si>
-  <si>
-    <t>22R01A6648</t>
-  </si>
-  <si>
-    <t>22r01a6648</t>
-  </si>
-  <si>
-    <t>22r01apbgr</t>
-  </si>
-  <si>
-    <t>cmr_22r01a6648</t>
-  </si>
-  <si>
-    <t>30.46%</t>
-  </si>
-  <si>
-    <t>22R01A6255</t>
-  </si>
-  <si>
-    <t>Sumanthreddy_25</t>
-  </si>
-  <si>
-    <t>22r01auy5s</t>
-  </si>
-  <si>
-    <t>Sumanth_25</t>
-  </si>
-  <si>
-    <t>sumanthreddy_25</t>
-  </si>
-  <si>
-    <t>30.43%</t>
-  </si>
-  <si>
-    <t>22R01A66C8</t>
-  </si>
-  <si>
-    <t>sathvikaguptha_15</t>
-  </si>
-  <si>
-    <t>sathvikagh04s</t>
-  </si>
-  <si>
-    <t>sathvikaguptha_2</t>
-  </si>
-  <si>
-    <t>sathvika_66c8</t>
-  </si>
-  <si>
-    <t>sathvikaguptha03</t>
-  </si>
-  <si>
-    <t>30.42%</t>
-  </si>
-  <si>
-    <t>22R01A0544</t>
-  </si>
-  <si>
-    <t>Nooreen_44</t>
-  </si>
-  <si>
-    <t>22r01a0544</t>
-  </si>
-  <si>
-    <t>nooreen_44</t>
-  </si>
-  <si>
-    <t>22R01A6673</t>
-  </si>
-  <si>
-    <t>sujay120805</t>
-  </si>
-  <si>
-    <t>sujay1cto0</t>
-  </si>
-  <si>
-    <t>sujay12</t>
-  </si>
-  <si>
-    <t>30.36%</t>
-  </si>
-  <si>
-    <t>22R01A0599</t>
-  </si>
-  <si>
-    <t>22r01a0599</t>
-  </si>
-  <si>
-    <t>cmr_22r01a0599</t>
-  </si>
-  <si>
-    <t>30.35%</t>
-  </si>
-  <si>
-    <t>22R01A6780</t>
-  </si>
-  <si>
-    <t>22r01a6780</t>
-  </si>
-  <si>
-    <t>meghana6780</t>
-  </si>
-  <si>
-    <t>30.31%</t>
-  </si>
-  <si>
-    <t>22R01A6738</t>
-  </si>
-  <si>
-    <t>sowmyasree15</t>
-  </si>
-  <si>
-    <t>22r01a6738</t>
-  </si>
-  <si>
-    <t>Sowmyasree15</t>
+    <t>30.1%</t>
   </si>
   <si>
     <t>22R01A0455</t>
@@ -1532,6 +1532,72 @@
     <t>29.57%</t>
   </si>
   <si>
+    <t>22R01A66D7</t>
+  </si>
+  <si>
+    <t>Bethi_Keerthana</t>
+  </si>
+  <si>
+    <t>bethikeerthana</t>
+  </si>
+  <si>
+    <t>bethikeerthana01</t>
+  </si>
+  <si>
+    <t>29.34%</t>
+  </si>
+  <si>
+    <t>22R01A7337</t>
+  </si>
+  <si>
+    <t>gayathri_7337</t>
+  </si>
+  <si>
+    <t>22r01a7337</t>
+  </si>
+  <si>
+    <t>29.22%</t>
+  </si>
+  <si>
+    <t>22R01A67D8</t>
+  </si>
+  <si>
+    <t>varshitha1309</t>
+  </si>
+  <si>
+    <t>varshitppcx</t>
+  </si>
+  <si>
+    <t>29.16%</t>
+  </si>
+  <si>
+    <t>22R01A6747</t>
+  </si>
+  <si>
+    <t>22r01a6747</t>
+  </si>
+  <si>
+    <t>Madhav_phani_sai</t>
+  </si>
+  <si>
+    <t>madhavphanisai</t>
+  </si>
+  <si>
+    <t>28.79%</t>
+  </si>
+  <si>
+    <t>23R05A7304</t>
+  </si>
+  <si>
+    <t>g23r05a7304</t>
+  </si>
+  <si>
+    <t>DammuGnaneshwar</t>
+  </si>
+  <si>
+    <t>23r05a7304</t>
+  </si>
+  <si>
     <t>22R01A6771</t>
   </si>
   <si>
@@ -1550,73 +1616,7 @@
     <t>22r01a6771</t>
   </si>
   <si>
-    <t>29.52%</t>
-  </si>
-  <si>
-    <t>22R01A7337</t>
-  </si>
-  <si>
-    <t>gayathri_7337</t>
-  </si>
-  <si>
-    <t>22r01a7337</t>
-  </si>
-  <si>
-    <t>29.51%</t>
-  </si>
-  <si>
-    <t>22R01A66D7</t>
-  </si>
-  <si>
-    <t>Bethi_Keerthana</t>
-  </si>
-  <si>
-    <t>bethikeerthana</t>
-  </si>
-  <si>
-    <t>bethikeerthana01</t>
-  </si>
-  <si>
-    <t>29.34%</t>
-  </si>
-  <si>
-    <t>22R01A67D8</t>
-  </si>
-  <si>
-    <t>varshitha1309</t>
-  </si>
-  <si>
-    <t>varshitppcx</t>
-  </si>
-  <si>
-    <t>29.16%</t>
-  </si>
-  <si>
-    <t>22R01A6747</t>
-  </si>
-  <si>
-    <t>22r01a6747</t>
-  </si>
-  <si>
-    <t>Madhav_phani_sai</t>
-  </si>
-  <si>
-    <t>madhavphanisai</t>
-  </si>
-  <si>
-    <t>28.79%</t>
-  </si>
-  <si>
-    <t>23R05A7304</t>
-  </si>
-  <si>
-    <t>g23r05a7304</t>
-  </si>
-  <si>
-    <t>DammuGnaneshwar</t>
-  </si>
-  <si>
-    <t>23r05a7304</t>
+    <t>28.63%</t>
   </si>
   <si>
     <t>22R01A66E0</t>
@@ -1661,7 +1661,7 @@
     <t>keerthi_mangali</t>
   </si>
   <si>
-    <t>28.42%</t>
+    <t>28.47%</t>
   </si>
   <si>
     <t>22R01A0564</t>
@@ -1790,7 +1790,7 @@
     <t>23r05a0511</t>
   </si>
   <si>
-    <t>27.46%</t>
+    <t>27.36%</t>
   </si>
   <si>
     <t>23R05A0501</t>
@@ -2255,7 +2255,7 @@
     <t>akitishravani</t>
   </si>
   <si>
-    <t>22R01A0566_c</t>
+    <t>22r01a0566_c</t>
   </si>
   <si>
     <t>24.45%</t>
@@ -2582,6 +2582,141 @@
     <t>21.76%</t>
   </si>
   <si>
+    <t>22R01A05F3</t>
+  </si>
+  <si>
+    <t>muvanika_f3</t>
+  </si>
+  <si>
+    <t>22r01a05f3</t>
+  </si>
+  <si>
+    <t>21.64%</t>
+  </si>
+  <si>
+    <t>22R01A6217</t>
+  </si>
+  <si>
+    <t>umeshtheja0574</t>
+  </si>
+  <si>
+    <t>umeshthejacfra5</t>
+  </si>
+  <si>
+    <t>Umesh_theja_123</t>
+  </si>
+  <si>
+    <t>umeshthejachenn1</t>
+  </si>
+  <si>
+    <t>21.63%</t>
+  </si>
+  <si>
+    <t>22R01A05P6</t>
+  </si>
+  <si>
+    <t>22r01a05p6</t>
+  </si>
+  <si>
+    <t>saketh_pulluru</t>
+  </si>
+  <si>
+    <t>pullurusaketh</t>
+  </si>
+  <si>
+    <t>21.57%</t>
+  </si>
+  <si>
+    <t>22R01A66H0</t>
+  </si>
+  <si>
+    <t>srithanallamala357</t>
+  </si>
+  <si>
+    <t>srithanallamala357@gmail.com</t>
+  </si>
+  <si>
+    <t>srithanallamala</t>
+  </si>
+  <si>
+    <t>sritha45</t>
+  </si>
+  <si>
+    <t>srithanallamala357gmail.com</t>
+  </si>
+  <si>
+    <t>21.49%</t>
+  </si>
+  <si>
+    <t>22R01A66B3</t>
+  </si>
+  <si>
+    <t>22r01a66b3</t>
+  </si>
+  <si>
+    <t>aishwarya_6b3</t>
+  </si>
+  <si>
+    <t>22R01A6646</t>
+  </si>
+  <si>
+    <t>Srudeep47</t>
+  </si>
+  <si>
+    <t>22r01a6646</t>
+  </si>
+  <si>
+    <t>Srudeep_47</t>
+  </si>
+  <si>
+    <t>srudeep47</t>
+  </si>
+  <si>
+    <t>21.47%</t>
+  </si>
+  <si>
+    <t>22R01A0484</t>
+  </si>
+  <si>
+    <t>22r01a0484</t>
+  </si>
+  <si>
+    <t>22r01a2lr0</t>
+  </si>
+  <si>
+    <t>r01a0484tej</t>
+  </si>
+  <si>
+    <t>21.42%</t>
+  </si>
+  <si>
+    <t>22R01A0552</t>
+  </si>
+  <si>
+    <t>22r01a0552</t>
+  </si>
+  <si>
+    <t>malavika1908</t>
+  </si>
+  <si>
+    <t>21.35%</t>
+  </si>
+  <si>
+    <t>23R05A6609</t>
+  </si>
+  <si>
+    <t>S_23R05A6609</t>
+  </si>
+  <si>
+    <t>23r05a6609</t>
+  </si>
+  <si>
+    <t>s23r05a6609</t>
+  </si>
+  <si>
+    <t>20.8%</t>
+  </si>
+  <si>
     <t>22R01A6618</t>
   </si>
   <si>
@@ -2591,142 +2726,7 @@
     <t>22r01a6618</t>
   </si>
   <si>
-    <t>21.7%</t>
-  </si>
-  <si>
-    <t>22R01A05F3</t>
-  </si>
-  <si>
-    <t>muvanika_f3</t>
-  </si>
-  <si>
-    <t>22r01a05f3</t>
-  </si>
-  <si>
-    <t>21.64%</t>
-  </si>
-  <si>
-    <t>22R01A6217</t>
-  </si>
-  <si>
-    <t>umeshtheja0574</t>
-  </si>
-  <si>
-    <t>umeshthejacfra5</t>
-  </si>
-  <si>
-    <t>Umesh_theja_123</t>
-  </si>
-  <si>
-    <t>umeshthejachenn1</t>
-  </si>
-  <si>
-    <t>21.63%</t>
-  </si>
-  <si>
-    <t>22R01A05P6</t>
-  </si>
-  <si>
-    <t>22r01a05p6</t>
-  </si>
-  <si>
-    <t>saketh_pulluru</t>
-  </si>
-  <si>
-    <t>pullurusaketh</t>
-  </si>
-  <si>
-    <t>21.57%</t>
-  </si>
-  <si>
-    <t>22R01A66H0</t>
-  </si>
-  <si>
-    <t>srithanallamala357</t>
-  </si>
-  <si>
-    <t>srithanallamala357@gmail.com</t>
-  </si>
-  <si>
-    <t>srithanallamala</t>
-  </si>
-  <si>
-    <t>sritha45</t>
-  </si>
-  <si>
-    <t>srithanallamala357gmail.com</t>
-  </si>
-  <si>
-    <t>21.49%</t>
-  </si>
-  <si>
-    <t>22R01A66B3</t>
-  </si>
-  <si>
-    <t>22r01a66b3</t>
-  </si>
-  <si>
-    <t>aishwarya_6b3</t>
-  </si>
-  <si>
-    <t>22R01A6646</t>
-  </si>
-  <si>
-    <t>Srudeep47</t>
-  </si>
-  <si>
-    <t>22r01a6646</t>
-  </si>
-  <si>
-    <t>Srudeep_47</t>
-  </si>
-  <si>
-    <t>srudeep47</t>
-  </si>
-  <si>
-    <t>21.47%</t>
-  </si>
-  <si>
-    <t>22R01A0484</t>
-  </si>
-  <si>
-    <t>22r01a0484</t>
-  </si>
-  <si>
-    <t>22r01a2lr0</t>
-  </si>
-  <si>
-    <t>r01a0484tej</t>
-  </si>
-  <si>
-    <t>21.42%</t>
-  </si>
-  <si>
-    <t>22R01A0552</t>
-  </si>
-  <si>
-    <t>22r01a0552</t>
-  </si>
-  <si>
-    <t>malavika1908</t>
-  </si>
-  <si>
-    <t>21.35%</t>
-  </si>
-  <si>
-    <t>23R05A6609</t>
-  </si>
-  <si>
-    <t>S_23R05A6609</t>
-  </si>
-  <si>
-    <t>23r05a6609</t>
-  </si>
-  <si>
-    <t>s23r05a6609</t>
-  </si>
-  <si>
-    <t>20.8%</t>
+    <t>20.78%</t>
   </si>
   <si>
     <t>22R01A05K5</t>
@@ -3704,7 +3704,7 @@
     <t>22r01apc8b</t>
   </si>
   <si>
-    <t>14.75%</t>
+    <t>14.78%</t>
   </si>
   <si>
     <t>22R01A6674</t>
@@ -9042,6 +9042,9 @@
   </si>
   <si>
     <t>22R01A0574</t>
+  </si>
+  <si>
+    <t>shiva_109</t>
   </si>
   <si>
     <t>22R01A0578</t>
@@ -10605,7 +10608,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>876.0</v>
+        <v>889.0</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>36</v>
@@ -10957,7 +10960,7 @@
         <v>75</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>763.0</v>
+        <v>739.0</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>75</v>
@@ -11221,7 +11224,7 @@
         <v>102</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>906.0</v>
+        <v>884.0</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>102</v>
@@ -11485,37 +11488,37 @@
         <v>133</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>808.0</v>
+        <v>784.0</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="I26" s="2" t="n">
-        <v>1296.0</v>
+        <v>1361.0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1157.0</v>
+        <v>1040.0</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>133</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>46.0</v>
+        <v>108.0</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27">
@@ -11523,40 +11526,40 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>784.0</v>
+        <v>789.0</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>1361.0</v>
+        <v>1296.0</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>139</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1040.0</v>
+        <v>1157.0</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>108.0</v>
+        <v>46.0</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>140</v>
@@ -11573,7 +11576,7 @@
         <v>142</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>855.0</v>
+        <v>843.0</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>143</v>
@@ -11647,7 +11650,7 @@
         <v>0.0</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
@@ -11655,16 +11658,16 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>752.0</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>30.0</v>
@@ -11673,25 +11676,25 @@
         <v>0.0</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>1594.0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>1037.0</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M30" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31">
@@ -11699,16 +11702,16 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>836.0</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>10.0</v>
@@ -11717,25 +11720,25 @@
         <v>15.0</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>1446.0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>1172.0</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32">
@@ -11743,16 +11746,16 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>829.0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>0.0</v>
@@ -11761,25 +11764,25 @@
         <v>4.0</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>1367.0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>1134.0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M32" s="2" t="n">
         <v>40.0</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33">
@@ -11787,16 +11790,16 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>833.0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>10.0</v>
@@ -11805,25 +11808,25 @@
         <v>2.0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>1419.0</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>1130.0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>6.0</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34">
@@ -11831,16 +11834,16 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>730.0</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>20.0</v>
@@ -11849,25 +11852,25 @@
         <v>0.0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>1437.0</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>1382.0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M34" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35">
@@ -11875,16 +11878,16 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>744.0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>30.0</v>
@@ -11893,25 +11896,25 @@
         <v>0.0</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>1581.0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>989.0</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36">
@@ -11919,16 +11922,16 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>840.0</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>0.0</v>
@@ -11937,25 +11940,25 @@
         <v>0.0</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>1381.0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>1091.0</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M36" s="2" t="n">
         <v>25.0</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37">
@@ -11963,16 +11966,16 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>638.0</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>30.0</v>
@@ -11981,25 +11984,25 @@
         <v>0.0</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>1410.0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>1018.0</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>64.0</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38">
@@ -12007,43 +12010,43 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>731.0</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>1385.0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>1077.0</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M38" s="2" t="n">
         <v>74.0</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39">
@@ -12051,16 +12054,16 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>632.0</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>20.0</v>
@@ -12069,25 +12072,25 @@
         <v>8.0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>1359.0</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>1313.0</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M39" s="2" t="n">
         <v>46.0</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40">
@@ -12095,16 +12098,16 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>752.0</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>0.0</v>
@@ -12113,25 +12116,25 @@
         <v>5.0</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>1443.0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>1051.0</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>39.0</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41">
@@ -12139,16 +12142,16 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>842.0</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>0.0</v>
@@ -12157,25 +12160,25 @@
         <v>0.0</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>1426.0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>954.0</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42">
@@ -12183,43 +12186,43 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>729.0</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>1404.0</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>1224.0</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M42" s="2" t="n">
         <v>25.0</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43">
@@ -12227,16 +12230,16 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>743.0</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>0.0</v>
@@ -12245,25 +12248,25 @@
         <v>11.0</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>1420.0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>1140.0</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M43" s="2" t="n">
         <v>24.0</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44">
@@ -12271,16 +12274,16 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>715.0</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>10.0</v>
@@ -12289,25 +12292,25 @@
         <v>2.0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>1422.0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>1264.0</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M44" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45">
@@ -12315,43 +12318,43 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="n">
+        <v>760.0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>1337.0</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>853.0</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="K45" s="2" t="n">
+        <v>1233.0</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>1411.0</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>895.0</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="46">
@@ -12359,40 +12362,40 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>838.0</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="I46" s="2" t="n">
+        <v>1411.0</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>760.0</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>1337.0</v>
-      </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="n">
+        <v>895.0</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K46" s="2" t="n">
-        <v>1233.0</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="M46" s="2" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>230</v>
@@ -14169,37 +14172,37 @@
         <v>423</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>886.0</v>
+        <v>608.0</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>1256.0</v>
+      </c>
+      <c r="J87" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F87" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G87" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="I87" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="K87" s="2" t="n">
-        <v>817.0</v>
+        <v>1096.0</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M87" s="2" t="n">
-        <v>46.0</v>
+        <v>0.0</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="88">
@@ -14207,16 +14210,16 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>608.0</v>
+        <v>843.0</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F88" s="2" t="n">
         <v>0.0</v>
@@ -14225,22 +14228,22 @@
         <v>0.0</v>
       </c>
       <c r="H88" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="I88" s="2" t="n">
-        <v>1256.0</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="K88" s="2" t="n">
-        <v>1096.0</v>
+        <v>1083.0</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>430</v>
       </c>
       <c r="M88" s="2" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>431</v>
@@ -14257,10 +14260,10 @@
         <v>433</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>843.0</v>
+        <v>605.0</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>434</v>
+        <v>272</v>
       </c>
       <c r="F89" s="2" t="n">
         <v>0.0</v>
@@ -14272,22 +14275,22 @@
         <v>434</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>0.0</v>
+        <v>1435.0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K89" s="2" t="n">
-        <v>1083.0</v>
+        <v>915.0</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M89" s="2" t="n">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="90">
@@ -14295,16 +14298,16 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>605.0</v>
+        <v>578.0</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>272</v>
+        <v>440</v>
       </c>
       <c r="F90" s="2" t="n">
         <v>0.0</v>
@@ -14313,25 +14316,25 @@
         <v>0.0</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>1435.0</v>
+        <v>1411.0</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>439</v>
       </c>
       <c r="K90" s="2" t="n">
-        <v>915.0</v>
+        <v>1048.0</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M90" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91">
@@ -14339,43 +14342,43 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>578.0</v>
+        <v>593.0</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F91" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G91" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="I91" s="2" t="n">
-        <v>1411.0</v>
+        <v>1410.0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K91" s="2" t="n">
-        <v>1048.0</v>
+        <v>981.0</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M91" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92">
@@ -14383,43 +14386,43 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>593.0</v>
+        <v>577.0</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F92" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G92" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="I92" s="2" t="n">
-        <v>1410.0</v>
+        <v>1351.0</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K92" s="2" t="n">
-        <v>981.0</v>
+        <v>1099.0</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M92" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="93">
@@ -14427,16 +14430,16 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>577.0</v>
+        <v>571.0</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F93" s="2" t="n">
         <v>0.0</v>
@@ -14445,25 +14448,25 @@
         <v>0.0</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>1351.0</v>
+        <v>1435.0</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K93" s="2" t="n">
-        <v>1099.0</v>
+        <v>1042.0</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M93" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94">
@@ -14471,43 +14474,43 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>571.0</v>
+        <v>574.0</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>1356.0</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>965.0</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="M94" s="2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="F94" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G94" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I94" s="2" t="n">
-        <v>1435.0</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="K94" s="2" t="n">
-        <v>1042.0</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="M94" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="95">
@@ -14521,7 +14524,7 @@
         <v>466</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>574.0</v>
+        <v>382.0</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>467</v>
@@ -14536,22 +14539,22 @@
         <v>468</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>1356.0</v>
+        <v>1412.0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K95" s="2" t="n">
-        <v>965.0</v>
+        <v>933.0</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>466</v>
       </c>
       <c r="M95" s="2" t="n">
-        <v>18.0</v>
+        <v>115.0</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="96">
@@ -14559,13 +14562,13 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>382.0</v>
+        <v>574.0</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>471</v>
@@ -14577,22 +14580,22 @@
         <v>0.0</v>
       </c>
       <c r="H96" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>1389.0</v>
+      </c>
+      <c r="J96" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="I96" s="2" t="n">
-        <v>1412.0</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="K96" s="2" t="n">
-        <v>933.0</v>
+        <v>1063.0</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M96" s="2" t="n">
-        <v>115.0</v>
+        <v>0.0</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>473</v>
@@ -14609,7 +14612,7 @@
         <v>475</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>574.0</v>
+        <v>576.0</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>475</v>
@@ -14624,13 +14627,13 @@
         <v>475</v>
       </c>
       <c r="I97" s="2" t="n">
-        <v>1389.0</v>
+        <v>1432.0</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>476</v>
       </c>
       <c r="K97" s="2" t="n">
-        <v>1063.0</v>
+        <v>1007.0</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>475</v>
@@ -14653,37 +14656,37 @@
         <v>479</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>576.0</v>
+        <v>709.0</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F98" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G98" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="I98" s="2" t="n">
-        <v>1432.0</v>
-      </c>
-      <c r="J98" s="2" t="s">
+      <c r="K98" s="2" t="n">
+        <v>725.0</v>
+      </c>
+      <c r="L98" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="K98" s="2" t="n">
-        <v>1007.0</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="M98" s="2" t="n">
-        <v>0.0</v>
+        <v>143.0</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99">
@@ -14697,37 +14700,37 @@
         <v>483</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>709.0</v>
+        <v>863.0</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F99" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G99" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H99" s="2" t="s">
+      <c r="I99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>817.0</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="M99" s="2" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="N99" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="I99" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="K99" s="2" t="n">
-        <v>725.0</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="M99" s="2" t="n">
-        <v>143.0</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="100">
@@ -14917,37 +14920,37 @@
         <v>507</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>607.0</v>
+        <v>867.0</v>
       </c>
       <c r="E104" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J104" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F104" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G104" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H104" s="2" t="s">
+      <c r="K104" s="2" t="n">
+        <v>1009.0</v>
+      </c>
+      <c r="L104" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="I104" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J104" s="2" t="s">
+      <c r="M104" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N104" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="K104" s="2" t="n">
-        <v>1013.0</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="M104" s="2" t="n">
-        <v>144.0</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="105">
@@ -14955,13 +14958,13 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>865.0</v>
+        <v>854.0</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>272</v>
@@ -14979,19 +14982,19 @@
         <v>0.0</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K105" s="2" t="n">
         <v>1075.0</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M105" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="106">
@@ -14999,43 +15002,43 @@
         <v>105.0</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>567.0</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="F106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>1369.0</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>923.0</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="M106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N106" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>867.0</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F106" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G106" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="I106" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="K106" s="2" t="n">
-        <v>1009.0</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="M106" s="2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="107">
@@ -15043,43 +15046,43 @@
         <v>106.0</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="K107" s="2" t="n">
+        <v>1156.0</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="M107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N107" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>567.0</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F107" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G107" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="I107" s="2" t="n">
-        <v>1369.0</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="K107" s="2" t="n">
-        <v>923.0</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="M107" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="108">
@@ -15087,17 +15090,17 @@
         <v>107.0</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>575.0</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>818.0</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="F108" s="2" t="n">
         <v>0.0</v>
       </c>
@@ -15105,16 +15108,16 @@
         <v>0.0</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I108" s="2" t="n">
-        <v>0.0</v>
+        <v>1412.0</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="K108" s="2" t="n">
-        <v>1156.0</v>
+        <v>791.0</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>527</v>
@@ -15123,7 +15126,7 @@
         <v>0.0</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="109">
@@ -15131,43 +15134,43 @@
         <v>108.0</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>573.0</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>575.0</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="F109" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G109" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>532</v>
-      </c>
       <c r="I109" s="2" t="n">
-        <v>1412.0</v>
+        <v>0.0</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>532</v>
       </c>
       <c r="K109" s="2" t="n">
-        <v>791.0</v>
+        <v>1013.0</v>
       </c>
       <c r="L109" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="M109" s="2" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="N109" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="M109" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="110">
@@ -15269,7 +15272,7 @@
         <v>546</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>245.0</v>
+        <v>247.0</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>547</v>
@@ -15665,7 +15668,7 @@
         <v>587</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>858.0</v>
+        <v>854.0</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>588</v>
@@ -18085,7 +18088,7 @@
         <v>857</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>614.0</v>
+        <v>590.0</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>272</v>
@@ -18097,7 +18100,7 @@
         <v>0.0</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>272</v>
+        <v>857</v>
       </c>
       <c r="I176" s="2" t="n">
         <v>0.0</v>
@@ -18106,7 +18109,7 @@
         <v>857</v>
       </c>
       <c r="K176" s="2" t="n">
-        <v>882.0</v>
+        <v>971.0</v>
       </c>
       <c r="L176" s="2" t="s">
         <v>858</v>
@@ -18129,10 +18132,10 @@
         <v>861</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>590.0</v>
+        <v>604.0</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>272</v>
+        <v>862</v>
       </c>
       <c r="F177" s="2" t="n">
         <v>0.0</v>
@@ -18141,7 +18144,7 @@
         <v>0.0</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="I177" s="2" t="n">
         <v>0.0</v>
@@ -18150,16 +18153,16 @@
         <v>861</v>
       </c>
       <c r="K177" s="2" t="n">
-        <v>971.0</v>
+        <v>912.0</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="M177" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="178">
@@ -18167,43 +18170,43 @@
         <v>177.0</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>604.0</v>
+        <v>0.0</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="G178" s="2" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>867</v>
       </c>
       <c r="I178" s="2" t="n">
-        <v>0.0</v>
+        <v>1576.0</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="K178" s="2" t="n">
-        <v>912.0</v>
+        <v>1299.0</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="M178" s="2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="179">
@@ -18211,43 +18214,43 @@
         <v>178.0</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>0.0</v>
+        <v>567.0</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="G179" s="2" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="I179" s="2" t="n">
-        <v>1576.0</v>
+        <v>0.0</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="K179" s="2" t="n">
-        <v>1299.0</v>
+        <v>1042.0</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="M179" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="180">
@@ -18255,43 +18258,43 @@
         <v>179.0</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>567.0</v>
+        <v>592.0</v>
       </c>
       <c r="E180" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F180" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G180" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="I180" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="K180" s="2" t="n">
+        <v>931.0</v>
+      </c>
+      <c r="L180" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="M180" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N180" s="2" t="s">
         <v>877</v>
-      </c>
-      <c r="F180" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G180" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="I180" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J180" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="K180" s="2" t="n">
-        <v>1042.0</v>
-      </c>
-      <c r="L180" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="M180" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N180" s="2" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="181">
@@ -18299,17 +18302,17 @@
         <v>180.0</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="D181" s="2" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="D181" s="2" t="n">
-        <v>592.0</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="F181" s="2" t="n">
         <v>0.0</v>
       </c>
@@ -18317,25 +18320,25 @@
         <v>0.0</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="I181" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="K181" s="2" t="n">
-        <v>931.0</v>
+        <v>904.0</v>
       </c>
       <c r="L181" s="2" t="s">
         <v>883</v>
       </c>
       <c r="M181" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
     </row>
     <row r="182">
@@ -18343,16 +18346,16 @@
         <v>181.0</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>600.0</v>
+        <v>561.0</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F182" s="2" t="n">
         <v>0.0</v>
@@ -18367,19 +18370,19 @@
         <v>0.0</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="K182" s="2" t="n">
-        <v>904.0</v>
+        <v>962.0</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M182" s="2" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="183">
@@ -18387,13 +18390,13 @@
         <v>182.0</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>561.0</v>
+        <v>613.0</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>893</v>
@@ -18405,7 +18408,7 @@
         <v>0.0</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="I183" s="2" t="n">
         <v>0.0</v>
@@ -18414,13 +18417,13 @@
         <v>894</v>
       </c>
       <c r="K183" s="2" t="n">
-        <v>962.0</v>
+        <v>831.0</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="M183" s="2" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N183" s="2" t="s">
         <v>895</v>
@@ -18437,10 +18440,10 @@
         <v>897</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>613.0</v>
+        <v>794.0</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F184" s="2" t="n">
         <v>0.0</v>
@@ -18449,7 +18452,7 @@
         <v>0.0</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="I184" s="2" t="n">
         <v>0.0</v>
@@ -18458,16 +18461,16 @@
         <v>898</v>
       </c>
       <c r="K184" s="2" t="n">
-        <v>831.0</v>
+        <v>0.0</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="M184" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="185">
@@ -18475,16 +18478,16 @@
         <v>184.0</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>794.0</v>
+        <v>579.0</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>902</v>
+        <v>272</v>
       </c>
       <c r="F185" s="2" t="n">
         <v>0.0</v>
@@ -18493,7 +18496,7 @@
         <v>0.0</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>903</v>
+        <v>272</v>
       </c>
       <c r="I185" s="2" t="n">
         <v>0.0</v>
@@ -18502,10 +18505,10 @@
         <v>902</v>
       </c>
       <c r="K185" s="2" t="n">
-        <v>0.0</v>
+        <v>882.0</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="M185" s="2" t="n">
         <v>0.0</v>
@@ -21473,7 +21476,7 @@
         <v>1228</v>
       </c>
       <c r="D253" s="2" t="n">
-        <v>563.0</v>
+        <v>564.0</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>1229</v>
@@ -48155,7 +48158,7 @@
         <v>0.0</v>
       </c>
       <c r="J859" s="2" t="s">
-        <v>272</v>
+        <v>3010</v>
       </c>
       <c r="K859" s="2" t="n">
         <v>0.0</v>
@@ -48175,7 +48178,7 @@
         <v>859.0</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="C860" s="2" t="s">
         <v>272</v>
@@ -48219,7 +48222,7 @@
         <v>860.0</v>
       </c>
       <c r="B861" s="2" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="C861" s="2" t="s">
         <v>272</v>
@@ -48263,7 +48266,7 @@
         <v>861.0</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="C862" s="2" t="s">
         <v>272</v>
@@ -48307,7 +48310,7 @@
         <v>862.0</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="C863" s="2" t="s">
         <v>272</v>
@@ -48351,7 +48354,7 @@
         <v>863.0</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="C864" s="2" t="s">
         <v>272</v>
@@ -48395,7 +48398,7 @@
         <v>864.0</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="C865" s="2" t="s">
         <v>272</v>
@@ -48439,7 +48442,7 @@
         <v>865.0</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="C866" s="2" t="s">
         <v>272</v>
@@ -48483,7 +48486,7 @@
         <v>866.0</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="C867" s="2" t="s">
         <v>272</v>
@@ -48527,7 +48530,7 @@
         <v>867.0</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="C868" s="2" t="s">
         <v>272</v>
@@ -48536,7 +48539,7 @@
         <v>0.0</v>
       </c>
       <c r="E868" s="2" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="F868" s="2" t="n">
         <v>0.0</v>
@@ -48545,19 +48548,19 @@
         <v>0.0</v>
       </c>
       <c r="H868" s="2" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="I868" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J868" s="2" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="K868" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L868" s="2" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="M868" s="2" t="n">
         <v>0.0</v>
@@ -48571,7 +48574,7 @@
         <v>868.0</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="C869" s="2" t="s">
         <v>272</v>
@@ -48615,7 +48618,7 @@
         <v>869.0</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="C870" s="2" t="s">
         <v>272</v>
@@ -48659,7 +48662,7 @@
         <v>870.0</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="C871" s="2" t="s">
         <v>272</v>
@@ -48703,7 +48706,7 @@
         <v>871.0</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="C872" s="2" t="s">
         <v>272</v>
@@ -48747,7 +48750,7 @@
         <v>872.0</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="C873" s="2" t="s">
         <v>272</v>
@@ -48791,16 +48794,16 @@
         <v>873.0</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="C874" s="2" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="D874" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E874" s="2" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="F874" s="2" t="n">
         <v>0.0</v>
@@ -48809,19 +48812,19 @@
         <v>0.0</v>
       </c>
       <c r="H874" s="2" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="I874" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J874" s="2" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="K874" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L874" s="2" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="M874" s="2" t="n">
         <v>0.0</v>
@@ -48835,7 +48838,7 @@
         <v>874.0</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="C875" s="2" t="s">
         <v>272</v>
@@ -48879,7 +48882,7 @@
         <v>875.0</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="C876" s="2" t="s">
         <v>272</v>
@@ -48923,7 +48926,7 @@
         <v>876.0</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="C877" s="2" t="s">
         <v>272</v>
@@ -48967,16 +48970,16 @@
         <v>877.0</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="C878" s="2" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D878" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E878" s="2" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="F878" s="2" t="n">
         <v>0.0</v>
@@ -48997,7 +49000,7 @@
         <v>0.0</v>
       </c>
       <c r="L878" s="2" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="M878" s="2" t="n">
         <v>0.0</v>
@@ -49011,7 +49014,7 @@
         <v>878.0</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="C879" s="2" t="s">
         <v>272</v>
@@ -49055,7 +49058,7 @@
         <v>879.0</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="C880" s="2" t="s">
         <v>272</v>
@@ -49099,7 +49102,7 @@
         <v>880.0</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="C881" s="2" t="s">
         <v>272</v>
@@ -49143,7 +49146,7 @@
         <v>881.0</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="C882" s="2" t="s">
         <v>272</v>
@@ -49173,7 +49176,7 @@
         <v>0.0</v>
       </c>
       <c r="L882" s="2" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="M882" s="2" t="n">
         <v>0.0</v>
@@ -49187,7 +49190,7 @@
         <v>882.0</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="C883" s="2" t="s">
         <v>272</v>
@@ -49231,7 +49234,7 @@
         <v>883.0</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="C884" s="2" t="s">
         <v>272</v>
@@ -49275,7 +49278,7 @@
         <v>884.0</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="C885" s="2" t="s">
         <v>272</v>
@@ -49319,7 +49322,7 @@
         <v>885.0</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="C886" s="2" t="s">
         <v>272</v>
@@ -49363,7 +49366,7 @@
         <v>886.0</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="C887" s="2" t="s">
         <v>272</v>
@@ -49407,16 +49410,16 @@
         <v>887.0</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="C888" s="2" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="D888" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E888" s="2" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="F888" s="2" t="n">
         <v>0.0</v>
@@ -49425,19 +49428,19 @@
         <v>0.0</v>
       </c>
       <c r="H888" s="2" t="s">
+        <v>3050</v>
+      </c>
+      <c r="I888" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J888" s="2" t="s">
         <v>3049</v>
       </c>
-      <c r="I888" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J888" s="2" t="s">
-        <v>3048</v>
-      </c>
       <c r="K888" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L888" s="2" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="M888" s="2" t="n">
         <v>0.0</v>
@@ -49451,7 +49454,7 @@
         <v>888.0</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="C889" s="2" t="s">
         <v>272</v>
@@ -49495,7 +49498,7 @@
         <v>889.0</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="C890" s="2" t="s">
         <v>272</v>
@@ -49539,7 +49542,7 @@
         <v>890.0</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="C891" s="2" t="s">
         <v>272</v>
@@ -49583,7 +49586,7 @@
         <v>891.0</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="C892" s="2" t="s">
         <v>272</v>
@@ -49627,7 +49630,7 @@
         <v>892.0</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="C893" s="2" t="s">
         <v>272</v>
@@ -49671,7 +49674,7 @@
         <v>893.0</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="C894" s="2" t="s">
         <v>272</v>
@@ -49715,7 +49718,7 @@
         <v>894.0</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="C895" s="2" t="s">
         <v>272</v>
@@ -49759,7 +49762,7 @@
         <v>895.0</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="C896" s="2" t="s">
         <v>272</v>
@@ -49803,7 +49806,7 @@
         <v>896.0</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="C897" s="2" t="s">
         <v>272</v>
@@ -49847,7 +49850,7 @@
         <v>897.0</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="C898" s="2" t="s">
         <v>272</v>
@@ -49891,37 +49894,37 @@
         <v>898.0</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="C899" s="2" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="D899" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E899" s="2" t="s">
+        <v>3064</v>
+      </c>
+      <c r="F899" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G899" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H899" s="2" t="s">
         <v>3063</v>
       </c>
-      <c r="F899" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G899" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H899" s="2" t="s">
-        <v>3062</v>
-      </c>
       <c r="I899" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J899" s="2" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="K899" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L899" s="2" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="M899" s="2" t="n">
         <v>0.0</v>
@@ -49935,7 +49938,7 @@
         <v>899.0</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="C900" s="2" t="s">
         <v>272</v>
@@ -49979,16 +49982,16 @@
         <v>900.0</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="C901" s="2" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="D901" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E901" s="2" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="F901" s="2" t="n">
         <v>0.0</v>
@@ -49997,19 +50000,19 @@
         <v>0.0</v>
       </c>
       <c r="H901" s="2" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="I901" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J901" s="2" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="K901" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L901" s="2" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="M901" s="2" t="n">
         <v>0.0</v>
@@ -50023,7 +50026,7 @@
         <v>901.0</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="C902" s="2" t="s">
         <v>272</v>
@@ -50053,7 +50056,7 @@
         <v>0.0</v>
       </c>
       <c r="L902" s="2" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="M902" s="2" t="n">
         <v>0.0</v>
@@ -50067,7 +50070,7 @@
         <v>902.0</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="C903" s="2" t="s">
         <v>272</v>
@@ -50111,7 +50114,7 @@
         <v>903.0</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="C904" s="2" t="s">
         <v>272</v>
@@ -50155,7 +50158,7 @@
         <v>904.0</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="C905" s="2" t="s">
         <v>272</v>
@@ -50199,7 +50202,7 @@
         <v>905.0</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="C906" s="2" t="s">
         <v>272</v>
@@ -50243,7 +50246,7 @@
         <v>906.0</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="C907" s="2" t="s">
         <v>272</v>
@@ -50287,7 +50290,7 @@
         <v>907.0</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="C908" s="2" t="s">
         <v>272</v>
@@ -50331,7 +50334,7 @@
         <v>908.0</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="C909" s="2" t="s">
         <v>272</v>
@@ -50361,7 +50364,7 @@
         <v>0.0</v>
       </c>
       <c r="L909" s="2" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="M909" s="2" t="n">
         <v>0.0</v>
@@ -50375,7 +50378,7 @@
         <v>909.0</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="C910" s="2" t="s">
         <v>272</v>
@@ -50419,7 +50422,7 @@
         <v>910.0</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="C911" s="2" t="s">
         <v>272</v>
@@ -50463,7 +50466,7 @@
         <v>911.0</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="C912" s="2" t="s">
         <v>272</v>
@@ -50507,7 +50510,7 @@
         <v>912.0</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="C913" s="2" t="s">
         <v>272</v>
@@ -50551,7 +50554,7 @@
         <v>913.0</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="C914" s="2" t="s">
         <v>272</v>
@@ -50595,7 +50598,7 @@
         <v>914.0</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="C915" s="2" t="s">
         <v>272</v>
@@ -50639,7 +50642,7 @@
         <v>915.0</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="C916" s="2" t="s">
         <v>272</v>
@@ -50683,7 +50686,7 @@
         <v>916.0</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="C917" s="2" t="s">
         <v>272</v>
@@ -50713,7 +50716,7 @@
         <v>0.0</v>
       </c>
       <c r="L917" s="2" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="M917" s="2" t="n">
         <v>0.0</v>
@@ -50727,7 +50730,7 @@
         <v>917.0</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="C918" s="2" t="s">
         <v>272</v>
@@ -50771,7 +50774,7 @@
         <v>918.0</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C919" s="2" t="s">
         <v>272</v>
@@ -50815,7 +50818,7 @@
         <v>919.0</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="C920" s="2" t="s">
         <v>272</v>
@@ -50859,7 +50862,7 @@
         <v>920.0</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="C921" s="2" t="s">
         <v>272</v>
@@ -50903,7 +50906,7 @@
         <v>921.0</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="C922" s="2" t="s">
         <v>272</v>
@@ -50947,7 +50950,7 @@
         <v>922.0</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="C923" s="2" t="s">
         <v>272</v>
@@ -50956,28 +50959,28 @@
         <v>0.0</v>
       </c>
       <c r="E923" s="2" t="s">
+        <v>3094</v>
+      </c>
+      <c r="F923" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G923" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H923" s="2" t="s">
+        <v>3095</v>
+      </c>
+      <c r="I923" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J923" s="2" t="s">
+        <v>3095</v>
+      </c>
+      <c r="K923" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L923" s="2" t="s">
         <v>3093</v>
-      </c>
-      <c r="F923" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G923" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H923" s="2" t="s">
-        <v>3094</v>
-      </c>
-      <c r="I923" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J923" s="2" t="s">
-        <v>3094</v>
-      </c>
-      <c r="K923" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L923" s="2" t="s">
-        <v>3092</v>
       </c>
       <c r="M923" s="2" t="n">
         <v>0.0</v>
@@ -50991,7 +50994,7 @@
         <v>923.0</v>
       </c>
       <c r="B924" s="2" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="C924" s="2" t="s">
         <v>272</v>
@@ -51035,7 +51038,7 @@
         <v>924.0</v>
       </c>
       <c r="B925" s="2" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="C925" s="2" t="s">
         <v>272</v>
@@ -51053,19 +51056,19 @@
         <v>0.0</v>
       </c>
       <c r="H925" s="2" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="I925" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J925" s="2" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="K925" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L925" s="2" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="M925" s="2" t="n">
         <v>0.0</v>
@@ -51079,7 +51082,7 @@
         <v>925.0</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="C926" s="2" t="s">
         <v>272</v>
@@ -51123,7 +51126,7 @@
         <v>926.0</v>
       </c>
       <c r="B927" s="2" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="C927" s="2" t="s">
         <v>272</v>
@@ -51167,7 +51170,7 @@
         <v>927.0</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="C928" s="2" t="s">
         <v>272</v>
@@ -51211,7 +51214,7 @@
         <v>928.0</v>
       </c>
       <c r="B929" s="2" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="C929" s="2" t="s">
         <v>272</v>
@@ -51255,7 +51258,7 @@
         <v>929.0</v>
       </c>
       <c r="B930" s="2" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="C930" s="2" t="s">
         <v>272</v>
@@ -51299,7 +51302,7 @@
         <v>930.0</v>
       </c>
       <c r="B931" s="2" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="C931" s="2" t="s">
         <v>272</v>
@@ -51343,7 +51346,7 @@
         <v>931.0</v>
       </c>
       <c r="B932" s="2" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="C932" s="2" t="s">
         <v>272</v>
@@ -51387,16 +51390,16 @@
         <v>932.0</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="C933" s="2" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="D933" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E933" s="2" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="F933" s="2" t="n">
         <v>0.0</v>
@@ -51405,19 +51408,19 @@
         <v>0.0</v>
       </c>
       <c r="H933" s="2" t="s">
+        <v>3109</v>
+      </c>
+      <c r="I933" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J933" s="2" t="s">
         <v>3108</v>
       </c>
-      <c r="I933" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J933" s="2" t="s">
-        <v>3107</v>
-      </c>
       <c r="K933" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L933" s="2" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="M933" s="2" t="n">
         <v>0.0</v>
@@ -51431,7 +51434,7 @@
         <v>933.0</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="C934" s="2" t="s">
         <v>272</v>
@@ -51475,7 +51478,7 @@
         <v>934.0</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="C935" s="2" t="s">
         <v>272</v>
@@ -51519,7 +51522,7 @@
         <v>935.0</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="C936" s="2" t="s">
         <v>272</v>
@@ -51563,7 +51566,7 @@
         <v>936.0</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="C937" s="2" t="s">
         <v>272</v>
@@ -51607,7 +51610,7 @@
         <v>937.0</v>
       </c>
       <c r="B938" s="2" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="C938" s="2" t="s">
         <v>272</v>
@@ -51651,7 +51654,7 @@
         <v>938.0</v>
       </c>
       <c r="B939" s="2" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="C939" s="2" t="s">
         <v>272</v>
@@ -51695,7 +51698,7 @@
         <v>939.0</v>
       </c>
       <c r="B940" s="2" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="C940" s="2" t="s">
         <v>272</v>
@@ -51739,7 +51742,7 @@
         <v>940.0</v>
       </c>
       <c r="B941" s="2" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="C941" s="2" t="s">
         <v>272</v>
@@ -51783,7 +51786,7 @@
         <v>941.0</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="C942" s="2" t="s">
         <v>272</v>
@@ -51827,16 +51830,16 @@
         <v>942.0</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="C943" s="2" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="D943" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E943" s="2" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="F943" s="2" t="n">
         <v>0.0</v>
@@ -51845,13 +51848,13 @@
         <v>0.0</v>
       </c>
       <c r="H943" s="2" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I943" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J943" s="2" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="K943" s="2" t="n">
         <v>0.0</v>
@@ -51871,7 +51874,7 @@
         <v>943.0</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="C944" s="2" t="s">
         <v>272</v>
@@ -51915,7 +51918,7 @@
         <v>944.0</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="C945" s="2" t="s">
         <v>272</v>
@@ -51959,7 +51962,7 @@
         <v>945.0</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="C946" s="2" t="s">
         <v>272</v>
@@ -52003,7 +52006,7 @@
         <v>946.0</v>
       </c>
       <c r="B947" s="2" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="C947" s="2" t="s">
         <v>272</v>
@@ -52047,7 +52050,7 @@
         <v>947.0</v>
       </c>
       <c r="B948" s="2" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="C948" s="2" t="s">
         <v>272</v>
@@ -52065,19 +52068,19 @@
         <v>0.0</v>
       </c>
       <c r="H948" s="2" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="I948" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J948" s="2" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="K948" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L948" s="2" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="M948" s="2" t="n">
         <v>0.0</v>
@@ -52091,7 +52094,7 @@
         <v>948.0</v>
       </c>
       <c r="B949" s="2" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C949" s="2" t="s">
         <v>272</v>
@@ -52135,10 +52138,10 @@
         <v>949.0</v>
       </c>
       <c r="B950" s="2" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="C950" s="2" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="D950" s="2" t="n">
         <v>0.0</v>
@@ -52153,19 +52156,19 @@
         <v>0.0</v>
       </c>
       <c r="H950" s="2" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="I950" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J950" s="2" t="s">
+        <v>3135</v>
+      </c>
+      <c r="K950" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L950" s="2" t="s">
         <v>3134</v>
-      </c>
-      <c r="K950" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L950" s="2" t="s">
-        <v>3133</v>
       </c>
       <c r="M950" s="2" t="n">
         <v>0.0</v>
@@ -52179,7 +52182,7 @@
         <v>950.0</v>
       </c>
       <c r="B951" s="2" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="C951" s="2" t="s">
         <v>272</v>
@@ -52223,7 +52226,7 @@
         <v>951.0</v>
       </c>
       <c r="B952" s="2" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="C952" s="2" t="s">
         <v>272</v>
@@ -52247,7 +52250,7 @@
         <v>0.0</v>
       </c>
       <c r="J952" s="2" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="K952" s="2" t="n">
         <v>0.0</v>
@@ -52267,7 +52270,7 @@
         <v>952.0</v>
       </c>
       <c r="B953" s="2" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="C953" s="2" t="s">
         <v>272</v>
@@ -52311,10 +52314,10 @@
         <v>953.0</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="C954" s="2" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="D954" s="2" t="n">
         <v>0.0</v>
@@ -52355,7 +52358,7 @@
         <v>954.0</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="C955" s="2" t="s">
         <v>272</v>
@@ -52399,7 +52402,7 @@
         <v>955.0</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="C956" s="2" t="s">
         <v>272</v>
@@ -52443,7 +52446,7 @@
         <v>956.0</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="C957" s="2" t="s">
         <v>272</v>
@@ -52487,7 +52490,7 @@
         <v>957.0</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="C958" s="2" t="s">
         <v>272</v>
@@ -52511,13 +52514,13 @@
         <v>0.0</v>
       </c>
       <c r="J958" s="2" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="K958" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L958" s="2" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="M958" s="2" t="n">
         <v>0.0</v>
@@ -52531,7 +52534,7 @@
         <v>958.0</v>
       </c>
       <c r="B959" s="2" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="C959" s="2" t="s">
         <v>272</v>
@@ -52575,7 +52578,7 @@
         <v>959.0</v>
       </c>
       <c r="B960" s="2" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="C960" s="2" t="s">
         <v>272</v>
@@ -52619,7 +52622,7 @@
         <v>960.0</v>
       </c>
       <c r="B961" s="2" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="C961" s="2" t="s">
         <v>272</v>
@@ -52643,7 +52646,7 @@
         <v>0.0</v>
       </c>
       <c r="J961" s="2" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="K961" s="2" t="n">
         <v>0.0</v>
@@ -52663,7 +52666,7 @@
         <v>961.0</v>
       </c>
       <c r="B962" s="2" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="C962" s="2" t="s">
         <v>272</v>
@@ -52707,37 +52710,37 @@
         <v>962.0</v>
       </c>
       <c r="B963" s="2" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="C963" s="2" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="D963" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E963" s="2" t="s">
+        <v>3153</v>
+      </c>
+      <c r="F963" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G963" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H963" s="2" t="s">
+        <v>3154</v>
+      </c>
+      <c r="I963" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J963" s="2" t="s">
+        <v>3153</v>
+      </c>
+      <c r="K963" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L963" s="2" t="s">
         <v>3152</v>
-      </c>
-      <c r="F963" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G963" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H963" s="2" t="s">
-        <v>3153</v>
-      </c>
-      <c r="I963" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J963" s="2" t="s">
-        <v>3152</v>
-      </c>
-      <c r="K963" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L963" s="2" t="s">
-        <v>3151</v>
       </c>
       <c r="M963" s="2" t="n">
         <v>0.0</v>
@@ -52751,7 +52754,7 @@
         <v>963.0</v>
       </c>
       <c r="B964" s="2" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="C964" s="2" t="s">
         <v>272</v>
@@ -52795,7 +52798,7 @@
         <v>964.0</v>
       </c>
       <c r="B965" s="2" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="C965" s="2" t="s">
         <v>272</v>
@@ -52839,7 +52842,7 @@
         <v>965.0</v>
       </c>
       <c r="B966" s="2" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="C966" s="2" t="s">
         <v>272</v>
@@ -52883,7 +52886,7 @@
         <v>966.0</v>
       </c>
       <c r="B967" s="2" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="C967" s="2" t="s">
         <v>272</v>
@@ -52927,7 +52930,7 @@
         <v>967.0</v>
       </c>
       <c r="B968" s="2" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="C968" s="2" t="s">
         <v>272</v>
@@ -52971,7 +52974,7 @@
         <v>968.0</v>
       </c>
       <c r="B969" s="2" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="C969" s="2" t="s">
         <v>272</v>
@@ -53015,7 +53018,7 @@
         <v>969.0</v>
       </c>
       <c r="B970" s="2" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="C970" s="2" t="s">
         <v>272</v>
@@ -53059,7 +53062,7 @@
         <v>970.0</v>
       </c>
       <c r="B971" s="2" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="C971" s="2" t="s">
         <v>272</v>
@@ -53103,7 +53106,7 @@
         <v>971.0</v>
       </c>
       <c r="B972" s="2" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="C972" s="2" t="s">
         <v>272</v>
@@ -53147,7 +53150,7 @@
         <v>972.0</v>
       </c>
       <c r="B973" s="2" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="C973" s="2" t="s">
         <v>272</v>
@@ -53191,7 +53194,7 @@
         <v>973.0</v>
       </c>
       <c r="B974" s="2" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="C974" s="2" t="s">
         <v>272</v>
@@ -53235,7 +53238,7 @@
         <v>974.0</v>
       </c>
       <c r="B975" s="2" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="C975" s="2" t="s">
         <v>272</v>
@@ -53279,7 +53282,7 @@
         <v>975.0</v>
       </c>
       <c r="B976" s="2" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="C976" s="2" t="s">
         <v>272</v>
@@ -53297,7 +53300,7 @@
         <v>0.0</v>
       </c>
       <c r="H976" s="2" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="I976" s="2" t="n">
         <v>0.0</v>
@@ -53323,7 +53326,7 @@
         <v>976.0</v>
       </c>
       <c r="B977" s="2" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="C977" s="2" t="s">
         <v>272</v>
@@ -53367,7 +53370,7 @@
         <v>977.0</v>
       </c>
       <c r="B978" s="2" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="C978" s="2" t="s">
         <v>272</v>
@@ -53411,7 +53414,7 @@
         <v>978.0</v>
       </c>
       <c r="B979" s="2" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="C979" s="2" t="s">
         <v>272</v>
@@ -53455,7 +53458,7 @@
         <v>979.0</v>
       </c>
       <c r="B980" s="2" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="C980" s="2" t="s">
         <v>272</v>
@@ -53499,7 +53502,7 @@
         <v>980.0</v>
       </c>
       <c r="B981" s="2" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="C981" s="2" t="s">
         <v>272</v>
@@ -53543,7 +53546,7 @@
         <v>981.0</v>
       </c>
       <c r="B982" s="2" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="C982" s="2" t="s">
         <v>272</v>
@@ -53567,13 +53570,13 @@
         <v>0.0</v>
       </c>
       <c r="J982" s="2" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="K982" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L982" s="2" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="M982" s="2" t="n">
         <v>0.0</v>
@@ -53587,7 +53590,7 @@
         <v>982.0</v>
       </c>
       <c r="B983" s="2" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="C983" s="2" t="s">
         <v>272</v>
@@ -53631,7 +53634,7 @@
         <v>983.0</v>
       </c>
       <c r="B984" s="2" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="C984" s="2" t="s">
         <v>272</v>
@@ -53675,7 +53678,7 @@
         <v>984.0</v>
       </c>
       <c r="B985" s="2" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="C985" s="2" t="s">
         <v>272</v>
@@ -53719,7 +53722,7 @@
         <v>985.0</v>
       </c>
       <c r="B986" s="2" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="C986" s="2" t="s">
         <v>272</v>
@@ -53743,13 +53746,13 @@
         <v>0.0</v>
       </c>
       <c r="J986" s="2" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="K986" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L986" s="2" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="M986" s="2" t="n">
         <v>0.0</v>
@@ -53763,10 +53766,10 @@
         <v>986.0</v>
       </c>
       <c r="B987" s="2" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="C987" s="2" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="D987" s="2" t="n">
         <v>0.0</v>
@@ -53787,13 +53790,13 @@
         <v>0.0</v>
       </c>
       <c r="J987" s="2" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="K987" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L987" s="2" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="M987" s="2" t="n">
         <v>0.0</v>
@@ -53807,7 +53810,7 @@
         <v>987.0</v>
       </c>
       <c r="B988" s="2" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="C988" s="2" t="s">
         <v>272</v>
@@ -53851,7 +53854,7 @@
         <v>988.0</v>
       </c>
       <c r="B989" s="2" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="C989" s="2" t="s">
         <v>272</v>
@@ -53860,7 +53863,7 @@
         <v>0.0</v>
       </c>
       <c r="E989" s="2" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="F989" s="2" t="n">
         <v>0.0</v>
@@ -53869,19 +53872,19 @@
         <v>0.0</v>
       </c>
       <c r="H989" s="2" t="s">
+        <v>3188</v>
+      </c>
+      <c r="I989" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J989" s="2" t="s">
         <v>3187</v>
       </c>
-      <c r="I989" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J989" s="2" t="s">
-        <v>3186</v>
-      </c>
       <c r="K989" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L989" s="2" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="M989" s="2" t="n">
         <v>0.0</v>
@@ -53895,7 +53898,7 @@
         <v>989.0</v>
       </c>
       <c r="B990" s="2" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="C990" s="2" t="s">
         <v>272</v>
@@ -53904,7 +53907,7 @@
         <v>0.0</v>
       </c>
       <c r="E990" s="2" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="F990" s="2" t="n">
         <v>0.0</v>
@@ -53913,19 +53916,19 @@
         <v>0.0</v>
       </c>
       <c r="H990" s="2" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="I990" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J990" s="2" t="s">
+        <v>3191</v>
+      </c>
+      <c r="K990" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L990" s="2" t="s">
         <v>3190</v>
-      </c>
-      <c r="K990" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L990" s="2" t="s">
-        <v>3189</v>
       </c>
       <c r="M990" s="2" t="n">
         <v>0.0</v>
@@ -53939,7 +53942,7 @@
         <v>990.0</v>
       </c>
       <c r="B991" s="2" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="C991" s="2" t="s">
         <v>272</v>
@@ -53983,7 +53986,7 @@
         <v>991.0</v>
       </c>
       <c r="B992" s="2" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="C992" s="2" t="s">
         <v>272</v>
@@ -53992,7 +53995,7 @@
         <v>0.0</v>
       </c>
       <c r="E992" s="2" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="F992" s="2" t="n">
         <v>0.0</v>
@@ -54001,19 +54004,19 @@
         <v>0.0</v>
       </c>
       <c r="H992" s="2" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="I992" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J992" s="2" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="K992" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L992" s="2" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="M992" s="2" t="n">
         <v>0.0</v>
@@ -54027,7 +54030,7 @@
         <v>992.0</v>
       </c>
       <c r="B993" s="2" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="C993" s="2" t="s">
         <v>272</v>
@@ -54071,7 +54074,7 @@
         <v>993.0</v>
       </c>
       <c r="B994" s="2" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="C994" s="2" t="s">
         <v>272</v>
@@ -54115,7 +54118,7 @@
         <v>994.0</v>
       </c>
       <c r="B995" s="2" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="C995" s="2" t="s">
         <v>272</v>
@@ -54145,7 +54148,7 @@
         <v>0.0</v>
       </c>
       <c r="L995" s="2" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="M995" s="2" t="n">
         <v>0.0</v>
@@ -54159,7 +54162,7 @@
         <v>995.0</v>
       </c>
       <c r="B996" s="2" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="C996" s="2" t="s">
         <v>272</v>
@@ -54168,7 +54171,7 @@
         <v>0.0</v>
       </c>
       <c r="E996" s="2" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="F996" s="2" t="n">
         <v>0.0</v>
@@ -54177,19 +54180,19 @@
         <v>0.0</v>
       </c>
       <c r="H996" s="2" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="I996" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J996" s="2" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="K996" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L996" s="2" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="M996" s="2" t="n">
         <v>0.0</v>
@@ -54203,7 +54206,7 @@
         <v>996.0</v>
       </c>
       <c r="B997" s="2" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="C997" s="2" t="s">
         <v>272</v>
@@ -54212,7 +54215,7 @@
         <v>0.0</v>
       </c>
       <c r="E997" s="2" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="F997" s="2" t="n">
         <v>0.0</v>
@@ -54221,19 +54224,19 @@
         <v>0.0</v>
       </c>
       <c r="H997" s="2" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="I997" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J997" s="2" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="K997" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L997" s="2" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="M997" s="2" t="n">
         <v>0.0</v>
@@ -54247,7 +54250,7 @@
         <v>997.0</v>
       </c>
       <c r="B998" s="2" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="C998" s="2" t="s">
         <v>272</v>
@@ -54291,7 +54294,7 @@
         <v>998.0</v>
       </c>
       <c r="B999" s="2" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="C999" s="2" t="s">
         <v>272</v>
@@ -54315,13 +54318,13 @@
         <v>0.0</v>
       </c>
       <c r="J999" s="2" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="K999" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L999" s="2" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="M999" s="2" t="n">
         <v>0.0</v>
@@ -54335,7 +54338,7 @@
         <v>999.0</v>
       </c>
       <c r="B1000" s="2" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="C1000" s="2" t="s">
         <v>272</v>
@@ -54379,7 +54382,7 @@
         <v>1000.0</v>
       </c>
       <c r="B1001" s="2" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="C1001" s="2" t="s">
         <v>272</v>
@@ -54409,7 +54412,7 @@
         <v>0.0</v>
       </c>
       <c r="L1001" s="2" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="M1001" s="2" t="n">
         <v>0.0</v>
@@ -54423,7 +54426,7 @@
         <v>1001.0</v>
       </c>
       <c r="B1002" s="2" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="C1002" s="2" t="s">
         <v>272</v>
@@ -54467,7 +54470,7 @@
         <v>1002.0</v>
       </c>
       <c r="B1003" s="2" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="C1003" s="2" t="s">
         <v>272</v>
@@ -54511,7 +54514,7 @@
         <v>1003.0</v>
       </c>
       <c r="B1004" s="2" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="C1004" s="2" t="s">
         <v>272</v>
@@ -54520,28 +54523,28 @@
         <v>0.0</v>
       </c>
       <c r="E1004" s="2" t="s">
+        <v>3217</v>
+      </c>
+      <c r="F1004" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1004" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1004" s="2" t="s">
         <v>3216</v>
       </c>
-      <c r="F1004" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G1004" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H1004" s="2" t="s">
-        <v>3215</v>
-      </c>
       <c r="I1004" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1004" s="2" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="K1004" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1004" s="2" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="M1004" s="2" t="n">
         <v>0.0</v>
@@ -54555,7 +54558,7 @@
         <v>1004.0</v>
       </c>
       <c r="B1005" s="2" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="C1005" s="2" t="s">
         <v>272</v>
@@ -54599,7 +54602,7 @@
         <v>1005.0</v>
       </c>
       <c r="B1006" s="2" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="C1006" s="2" t="s">
         <v>272</v>
@@ -54629,7 +54632,7 @@
         <v>0.0</v>
       </c>
       <c r="L1006" s="2" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="M1006" s="2" t="n">
         <v>0.0</v>
@@ -54643,7 +54646,7 @@
         <v>1006.0</v>
       </c>
       <c r="B1007" s="2" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="C1007" s="2" t="s">
         <v>272</v>
@@ -54687,7 +54690,7 @@
         <v>1007.0</v>
       </c>
       <c r="B1008" s="2" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="C1008" s="2" t="s">
         <v>272</v>
@@ -54705,7 +54708,7 @@
         <v>0.0</v>
       </c>
       <c r="H1008" s="2" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="I1008" s="2" t="n">
         <v>0.0</v>
@@ -54717,7 +54720,7 @@
         <v>0.0</v>
       </c>
       <c r="L1008" s="2" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="M1008" s="2" t="n">
         <v>0.0</v>
@@ -54731,7 +54734,7 @@
         <v>1008.0</v>
       </c>
       <c r="B1009" s="2" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="C1009" s="2" t="s">
         <v>272</v>
@@ -54775,7 +54778,7 @@
         <v>1009.0</v>
       </c>
       <c r="B1010" s="2" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="C1010" s="2" t="s">
         <v>272</v>
@@ -54819,10 +54822,10 @@
         <v>1010.0</v>
       </c>
       <c r="B1011" s="2" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="C1011" s="2" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="D1011" s="2" t="n">
         <v>0.0</v>
@@ -54837,19 +54840,19 @@
         <v>0.0</v>
       </c>
       <c r="H1011" s="2" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="I1011" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1011" s="2" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="K1011" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1011" s="2" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="M1011" s="2" t="n">
         <v>0.0</v>
@@ -54863,7 +54866,7 @@
         <v>1011.0</v>
       </c>
       <c r="B1012" s="2" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="C1012" s="2" t="s">
         <v>272</v>
@@ -54907,7 +54910,7 @@
         <v>1012.0</v>
       </c>
       <c r="B1013" s="2" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="C1013" s="2" t="s">
         <v>272</v>
@@ -54951,7 +54954,7 @@
         <v>1013.0</v>
       </c>
       <c r="B1014" s="2" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="C1014" s="2" t="s">
         <v>272</v>
@@ -54995,7 +54998,7 @@
         <v>1014.0</v>
       </c>
       <c r="B1015" s="2" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="C1015" s="2" t="s">
         <v>272</v>
@@ -55039,7 +55042,7 @@
         <v>1015.0</v>
       </c>
       <c r="B1016" s="2" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="C1016" s="2" t="s">
         <v>272</v>
@@ -55083,17 +55086,17 @@
         <v>1016.0</v>
       </c>
       <c r="B1017" s="2" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="C1017" s="2" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D1017" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E1017" s="2" t="s">
         <v>3238</v>
       </c>
-      <c r="D1017" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E1017" s="2" t="s">
-        <v>3237</v>
-      </c>
       <c r="F1017" s="2" t="n">
         <v>0.0</v>
       </c>
@@ -55101,19 +55104,19 @@
         <v>0.0</v>
       </c>
       <c r="H1017" s="2" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="I1017" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1017" s="2" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="K1017" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1017" s="2" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="M1017" s="2" t="n">
         <v>0.0</v>
@@ -55127,7 +55130,7 @@
         <v>1017.0</v>
       </c>
       <c r="B1018" s="2" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="C1018" s="2" t="s">
         <v>272</v>
@@ -55171,7 +55174,7 @@
         <v>1018.0</v>
       </c>
       <c r="B1019" s="2" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="C1019" s="2" t="s">
         <v>272</v>
@@ -55215,7 +55218,7 @@
         <v>1019.0</v>
       </c>
       <c r="B1020" s="2" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="C1020" s="2" t="s">
         <v>272</v>
@@ -55259,7 +55262,7 @@
         <v>1020.0</v>
       </c>
       <c r="B1021" s="2" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="C1021" s="2" t="s">
         <v>272</v>
@@ -55303,7 +55306,7 @@
         <v>1021.0</v>
       </c>
       <c r="B1022" s="2" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="C1022" s="2" t="s">
         <v>272</v>
@@ -55347,7 +55350,7 @@
         <v>1022.0</v>
       </c>
       <c r="B1023" s="2" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="C1023" s="2" t="s">
         <v>272</v>
@@ -55391,7 +55394,7 @@
         <v>1023.0</v>
       </c>
       <c r="B1024" s="2" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="C1024" s="2" t="s">
         <v>272</v>
@@ -55400,28 +55403,28 @@
         <v>0.0</v>
       </c>
       <c r="E1024" s="2" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F1024" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1024" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1024" s="2" t="s">
+        <v>3249</v>
+      </c>
+      <c r="I1024" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1024" s="2" t="s">
+        <v>3248</v>
+      </c>
+      <c r="K1024" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L1024" s="2" t="s">
         <v>3247</v>
-      </c>
-      <c r="F1024" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G1024" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H1024" s="2" t="s">
-        <v>3248</v>
-      </c>
-      <c r="I1024" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J1024" s="2" t="s">
-        <v>3247</v>
-      </c>
-      <c r="K1024" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L1024" s="2" t="s">
-        <v>3246</v>
       </c>
       <c r="M1024" s="2" t="n">
         <v>0.0</v>
@@ -55435,16 +55438,16 @@
         <v>1024.0</v>
       </c>
       <c r="B1025" s="2" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="C1025" s="2" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="D1025" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E1025" s="2" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="F1025" s="2" t="n">
         <v>0.0</v>
@@ -55453,19 +55456,19 @@
         <v>0.0</v>
       </c>
       <c r="H1025" s="2" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="I1025" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1025" s="2" t="s">
+        <v>3252</v>
+      </c>
+      <c r="K1025" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L1025" s="2" t="s">
         <v>3251</v>
-      </c>
-      <c r="K1025" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L1025" s="2" t="s">
-        <v>3250</v>
       </c>
       <c r="M1025" s="2" t="n">
         <v>0.0</v>
@@ -55479,10 +55482,10 @@
         <v>1025.0</v>
       </c>
       <c r="B1026" s="2" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="C1026" s="2" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="D1026" s="2" t="n">
         <v>0.0</v>
@@ -55497,19 +55500,19 @@
         <v>0.0</v>
       </c>
       <c r="H1026" s="2" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="I1026" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1026" s="2" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="K1026" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1026" s="2" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="M1026" s="2" t="n">
         <v>0.0</v>
@@ -55523,7 +55526,7 @@
         <v>1026.0</v>
       </c>
       <c r="B1027" s="2" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="C1027" s="2" t="s">
         <v>272</v>
@@ -55567,7 +55570,7 @@
         <v>1027.0</v>
       </c>
       <c r="B1028" s="2" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="C1028" s="2" t="s">
         <v>272</v>
@@ -55611,7 +55614,7 @@
         <v>1028.0</v>
       </c>
       <c r="B1029" s="2" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="C1029" s="2" t="s">
         <v>272</v>
@@ -55655,7 +55658,7 @@
         <v>1029.0</v>
       </c>
       <c r="B1030" s="2" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="C1030" s="2" t="s">
         <v>272</v>
@@ -55699,7 +55702,7 @@
         <v>1030.0</v>
       </c>
       <c r="B1031" s="2" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="C1031" s="2" t="s">
         <v>272</v>
@@ -55743,7 +55746,7 @@
         <v>1031.0</v>
       </c>
       <c r="B1032" s="2" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="C1032" s="2" t="s">
         <v>272</v>
@@ -55787,7 +55790,7 @@
         <v>1032.0</v>
       </c>
       <c r="B1033" s="2" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="C1033" s="2" t="s">
         <v>272</v>
@@ -55831,7 +55834,7 @@
         <v>1033.0</v>
       </c>
       <c r="B1034" s="2" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="C1034" s="2" t="s">
         <v>272</v>
@@ -55875,7 +55878,7 @@
         <v>1034.0</v>
       </c>
       <c r="B1035" s="2" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="C1035" s="2" t="s">
         <v>272</v>
@@ -55919,7 +55922,7 @@
         <v>1035.0</v>
       </c>
       <c r="B1036" s="2" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="C1036" s="2" t="s">
         <v>272</v>
@@ -55963,16 +55966,16 @@
         <v>1036.0</v>
       </c>
       <c r="B1037" s="2" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="C1037" s="2" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="D1037" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E1037" s="2" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="F1037" s="2" t="n">
         <v>0.0</v>
@@ -55981,19 +55984,19 @@
         <v>0.0</v>
       </c>
       <c r="H1037" s="2" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="I1037" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1037" s="2" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="K1037" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1037" s="2" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="M1037" s="2" t="n">
         <v>0.0</v>
@@ -56007,7 +56010,7 @@
         <v>1037.0</v>
       </c>
       <c r="B1038" s="2" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="C1038" s="2" t="s">
         <v>272</v>
@@ -56051,7 +56054,7 @@
         <v>1038.0</v>
       </c>
       <c r="B1039" s="2" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="C1039" s="2" t="s">
         <v>272</v>
@@ -56095,7 +56098,7 @@
         <v>1039.0</v>
       </c>
       <c r="B1040" s="2" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="C1040" s="2" t="s">
         <v>272</v>
@@ -56139,7 +56142,7 @@
         <v>1040.0</v>
       </c>
       <c r="B1041" s="2" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="C1041" s="2" t="s">
         <v>272</v>
@@ -56183,7 +56186,7 @@
         <v>1041.0</v>
       </c>
       <c r="B1042" s="2" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="C1042" s="2" t="s">
         <v>272</v>
@@ -56227,7 +56230,7 @@
         <v>1042.0</v>
       </c>
       <c r="B1043" s="2" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="C1043" s="2" t="s">
         <v>272</v>
@@ -56236,28 +56239,28 @@
         <v>0.0</v>
       </c>
       <c r="E1043" s="2" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F1043" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1043" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1043" s="2" t="s">
         <v>3279</v>
       </c>
-      <c r="F1043" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G1043" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H1043" s="2" t="s">
-        <v>3278</v>
-      </c>
       <c r="I1043" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1043" s="2" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="K1043" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1043" s="2" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="M1043" s="2" t="n">
         <v>0.0</v>
@@ -56271,7 +56274,7 @@
         <v>1043.0</v>
       </c>
       <c r="B1044" s="2" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="C1044" s="2" t="s">
         <v>272</v>
@@ -56315,7 +56318,7 @@
         <v>1044.0</v>
       </c>
       <c r="B1045" s="2" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="C1045" s="2" t="s">
         <v>272</v>
@@ -56359,7 +56362,7 @@
         <v>1045.0</v>
       </c>
       <c r="B1046" s="2" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="C1046" s="2" t="s">
         <v>272</v>
@@ -56383,7 +56386,7 @@
         <v>0.0</v>
       </c>
       <c r="J1046" s="2" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="K1046" s="2" t="n">
         <v>0.0</v>
@@ -56403,16 +56406,16 @@
         <v>1046.0</v>
       </c>
       <c r="B1047" s="2" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="C1047" s="2" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="D1047" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E1047" s="2" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="F1047" s="2" t="n">
         <v>0.0</v>
@@ -56421,19 +56424,19 @@
         <v>0.0</v>
       </c>
       <c r="H1047" s="2" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="I1047" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1047" s="2" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="K1047" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1047" s="2" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="M1047" s="2" t="n">
         <v>0.0</v>
@@ -56447,7 +56450,7 @@
         <v>1047.0</v>
       </c>
       <c r="B1048" s="2" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="C1048" s="2" t="s">
         <v>272</v>
@@ -56491,7 +56494,7 @@
         <v>1048.0</v>
       </c>
       <c r="B1049" s="2" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="C1049" s="2" t="s">
         <v>272</v>
@@ -56535,7 +56538,7 @@
         <v>1049.0</v>
       </c>
       <c r="B1050" s="2" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="C1050" s="2" t="s">
         <v>272</v>
@@ -56544,7 +56547,7 @@
         <v>0.0</v>
       </c>
       <c r="E1050" s="2" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="F1050" s="2" t="n">
         <v>0.0</v>
@@ -56553,19 +56556,19 @@
         <v>0.0</v>
       </c>
       <c r="H1050" s="2" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="I1050" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1050" s="2" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="K1050" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1050" s="2" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="M1050" s="2" t="n">
         <v>0.0</v>
@@ -56579,7 +56582,7 @@
         <v>1050.0</v>
       </c>
       <c r="B1051" s="2" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="C1051" s="2" t="s">
         <v>272</v>
@@ -56623,7 +56626,7 @@
         <v>1051.0</v>
       </c>
       <c r="B1052" s="2" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="C1052" s="2" t="s">
         <v>272</v>
@@ -56667,7 +56670,7 @@
         <v>1052.0</v>
       </c>
       <c r="B1053" s="2" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="C1053" s="2" t="s">
         <v>272</v>
@@ -56711,7 +56714,7 @@
         <v>1053.0</v>
       </c>
       <c r="B1054" s="2" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="C1054" s="2" t="s">
         <v>272</v>
@@ -56755,37 +56758,37 @@
         <v>1054.0</v>
       </c>
       <c r="B1055" s="2" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="C1055" s="2" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="D1055" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E1055" s="2" t="s">
+        <v>3297</v>
+      </c>
+      <c r="F1055" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1055" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1055" s="2" t="s">
         <v>3296</v>
       </c>
-      <c r="F1055" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G1055" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H1055" s="2" t="s">
-        <v>3295</v>
-      </c>
       <c r="I1055" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1055" s="2" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="K1055" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1055" s="2" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="M1055" s="2" t="n">
         <v>0.0</v>
@@ -56799,7 +56802,7 @@
         <v>1055.0</v>
       </c>
       <c r="B1056" s="2" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="C1056" s="2" t="s">
         <v>272</v>
@@ -56843,7 +56846,7 @@
         <v>1056.0</v>
       </c>
       <c r="B1057" s="2" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="C1057" s="2" t="s">
         <v>272</v>
@@ -56887,7 +56890,7 @@
         <v>1057.0</v>
       </c>
       <c r="B1058" s="2" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="C1058" s="2" t="s">
         <v>272</v>
@@ -56931,16 +56934,16 @@
         <v>1058.0</v>
       </c>
       <c r="B1059" s="2" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="C1059" s="2" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="D1059" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E1059" s="2" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="F1059" s="2" t="n">
         <v>0.0</v>
@@ -56949,19 +56952,19 @@
         <v>0.0</v>
       </c>
       <c r="H1059" s="2" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="I1059" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1059" s="2" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="K1059" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1059" s="2" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="M1059" s="2" t="n">
         <v>0.0</v>
@@ -56975,7 +56978,7 @@
         <v>1059.0</v>
       </c>
       <c r="B1060" s="2" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="C1060" s="2" t="s">
         <v>272</v>
@@ -57019,7 +57022,7 @@
         <v>1060.0</v>
       </c>
       <c r="B1061" s="2" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="C1061" s="2" t="s">
         <v>272</v>
@@ -57063,7 +57066,7 @@
         <v>1061.0</v>
       </c>
       <c r="B1062" s="2" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="C1062" s="2" t="s">
         <v>272</v>
@@ -57107,7 +57110,7 @@
         <v>1062.0</v>
       </c>
       <c r="B1063" s="2" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="C1063" s="2" t="s">
         <v>272</v>
@@ -57151,7 +57154,7 @@
         <v>1063.0</v>
       </c>
       <c r="B1064" s="2" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="C1064" s="2" t="s">
         <v>272</v>
@@ -57195,7 +57198,7 @@
         <v>1064.0</v>
       </c>
       <c r="B1065" s="2" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="C1065" s="2" t="s">
         <v>272</v>
@@ -57239,7 +57242,7 @@
         <v>1065.0</v>
       </c>
       <c r="B1066" s="2" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="C1066" s="2" t="s">
         <v>272</v>
@@ -57283,7 +57286,7 @@
         <v>1066.0</v>
       </c>
       <c r="B1067" s="2" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="C1067" s="2" t="s">
         <v>272</v>
@@ -57313,7 +57316,7 @@
         <v>0.0</v>
       </c>
       <c r="L1067" s="2" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="M1067" s="2" t="n">
         <v>0.0</v>
@@ -57327,7 +57330,7 @@
         <v>1067.0</v>
       </c>
       <c r="B1068" s="2" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="C1068" s="2" t="s">
         <v>272</v>
@@ -57371,7 +57374,7 @@
         <v>1068.0</v>
       </c>
       <c r="B1069" s="2" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="C1069" s="2" t="s">
         <v>272</v>
@@ -57415,7 +57418,7 @@
         <v>1069.0</v>
       </c>
       <c r="B1070" s="2" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="C1070" s="2" t="s">
         <v>272</v>
@@ -57459,7 +57462,7 @@
         <v>1070.0</v>
       </c>
       <c r="B1071" s="2" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="C1071" s="2" t="s">
         <v>272</v>
@@ -57503,7 +57506,7 @@
         <v>1071.0</v>
       </c>
       <c r="B1072" s="2" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="C1072" s="2" t="s">
         <v>272</v>
@@ -57512,7 +57515,7 @@
         <v>0.0</v>
       </c>
       <c r="E1072" s="2" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="F1072" s="2" t="n">
         <v>0.0</v>
@@ -57521,19 +57524,19 @@
         <v>0.0</v>
       </c>
       <c r="H1072" s="2" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="I1072" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1072" s="2" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="K1072" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1072" s="2" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="M1072" s="2" t="n">
         <v>0.0</v>
@@ -57547,7 +57550,7 @@
         <v>1072.0</v>
       </c>
       <c r="B1073" s="2" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="C1073" s="2" t="s">
         <v>272</v>
@@ -57591,7 +57594,7 @@
         <v>1073.0</v>
       </c>
       <c r="B1074" s="2" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="C1074" s="2" t="s">
         <v>272</v>
@@ -57635,7 +57638,7 @@
         <v>1074.0</v>
       </c>
       <c r="B1075" s="2" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="C1075" s="2" t="s">
         <v>272</v>
@@ -57679,7 +57682,7 @@
         <v>1075.0</v>
       </c>
       <c r="B1076" s="2" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="C1076" s="2" t="s">
         <v>272</v>
@@ -57723,7 +57726,7 @@
         <v>1076.0</v>
       </c>
       <c r="B1077" s="2" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="C1077" s="2" t="s">
         <v>272</v>
@@ -57767,17 +57770,17 @@
         <v>1077.0</v>
       </c>
       <c r="B1078" s="2" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="C1078" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D1078" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E1078" s="2" t="s">
         <v>3328</v>
       </c>
-      <c r="D1078" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E1078" s="2" t="s">
-        <v>3327</v>
-      </c>
       <c r="F1078" s="2" t="n">
         <v>0.0</v>
       </c>
@@ -57785,19 +57788,19 @@
         <v>0.0</v>
       </c>
       <c r="H1078" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="I1078" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1078" s="2" t="s">
         <v>3328</v>
       </c>
-      <c r="I1078" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J1078" s="2" t="s">
-        <v>3327</v>
-      </c>
       <c r="K1078" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1078" s="2" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="M1078" s="2" t="n">
         <v>0.0</v>
@@ -57811,7 +57814,7 @@
         <v>1078.0</v>
       </c>
       <c r="B1079" s="2" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="C1079" s="2" t="s">
         <v>272</v>
@@ -57855,7 +57858,7 @@
         <v>1079.0</v>
       </c>
       <c r="B1080" s="2" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="C1080" s="2" t="s">
         <v>272</v>
@@ -57899,7 +57902,7 @@
         <v>1080.0</v>
       </c>
       <c r="B1081" s="2" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="C1081" s="2" t="s">
         <v>272</v>
@@ -57943,7 +57946,7 @@
         <v>1081.0</v>
       </c>
       <c r="B1082" s="2" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="C1082" s="2" t="s">
         <v>272</v>
@@ -57952,7 +57955,7 @@
         <v>0.0</v>
       </c>
       <c r="E1082" s="2" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="F1082" s="2" t="n">
         <v>0.0</v>
@@ -57961,19 +57964,19 @@
         <v>0.0</v>
       </c>
       <c r="H1082" s="2" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="I1082" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1082" s="2" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="K1082" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1082" s="2" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="M1082" s="2" t="n">
         <v>0.0</v>
@@ -57987,7 +57990,7 @@
         <v>1082.0</v>
       </c>
       <c r="B1083" s="2" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="C1083" s="2" t="s">
         <v>272</v>
@@ -58005,19 +58008,19 @@
         <v>0.0</v>
       </c>
       <c r="H1083" s="2" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="I1083" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1083" s="2" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="K1083" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1083" s="2" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="M1083" s="2" t="n">
         <v>0.0</v>
@@ -58031,7 +58034,7 @@
         <v>1083.0</v>
       </c>
       <c r="B1084" s="2" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="C1084" s="2" t="s">
         <v>272</v>
@@ -58075,7 +58078,7 @@
         <v>1084.0</v>
       </c>
       <c r="B1085" s="2" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="C1085" s="2" t="s">
         <v>272</v>
@@ -58119,7 +58122,7 @@
         <v>1085.0</v>
       </c>
       <c r="B1086" s="2" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="C1086" s="2" t="s">
         <v>272</v>
@@ -58163,7 +58166,7 @@
         <v>1086.0</v>
       </c>
       <c r="B1087" s="2" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="C1087" s="2" t="s">
         <v>272</v>
@@ -58193,7 +58196,7 @@
         <v>0.0</v>
       </c>
       <c r="L1087" s="2" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="M1087" s="2" t="n">
         <v>0.0</v>
@@ -58207,7 +58210,7 @@
         <v>1087.0</v>
       </c>
       <c r="B1088" s="2" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="C1088" s="2" t="s">
         <v>272</v>
@@ -58251,7 +58254,7 @@
         <v>1088.0</v>
       </c>
       <c r="B1089" s="2" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="C1089" s="2" t="s">
         <v>272</v>
@@ -58281,7 +58284,7 @@
         <v>0.0</v>
       </c>
       <c r="L1089" s="2" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="M1089" s="2" t="n">
         <v>0.0</v>
@@ -58295,7 +58298,7 @@
         <v>1089.0</v>
       </c>
       <c r="B1090" s="2" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="C1090" s="2" t="s">
         <v>272</v>
@@ -58304,7 +58307,7 @@
         <v>0.0</v>
       </c>
       <c r="E1090" s="2" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="F1090" s="2" t="n">
         <v>0.0</v>
@@ -58313,19 +58316,19 @@
         <v>0.0</v>
       </c>
       <c r="H1090" s="2" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="I1090" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1090" s="2" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="K1090" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1090" s="2" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="M1090" s="2" t="n">
         <v>0.0</v>
@@ -58339,7 +58342,7 @@
         <v>1090.0</v>
       </c>
       <c r="B1091" s="2" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="C1091" s="2" t="s">
         <v>272</v>
@@ -58383,7 +58386,7 @@
         <v>1091.0</v>
       </c>
       <c r="B1092" s="2" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="C1092" s="2" t="s">
         <v>272</v>
@@ -58427,7 +58430,7 @@
         <v>1092.0</v>
       </c>
       <c r="B1093" s="2" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="C1093" s="2" t="s">
         <v>272</v>
@@ -58471,7 +58474,7 @@
         <v>1093.0</v>
       </c>
       <c r="B1094" s="2" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="C1094" s="2" t="s">
         <v>272</v>
@@ -58515,7 +58518,7 @@
         <v>1094.0</v>
       </c>
       <c r="B1095" s="2" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="C1095" s="2" t="s">
         <v>272</v>
@@ -58524,7 +58527,7 @@
         <v>0.0</v>
       </c>
       <c r="E1095" s="2" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="F1095" s="2" t="n">
         <v>0.0</v>
@@ -58533,19 +58536,19 @@
         <v>0.0</v>
       </c>
       <c r="H1095" s="2" t="s">
+        <v>3353</v>
+      </c>
+      <c r="I1095" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1095" s="2" t="s">
+        <v>3354</v>
+      </c>
+      <c r="K1095" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L1095" s="2" t="s">
         <v>3352</v>
-      </c>
-      <c r="I1095" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J1095" s="2" t="s">
-        <v>3353</v>
-      </c>
-      <c r="K1095" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L1095" s="2" t="s">
-        <v>3351</v>
       </c>
       <c r="M1095" s="2" t="n">
         <v>0.0</v>
@@ -58559,7 +58562,7 @@
         <v>1095.0</v>
       </c>
       <c r="B1096" s="2" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="C1096" s="2" t="s">
         <v>272</v>
@@ -58603,7 +58606,7 @@
         <v>1096.0</v>
       </c>
       <c r="B1097" s="2" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="C1097" s="2" t="s">
         <v>272</v>
@@ -58647,7 +58650,7 @@
         <v>1097.0</v>
       </c>
       <c r="B1098" s="2" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="C1098" s="2" t="s">
         <v>272</v>
@@ -58691,7 +58694,7 @@
         <v>1098.0</v>
       </c>
       <c r="B1099" s="2" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="C1099" s="2" t="s">
         <v>272</v>
@@ -58735,7 +58738,7 @@
         <v>1099.0</v>
       </c>
       <c r="B1100" s="2" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="C1100" s="2" t="s">
         <v>272</v>
@@ -58759,13 +58762,13 @@
         <v>0.0</v>
       </c>
       <c r="J1100" s="2" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="K1100" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1100" s="2" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="M1100" s="2" t="n">
         <v>0.0</v>
@@ -58779,7 +58782,7 @@
         <v>1100.0</v>
       </c>
       <c r="B1101" s="2" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="C1101" s="2" t="s">
         <v>272</v>
@@ -58823,7 +58826,7 @@
         <v>1101.0</v>
       </c>
       <c r="B1102" s="2" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="C1102" s="2" t="s">
         <v>272</v>
@@ -58867,7 +58870,7 @@
         <v>1102.0</v>
       </c>
       <c r="B1103" s="2" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="C1103" s="2" t="s">
         <v>272</v>
@@ -58911,7 +58914,7 @@
         <v>1103.0</v>
       </c>
       <c r="B1104" s="2" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="C1104" s="2" t="s">
         <v>272</v>
@@ -58955,7 +58958,7 @@
         <v>1104.0</v>
       </c>
       <c r="B1105" s="2" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="C1105" s="2" t="s">
         <v>272</v>
@@ -58999,7 +59002,7 @@
         <v>1105.0</v>
       </c>
       <c r="B1106" s="2" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="C1106" s="2" t="s">
         <v>272</v>
@@ -59043,7 +59046,7 @@
         <v>1106.0</v>
       </c>
       <c r="B1107" s="2" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="C1107" s="2" t="s">
         <v>272</v>
@@ -59087,7 +59090,7 @@
         <v>1107.0</v>
       </c>
       <c r="B1108" s="2" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="C1108" s="2" t="s">
         <v>272</v>
@@ -59131,7 +59134,7 @@
         <v>1108.0</v>
       </c>
       <c r="B1109" s="2" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="C1109" s="2" t="s">
         <v>272</v>
@@ -59175,7 +59178,7 @@
         <v>1109.0</v>
       </c>
       <c r="B1110" s="2" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="C1110" s="2" t="s">
         <v>272</v>
@@ -59219,7 +59222,7 @@
         <v>1110.0</v>
       </c>
       <c r="B1111" s="2" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="C1111" s="2" t="s">
         <v>272</v>
@@ -59263,7 +59266,7 @@
         <v>1111.0</v>
       </c>
       <c r="B1112" s="2" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="C1112" s="2" t="s">
         <v>272</v>
@@ -59307,7 +59310,7 @@
         <v>1112.0</v>
       </c>
       <c r="B1113" s="2" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="C1113" s="2" t="s">
         <v>272</v>
@@ -59351,7 +59354,7 @@
         <v>1113.0</v>
       </c>
       <c r="B1114" s="2" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="C1114" s="2" t="s">
         <v>272</v>
@@ -59395,7 +59398,7 @@
         <v>1114.0</v>
       </c>
       <c r="B1115" s="2" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="C1115" s="2" t="s">
         <v>272</v>
@@ -59439,37 +59442,37 @@
         <v>1115.0</v>
       </c>
       <c r="B1116" s="2" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="C1116" s="2" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="D1116" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E1116" s="2" t="s">
+        <v>3379</v>
+      </c>
+      <c r="F1116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G1116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H1116" s="2" t="s">
+        <v>3380</v>
+      </c>
+      <c r="I1116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1116" s="2" t="s">
+        <v>3381</v>
+      </c>
+      <c r="K1116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L1116" s="2" t="s">
         <v>3378</v>
-      </c>
-      <c r="F1116" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G1116" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H1116" s="2" t="s">
-        <v>3379</v>
-      </c>
-      <c r="I1116" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J1116" s="2" t="s">
-        <v>3380</v>
-      </c>
-      <c r="K1116" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L1116" s="2" t="s">
-        <v>3377</v>
       </c>
       <c r="M1116" s="2" t="n">
         <v>0.0</v>
@@ -59483,7 +59486,7 @@
         <v>1116.0</v>
       </c>
       <c r="B1117" s="2" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="C1117" s="2" t="s">
         <v>272</v>
@@ -59527,7 +59530,7 @@
         <v>1117.0</v>
       </c>
       <c r="B1118" s="2" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="C1118" s="2" t="s">
         <v>272</v>
@@ -59571,7 +59574,7 @@
         <v>1118.0</v>
       </c>
       <c r="B1119" s="2" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="C1119" s="2" t="s">
         <v>272</v>
@@ -59615,16 +59618,16 @@
         <v>1119.0</v>
       </c>
       <c r="B1120" s="2" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="C1120" s="2" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="D1120" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E1120" s="2" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F1120" s="2" t="n">
         <v>0.0</v>
@@ -59639,13 +59642,13 @@
         <v>0.0</v>
       </c>
       <c r="J1120" s="2" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="K1120" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1120" s="2" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="M1120" s="2" t="n">
         <v>0.0</v>
@@ -59659,7 +59662,7 @@
         <v>1120.0</v>
       </c>
       <c r="B1121" s="2" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="C1121" s="2" t="s">
         <v>272</v>
@@ -59703,7 +59706,7 @@
         <v>1121.0</v>
       </c>
       <c r="B1122" s="2" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="C1122" s="2" t="s">
         <v>272</v>
@@ -59747,10 +59750,10 @@
         <v>1122.0</v>
       </c>
       <c r="B1123" s="2" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="C1123" s="2" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="D1123" s="2" t="n">
         <v>0.0</v>
@@ -59765,19 +59768,19 @@
         <v>0.0</v>
       </c>
       <c r="H1123" s="2" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="I1123" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J1123" s="2" t="s">
+        <v>3392</v>
+      </c>
+      <c r="K1123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L1123" s="2" t="s">
         <v>3391</v>
-      </c>
-      <c r="K1123" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L1123" s="2" t="s">
-        <v>3390</v>
       </c>
       <c r="M1123" s="2" t="n">
         <v>0.0</v>
@@ -59791,7 +59794,7 @@
         <v>1123.0</v>
       </c>
       <c r="B1124" s="2" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="C1124" s="2" t="s">
         <v>272</v>
@@ -59835,7 +59838,7 @@
         <v>1124.0</v>
       </c>
       <c r="B1125" s="2" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="C1125" s="2" t="s">
         <v>272</v>
@@ -59879,7 +59882,7 @@
         <v>1125.0</v>
       </c>
       <c r="B1126" s="2" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="C1126" s="2" t="s">
         <v>272</v>
@@ -59903,7 +59906,7 @@
         <v>0.0</v>
       </c>
       <c r="J1126" s="2" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="K1126" s="2" t="n">
         <v>0.0</v>
@@ -59923,16 +59926,16 @@
         <v>1126.0</v>
       </c>
       <c r="B1127" s="2" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="C1127" s="2" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="D1127" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E1127" s="2" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="F1127" s="2" t="n">
         <v>0.0</v>
@@ -59941,19 +59944,19 @@
         <v>0.0</v>
       </c>
       <c r="H1127" s="2" t="s">
+        <v>3399</v>
+      </c>
+      <c r="I1127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1127" s="2" t="s">
         <v>3398</v>
       </c>
-      <c r="I1127" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J1127" s="2" t="s">
-        <v>3397</v>
-      </c>
       <c r="K1127" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1127" s="2" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="M1127" s="2" t="n">
         <v>0.0</v>
@@ -59967,16 +59970,16 @@
         <v>1127.0</v>
       </c>
       <c r="B1128" s="2" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="C1128" s="2" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="D1128" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E1128" s="2" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="F1128" s="2" t="n">
         <v>0.0</v>
@@ -59985,19 +59988,19 @@
         <v>0.0</v>
       </c>
       <c r="H1128" s="2" t="s">
+        <v>3404</v>
+      </c>
+      <c r="I1128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J1128" s="2" t="s">
         <v>3403</v>
       </c>
-      <c r="I1128" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J1128" s="2" t="s">
-        <v>3402</v>
-      </c>
       <c r="K1128" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L1128" s="2" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="M1128" s="2" t="n">
         <v>0.0</v>
@@ -60011,7 +60014,7 @@
         <v>1128.0</v>
       </c>
       <c r="B1129" s="2" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="C1129" s="2" t="s">
         <v>272</v>
@@ -60055,7 +60058,7 @@
         <v>1129.0</v>
       </c>
       <c r="B1130" s="2" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="C1130" s="2" t="s">
         <v>272</v>
@@ -60064,7 +60067,7 @@
         <v>0.0</v>
       </c>
       <c r="E1130" s="2" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="F1130" s="2" t="n">
         <v>0.0</v>
@@ -60073,7 +60076,7 @@
         <v>0.0</v>
       </c>
       <c r="H1130" s="2" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="I1130" s="2" t="n">
         <v>0.0</v>
@@ -60085,7 +60088,7 @@
         <v>0.0</v>
       </c>
       <c r="L1130" s="2" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="M1130" s="2" t="n">
         <v>0.0</v>
@@ -60099,7 +60102,7 @@
         <v>1130.0</v>
       </c>
       <c r="B1131" s="2" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="C1131" s="2" t="s">
         <v>272</v>
@@ -60143,7 +60146,7 @@
         <v>1131.0</v>
       </c>
       <c r="B1132" s="2" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="C1132" s="2" t="s">
         <v>272</v>
@@ -60187,7 +60190,7 @@
         <v>1132.0</v>
       </c>
       <c r="B1133" s="2" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="C1133" s="2" t="s">
         <v>272</v>
@@ -60231,7 +60234,7 @@
         <v>1133.0</v>
       </c>
       <c r="B1134" s="2" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="C1134" s="2" t="s">
         <v>272</v>
@@ -60275,7 +60278,7 @@
         <v>1134.0</v>
       </c>
       <c r="B1135" s="2" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="C1135" s="2" t="s">
         <v>272</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -48111,7 +48111,7 @@
         <v>80.0</v>
       </c>
       <c r="G888" s="2" t="n">
-        <v>210.0</v>
+        <v>212.0</v>
       </c>
       <c r="H888" s="2" t="s">
         <v>2344</v>
@@ -48859,7 +48859,7 @@
         <v>114.0</v>
       </c>
       <c r="G905" s="2" t="n">
-        <v>106.0</v>
+        <v>108.0</v>
       </c>
       <c r="H905" s="2" t="s">
         <v>2396</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -101,7 +101,7 @@
     <t>rohithgoje21</t>
   </si>
   <si>
-    <t>63.66%</t>
+    <t>63.68%</t>
   </si>
   <si>
     <t>22R01A66D5</t>
@@ -125,7 +125,7 @@
     <t>sellilavanya</t>
   </si>
   <si>
-    <t>61.35%</t>
+    <t>61.38%</t>
   </si>
   <si>
     <t>22R01A05L5</t>
@@ -7094,6 +7094,18 @@
     <t>vennela_414</t>
   </si>
   <si>
+    <t>22R01A6790</t>
+  </si>
+  <si>
+    <t>Glory1510</t>
+  </si>
+  <si>
+    <t>Glory</t>
+  </si>
+  <si>
+    <t>glorysucharitha1</t>
+  </si>
+  <si>
     <t>22R01A0475</t>
   </si>
   <si>
@@ -7149,18 +7161,6 @@
   </si>
   <si>
     <t>23r05a6714</t>
-  </si>
-  <si>
-    <t>22R01A6790</t>
-  </si>
-  <si>
-    <t>Glory1510</t>
-  </si>
-  <si>
-    <t>Glory</t>
-  </si>
-  <si>
-    <t>glorysucharitha1</t>
   </si>
   <si>
     <t>22R01A67J7</t>
@@ -10553,7 +10553,7 @@
         <v>254.0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>183.0</v>
+        <v>185.0</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>28</v>
@@ -10641,7 +10641,7 @@
         <v>176.0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>111.0</v>
+        <v>114.0</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>35</v>
@@ -32497,13 +32497,13 @@
         <v>2360</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>193</v>
+        <v>2361</v>
       </c>
       <c r="D503" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="F503" s="2" t="n">
         <v>0.0</v>
@@ -32512,7 +32512,7 @@
         <v>0.0</v>
       </c>
       <c r="H503" s="2" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="I503" s="2" t="n">
         <v>0.0</v>
@@ -32524,7 +32524,7 @@
         <v>0.0</v>
       </c>
       <c r="L503" s="2" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="M503" s="2" t="n">
         <v>6.0</v>
@@ -32538,10 +32538,10 @@
         <v>503.0</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>2364</v>
+        <v>193</v>
       </c>
       <c r="D504" s="2" t="n">
         <v>0.0</v>
@@ -32556,7 +32556,7 @@
         <v>0.0</v>
       </c>
       <c r="H504" s="2" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="I504" s="2" t="n">
         <v>0.0</v>
@@ -32568,7 +32568,7 @@
         <v>0.0</v>
       </c>
       <c r="L504" s="2" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="M504" s="2" t="n">
         <v>6.0</v>
@@ -32582,10 +32582,10 @@
         <v>504.0</v>
       </c>
       <c r="B505" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C505" s="2" t="s">
         <v>2368</v>
-      </c>
-      <c r="C505" s="2" t="s">
-        <v>2369</v>
       </c>
       <c r="D505" s="2" t="n">
         <v>0.0</v>
@@ -32600,25 +32600,25 @@
         <v>0.0</v>
       </c>
       <c r="H505" s="2" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="I505" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J505" s="2" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="K505" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L505" s="2" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="M505" s="2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="N505" s="2" t="s">
-        <v>2370</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="506">
@@ -32626,16 +32626,16 @@
         <v>505.0</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="D506" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="F506" s="2" t="n">
         <v>0.0</v>
@@ -32650,19 +32650,19 @@
         <v>0.0</v>
       </c>
       <c r="J506" s="2" t="s">
-        <v>193</v>
+        <v>2373</v>
       </c>
       <c r="K506" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="L506" s="2" t="s">
+        <v>2373</v>
+      </c>
+      <c r="M506" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N506" s="2" t="s">
         <v>2374</v>
-      </c>
-      <c r="M506" s="2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="N506" s="2" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="507">
@@ -32670,25 +32670,25 @@
         <v>506.0</v>
       </c>
       <c r="B507" s="2" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D507" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E507" s="2" t="s">
         <v>2376</v>
       </c>
-      <c r="C507" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D507" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E507" s="2" t="s">
+      <c r="F507" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G507" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H507" s="2" t="s">
         <v>2377</v>
-      </c>
-      <c r="F507" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G507" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H507" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="I507" s="2" t="n">
         <v>0.0</v>
@@ -32706,7 +32706,7 @@
         <v>4.0</v>
       </c>
       <c r="N507" s="2" t="s">
-        <v>2375</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="508">
@@ -32714,10 +32714,10 @@
         <v>507.0</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>2380</v>
+        <v>193</v>
       </c>
       <c r="D508" s="2" t="n">
         <v>0.0</v>
@@ -32732,13 +32732,13 @@
         <v>0.0</v>
       </c>
       <c r="H508" s="2" t="s">
-        <v>2381</v>
+        <v>193</v>
       </c>
       <c r="I508" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="J508" s="2" t="s">
-        <v>2381</v>
+        <v>193</v>
       </c>
       <c r="K508" s="2" t="n">
         <v>0.0</v>
@@ -32750,7 +32750,7 @@
         <v>4.0</v>
       </c>
       <c r="N508" s="2" t="s">
-        <v>2375</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="509">

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -125,7 +125,7 @@
     <t>sellilavanya</t>
   </si>
   <si>
-    <t>59.47</t>
+    <t>59.51</t>
   </si>
   <si>
     <t>22R01A0531</t>
@@ -419,7 +419,7 @@
     <t>koushikpatel</t>
   </si>
   <si>
-    <t>40.96</t>
+    <t>41.16</t>
   </si>
   <si>
     <t>22R01A04C3</t>
@@ -1244,6 +1244,21 @@
     <t>32.77</t>
   </si>
   <si>
+    <t>22R01A0517</t>
+  </si>
+  <si>
+    <t>akshaya_23</t>
+  </si>
+  <si>
+    <t>22r01a0517</t>
+  </si>
+  <si>
+    <t>akshuspoorthi</t>
+  </si>
+  <si>
+    <t>32.68</t>
+  </si>
+  <si>
     <t>22R01A6673</t>
   </si>
   <si>
@@ -1401,21 +1416,6 @@
   </si>
   <si>
     <t>31.24</t>
-  </si>
-  <si>
-    <t>22R01A0517</t>
-  </si>
-  <si>
-    <t>akshaya_23</t>
-  </si>
-  <si>
-    <t>22r01a0517</t>
-  </si>
-  <si>
-    <t>akshuspoorthi</t>
-  </si>
-  <si>
-    <t>31.21</t>
   </si>
   <si>
     <t>22R01A6780</t>
@@ -10761,7 +10761,7 @@
         <v>186.0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>132.0</v>
+        <v>136.0</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>35</v>
@@ -11641,7 +11641,7 @@
         <v>0.0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>37.0</v>
+        <v>57.0</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>133</v>
@@ -14184,34 +14184,34 @@
         <v>411</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>382.0</v>
+        <v>604.0</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F84" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G84" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H84" s="2" t="s">
+      <c r="I84" s="2" t="n">
+        <v>1380.0</v>
+      </c>
+      <c r="J84" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="I84" s="2" t="n">
-        <v>1412.0</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="K84" s="2" t="n">
-        <v>931.0</v>
+        <v>1122.0</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>411</v>
       </c>
       <c r="M84" s="2" t="n">
-        <v>165.0</v>
+        <v>33.0</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>414</v>
@@ -14228,10 +14228,10 @@
         <v>416</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>639.0</v>
+        <v>382.0</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F85" s="2" t="n">
         <v>0.0</v>
@@ -14240,25 +14240,25 @@
         <v>0.0</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>1418.0</v>
+        <v>1412.0</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>416</v>
       </c>
       <c r="K85" s="2" t="n">
-        <v>1171.0</v>
+        <v>931.0</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>416</v>
       </c>
       <c r="M85" s="2" t="n">
-        <v>0.0</v>
+        <v>165.0</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="86">
@@ -14266,16 +14266,16 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>577.0</v>
+        <v>639.0</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>206</v>
+        <v>421</v>
       </c>
       <c r="F86" s="2" t="n">
         <v>0.0</v>
@@ -14284,25 +14284,25 @@
         <v>0.0</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>1595.0</v>
+        <v>1418.0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K86" s="2" t="n">
-        <v>1231.0</v>
+        <v>1171.0</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M86" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87">
@@ -14310,43 +14310,43 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>579.0</v>
+        <v>577.0</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>422</v>
+        <v>206</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>1151.0</v>
+        <v>1595.0</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K87" s="2" t="n">
-        <v>1046.0</v>
+        <v>1231.0</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M87" s="2" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88">
@@ -14354,40 +14354,40 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>783.0</v>
+        <v>579.0</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>427</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>1451.0</v>
+        <v>1151.0</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>428</v>
       </c>
       <c r="K88" s="2" t="n">
-        <v>504.0</v>
+        <v>1046.0</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M88" s="2" t="n">
-        <v>2.0</v>
+        <v>35.0</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>429</v>
@@ -14401,10 +14401,10 @@
         <v>430</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>573.0</v>
+        <v>783.0</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>431</v>
@@ -14413,28 +14413,28 @@
         <v>0.0</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>1474.0</v>
+        <v>1451.0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K89" s="2" t="n">
-        <v>1242.0</v>
+        <v>504.0</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>431</v>
       </c>
       <c r="M89" s="2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="90">
@@ -14442,43 +14442,43 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>435</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>585.0</v>
+        <v>573.0</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>206</v>
+        <v>436</v>
       </c>
       <c r="F90" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>1364.0</v>
+        <v>1474.0</v>
       </c>
       <c r="J90" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>1242.0</v>
+      </c>
+      <c r="L90" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="K90" s="2" t="n">
-        <v>1065.0</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="M90" s="2" t="n">
-        <v>35.0</v>
+        <v>5.0</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="91">
@@ -14486,40 +14486,40 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>588.0</v>
+        <v>585.0</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F91" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G91" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="I91" s="2" t="n">
-        <v>1320.0</v>
+        <v>1364.0</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>441</v>
       </c>
       <c r="K91" s="2" t="n">
-        <v>1062.0</v>
+        <v>1065.0</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M91" s="2" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>442</v>
@@ -14536,7 +14536,7 @@
         <v>444</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>572.0</v>
+        <v>588.0</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>445</v>
@@ -14548,25 +14548,25 @@
         <v>0.0</v>
       </c>
       <c r="H92" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>1320.0</v>
+      </c>
+      <c r="J92" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="I92" s="2" t="n">
-        <v>1271.0</v>
-      </c>
-      <c r="J92" s="2" t="s">
+      <c r="K92" s="2" t="n">
+        <v>1062.0</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="M92" s="2" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="N92" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="K92" s="2" t="n">
-        <v>1268.0</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="M92" s="2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="93">
@@ -14574,43 +14574,43 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>572.0</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="F93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>782.0</v>
-      </c>
-      <c r="E93" s="2" t="s">
+      <c r="I93" s="2" t="n">
+        <v>1271.0</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F93" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G93" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H93" s="2" t="s">
+      <c r="K93" s="2" t="n">
+        <v>1268.0</v>
+      </c>
+      <c r="L93" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="I93" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J93" s="2" t="s">
+      <c r="M93" s="2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="N93" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="K93" s="2" t="n">
-        <v>421.0</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="M93" s="2" t="n">
-        <v>182.0</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="94">
@@ -14618,43 +14618,43 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>782.0</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="F94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D94" s="2" t="n">
-        <v>816.0</v>
-      </c>
-      <c r="E94" s="2" t="s">
+      <c r="I94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J94" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F94" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G94" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H94" s="2" t="s">
+      <c r="K94" s="2" t="n">
+        <v>421.0</v>
+      </c>
+      <c r="L94" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="I94" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J94" s="2" t="s">
+      <c r="M94" s="2" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="K94" s="2" t="n">
-        <v>864.0</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="M94" s="2" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="95">
@@ -14662,13 +14662,13 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="D95" s="2" t="n">
-        <v>604.0</v>
+        <v>816.0</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>464</v>
@@ -14683,19 +14683,19 @@
         <v>465</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>1380.0</v>
+        <v>0.0</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>466</v>
       </c>
       <c r="K95" s="2" t="n">
-        <v>1122.0</v>
+        <v>864.0</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M95" s="2" t="n">
-        <v>3.0</v>
+        <v>103.0</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>467</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -125,7 +125,7 @@
     <t>sellilavanya</t>
   </si>
   <si>
-    <t>59.25</t>
+    <t>59.29</t>
   </si>
   <si>
     <t>22R01A0531</t>
@@ -10815,7 +10815,7 @@
         <v>186.0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>140.0</v>
+        <v>144.0</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>35</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -158,7 +158,7 @@
     <t>KIREET_5L5</t>
   </si>
   <si>
-    <t>55.41</t>
+    <t>55.51</t>
   </si>
   <si>
     <t>22R01A05C9</t>
@@ -10903,7 +10903,7 @@
         <v>60.0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>296.0</v>
+        <v>306.0</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>45</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -140,7 +140,7 @@
     <t>sellilavanya</t>
   </si>
   <si>
-    <t>59.09</t>
+    <t>59.11</t>
   </si>
   <si>
     <t>22R01A05L5</t>
@@ -161,7 +161,7 @@
     <t>KIREET_5L5</t>
   </si>
   <si>
-    <t>55.35</t>
+    <t>55.4</t>
   </si>
   <si>
     <t>22R01A05C9</t>
@@ -3860,7 +3860,7 @@
     <t>vanisathvika</t>
   </si>
   <si>
-    <t>15.64</t>
+    <t>15.65</t>
   </si>
   <si>
     <t>22R01A0456</t>
@@ -10859,7 +10859,7 @@
         <v>186.0</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>156.0</v>
+        <v>158.0</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>40</v>
@@ -10903,7 +10903,7 @@
         <v>60.0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>312.0</v>
+        <v>317.0</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>46</v>
@@ -22035,7 +22035,7 @@
         <v>0.0</v>
       </c>
       <c r="G261" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>1280</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -71,7 +71,7 @@
     <t>shivakrishnamur1</t>
   </si>
   <si>
-    <t>66.0</t>
+    <t>66.03</t>
   </si>
   <si>
     <t>22R01A7339</t>
@@ -797,6 +797,36 @@
     <t>36.33</t>
   </si>
   <si>
+    <t>22R01A05N5</t>
+  </si>
+  <si>
+    <t>navaneethmahar</t>
+  </si>
+  <si>
+    <t>22r01a05n5</t>
+  </si>
+  <si>
+    <t>navaneethmahara</t>
+  </si>
+  <si>
+    <t>navaneethmahara1</t>
+  </si>
+  <si>
+    <t>35.99</t>
+  </si>
+  <si>
+    <t>23R05A0525</t>
+  </si>
+  <si>
+    <t>23r05a0525</t>
+  </si>
+  <si>
+    <t>23r05a1nal</t>
+  </si>
+  <si>
+    <t>cmr23r05a0525</t>
+  </si>
+  <si>
     <t>22R01A0505</t>
   </si>
   <si>
@@ -806,37 +836,7 @@
     <t>eshu5886</t>
   </si>
   <si>
-    <t>36.14</t>
-  </si>
-  <si>
-    <t>22R01A05N5</t>
-  </si>
-  <si>
-    <t>navaneethmahar</t>
-  </si>
-  <si>
-    <t>22r01a05n5</t>
-  </si>
-  <si>
-    <t>navaneethmahara</t>
-  </si>
-  <si>
-    <t>navaneethmahara1</t>
-  </si>
-  <si>
-    <t>35.99</t>
-  </si>
-  <si>
-    <t>23R05A0525</t>
-  </si>
-  <si>
-    <t>23r05a0525</t>
-  </si>
-  <si>
-    <t>23r05a1nal</t>
-  </si>
-  <si>
-    <t>cmr23r05a0525</t>
+    <t>35.96</t>
   </si>
   <si>
     <t>22R01A05B0</t>
@@ -848,9 +848,6 @@
     <t>22r01a05b0</t>
   </si>
   <si>
-    <t>35.96</t>
-  </si>
-  <si>
     <t>23R05A6705</t>
   </si>
   <si>
@@ -1067,6 +1064,18 @@
     <t>34.17</t>
   </si>
   <si>
+    <t>23R05A0501</t>
+  </si>
+  <si>
+    <t>sreemahi</t>
+  </si>
+  <si>
+    <t>23r05a0501</t>
+  </si>
+  <si>
+    <t>34.04</t>
+  </si>
+  <si>
     <t>22R01A6235</t>
   </si>
   <si>
@@ -1124,30 +1133,21 @@
     <t>33.68</t>
   </si>
   <si>
-    <t>23R05A0501</t>
-  </si>
-  <si>
-    <t>sreemahi</t>
-  </si>
-  <si>
-    <t>23r05a0501</t>
+    <t>22R01A67D0</t>
+  </si>
+  <si>
+    <t>sujith09</t>
+  </si>
+  <si>
+    <t>sujith90</t>
+  </si>
+  <si>
+    <t>22r01a67d0</t>
   </si>
   <si>
     <t>33.67</t>
   </si>
   <si>
-    <t>22R01A67D0</t>
-  </si>
-  <si>
-    <t>sujith09</t>
-  </si>
-  <si>
-    <t>sujith90</t>
-  </si>
-  <si>
-    <t>22r01a67d0</t>
-  </si>
-  <si>
     <t>22R01A05R2</t>
   </si>
   <si>
@@ -2225,7 +2225,7 @@
     <t>cse_22r01a0559</t>
   </si>
   <si>
-    <t>26.18</t>
+    <t>26.14</t>
   </si>
   <si>
     <t>23R05A0512</t>
@@ -3593,6 +3593,75 @@
     <t>16.29</t>
   </si>
   <si>
+    <t>22R01A66J8</t>
+  </si>
+  <si>
+    <t>pooj_v227</t>
+  </si>
+  <si>
+    <t>poojav_66j8</t>
+  </si>
+  <si>
+    <t>poojav_227</t>
+  </si>
+  <si>
+    <t>22r01a66j8</t>
+  </si>
+  <si>
+    <t>16.21</t>
+  </si>
+  <si>
+    <t>22R01A6251</t>
+  </si>
+  <si>
+    <t>nerella_vaishnavi</t>
+  </si>
+  <si>
+    <t>nerella_15</t>
+  </si>
+  <si>
+    <t>22r01a6251</t>
+  </si>
+  <si>
+    <t>16.18</t>
+  </si>
+  <si>
+    <t>22R01A05C4</t>
+  </si>
+  <si>
+    <t>SanjayTalari</t>
+  </si>
+  <si>
+    <t>16.16</t>
+  </si>
+  <si>
+    <t>22R01A6699</t>
+  </si>
+  <si>
+    <t>22r01a6699</t>
+  </si>
+  <si>
+    <t>manasanipavan</t>
+  </si>
+  <si>
+    <t>16.14</t>
+  </si>
+  <si>
+    <t>22R01A05K9</t>
+  </si>
+  <si>
+    <t>banothmohanms</t>
+  </si>
+  <si>
+    <t>mohan5k9</t>
+  </si>
+  <si>
+    <t>Mohan5k9</t>
+  </si>
+  <si>
+    <t>16.08</t>
+  </si>
+  <si>
     <t>22R01A67J9</t>
   </si>
   <si>
@@ -3602,76 +3671,7 @@
     <t>mukesh_75</t>
   </si>
   <si>
-    <t>16.28</t>
-  </si>
-  <si>
-    <t>22R01A66J8</t>
-  </si>
-  <si>
-    <t>pooj_v227</t>
-  </si>
-  <si>
-    <t>poojav_66j8</t>
-  </si>
-  <si>
-    <t>poojav_227</t>
-  </si>
-  <si>
-    <t>22r01a66j8</t>
-  </si>
-  <si>
-    <t>16.21</t>
-  </si>
-  <si>
-    <t>22R01A6251</t>
-  </si>
-  <si>
-    <t>nerella_vaishnavi</t>
-  </si>
-  <si>
-    <t>nerella_15</t>
-  </si>
-  <si>
-    <t>22r01a6251</t>
-  </si>
-  <si>
-    <t>16.18</t>
-  </si>
-  <si>
-    <t>22R01A05C4</t>
-  </si>
-  <si>
-    <t>SanjayTalari</t>
-  </si>
-  <si>
-    <t>16.16</t>
-  </si>
-  <si>
-    <t>22R01A6699</t>
-  </si>
-  <si>
-    <t>22r01a6699</t>
-  </si>
-  <si>
-    <t>manasanipavan</t>
-  </si>
-  <si>
-    <t>16.14</t>
-  </si>
-  <si>
-    <t>22R01A05K9</t>
-  </si>
-  <si>
-    <t>banothmohanms</t>
-  </si>
-  <si>
-    <t>mohan5k9</t>
-  </si>
-  <si>
-    <t>Mohan5k9</t>
-  </si>
-  <si>
-    <t>16.08</t>
+    <t>16.02</t>
   </si>
   <si>
     <t>22R01A0581</t>
@@ -4802,6 +4802,15 @@
     <t>8.79</t>
   </si>
   <si>
+    <t>22R01A05L0</t>
+  </si>
+  <si>
+    <t>22r01a05l0</t>
+  </si>
+  <si>
+    <t>8.72</t>
+  </si>
+  <si>
     <t>22R01A0491</t>
   </si>
   <si>
@@ -4811,16 +4820,7 @@
     <t>Varsha_29</t>
   </si>
   <si>
-    <t>8.76</t>
-  </si>
-  <si>
-    <t>22R01A05L0</t>
-  </si>
-  <si>
-    <t>22r01a05l0</t>
-  </si>
-  <si>
-    <t>8.72</t>
+    <t>8.54</t>
   </si>
   <si>
     <t>23R05A0505</t>
@@ -10648,7 +10648,7 @@
         <v>60.0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
@@ -12883,37 +12883,37 @@
         <v>262</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>716.0</v>
+        <v>729.0</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>1404.0</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F53" s="2" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>1090.0</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="K53" s="2" t="n">
-        <v>1074.0</v>
+        <v>1228.0</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>35.0</v>
+        <v>25.0</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54">
@@ -12921,16 +12921,16 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>729.0</v>
+        <v>726.0</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>0.0</v>
@@ -12942,22 +12942,22 @@
         <v>268</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>1404.0</v>
+        <v>1477.0</v>
       </c>
       <c r="J54" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>1063.0</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="K54" s="2" t="n">
-        <v>1228.0</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="M54" s="2" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="55">
@@ -12971,37 +12971,37 @@
         <v>272</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>726.0</v>
+        <v>716.0</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>272</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>1477.0</v>
+        <v>1060.0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K55" s="2" t="n">
-        <v>1063.0</v>
+        <v>1074.0</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>272</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56">
@@ -13045,7 +13045,7 @@
         <v>46.0</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57">
@@ -13053,16 +13053,16 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>842.0</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>0.0</v>
@@ -13071,25 +13071,25 @@
         <v>0.0</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>1381.0</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K57" s="2" t="n">
         <v>980.0</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58">
@@ -13097,16 +13097,16 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>715.0</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>10.0</v>
@@ -13115,25 +13115,25 @@
         <v>2.0</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>1422.0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K58" s="2" t="n">
         <v>1255.0</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59">
@@ -13141,16 +13141,16 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>769.0</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>10.0</v>
@@ -13159,25 +13159,25 @@
         <v>0.0</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I59" s="2" t="n">
         <v>1315.0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K59" s="2" t="n">
         <v>1099.0</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60">
@@ -13185,43 +13185,43 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>745.0</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F60" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="I60" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="K60" s="2" t="n">
         <v>1043.0</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M60" s="2" t="n">
         <v>214.0</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61">
@@ -13229,16 +13229,16 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>696.0</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>0.0</v>
@@ -13247,25 +13247,25 @@
         <v>2.0</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I61" s="2" t="n">
         <v>1411.0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K61" s="2" t="n">
         <v>1011.0</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M61" s="2" t="n">
         <v>56.0</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62">
@@ -13273,43 +13273,43 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>838.0</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="F62" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>1351.0</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K62" s="2" t="n">
         <v>926.0</v>
       </c>
       <c r="L62" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M62" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N62" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="M62" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="63">
@@ -13317,16 +13317,16 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>701.0</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>8.0</v>
@@ -13335,25 +13335,25 @@
         <v>24.0</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>1306.0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K63" s="2" t="n">
         <v>1286.0</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M63" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64">
@@ -13361,16 +13361,16 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>838.0</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>0.0</v>
@@ -13379,25 +13379,25 @@
         <v>1.0</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>1304.0</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K64" s="2" t="n">
         <v>794.0</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M64" s="2" t="n">
         <v>20.0</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65">
@@ -13405,16 +13405,16 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>754.0</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>0.0</v>
@@ -13423,25 +13423,25 @@
         <v>0.0</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I65" s="2" t="n">
         <v>1412.0</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K65" s="2" t="n">
         <v>1104.0</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M65" s="2" t="n">
         <v>7.0</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66">
@@ -13449,16 +13449,16 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>743.0</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>0.0</v>
@@ -13467,25 +13467,25 @@
         <v>0.0</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I66" s="2" t="n">
         <v>1371.0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K66" s="2" t="n">
         <v>1030.0</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M66" s="2" t="n">
         <v>25.0</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67">
@@ -13493,16 +13493,16 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>733.0</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>0.0</v>
@@ -13511,25 +13511,25 @@
         <v>0.0</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I67" s="2" t="n">
         <v>1389.0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K67" s="2" t="n">
         <v>1119.0</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M67" s="2" t="n">
         <v>10.0</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
@@ -13537,43 +13537,43 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>638.0</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="F68" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G68" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="I68" s="2" t="n">
         <v>1412.0</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K68" s="2" t="n">
         <v>1238.0</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M68" s="2" t="n">
         <v>40.0</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69">
@@ -13581,10 +13581,10 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>763.0</v>
@@ -13599,25 +13599,25 @@
         <v>0.0</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I69" s="2" t="n">
         <v>1463.0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K69" s="2" t="n">
         <v>911.0</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M69" s="2" t="n">
         <v>6.0</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70">
@@ -13625,43 +13625,43 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>765.0</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="F70" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G70" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="I70" s="2" t="n">
         <v>1256.0</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K70" s="2" t="n">
         <v>1130.0</v>
       </c>
       <c r="L70" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="M70" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N70" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="M70" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="71">
@@ -13669,43 +13669,43 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D71" s="2" t="n">
-        <v>776.0</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="F71" s="2" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I71" s="2" t="n">
         <v>1412.0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K71" s="2" t="n">
-        <v>918.0</v>
+        <v>1202.0</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72">
@@ -13713,43 +13713,43 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>776.0</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="I72" s="2" t="n">
+        <v>1412.0</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K72" s="2" t="n">
+        <v>918.0</v>
+      </c>
+      <c r="L72" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D72" s="2" t="n">
-        <v>588.0</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="M72" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N72" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="F72" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G72" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I72" s="2" t="n">
-        <v>1320.0</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="K72" s="2" t="n">
-        <v>1065.0</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="M72" s="2" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="73">
@@ -13757,28 +13757,28 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>349.0</v>
+        <v>588.0</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>362</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>1326.0</v>
+        <v>1320.0</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>363</v>
@@ -13787,13 +13787,13 @@
         <v>1065.0</v>
       </c>
       <c r="L73" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="M73" s="2" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="N73" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="M73" s="2" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="74">
@@ -13801,43 +13801,43 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>1326.0</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>1065.0</v>
+      </c>
+      <c r="L74" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D74" s="2" t="n">
-        <v>743.0</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F74" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G74" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H74" s="2" t="s">
+      <c r="M74" s="2" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="N74" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="I74" s="2" t="n">
-        <v>1418.0</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="K74" s="2" t="n">
-        <v>986.0</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="M74" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="75">
@@ -13845,43 +13845,43 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="n">
+        <v>743.0</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D75" s="2" t="n">
-        <v>660.0</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="I75" s="2" t="n">
+        <v>1418.0</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K75" s="2" t="n">
+        <v>986.0</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="M75" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N75" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="F75" s="2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G75" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I75" s="2" t="n">
-        <v>1353.0</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="K75" s="2" t="n">
-        <v>1202.0</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="M75" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="76">
@@ -13889,16 +13889,16 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>772.0</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F76" s="2" t="n">
         <v>0.0</v>
@@ -13907,25 +13907,25 @@
         <v>0.0</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I76" s="2" t="n">
         <v>1353.0</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K76" s="2" t="n">
         <v>836.0</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M76" s="2" t="n">
         <v>14.0</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77">
@@ -17166,7 +17166,7 @@
         <v>735</v>
       </c>
       <c r="I150" s="2" t="n">
-        <v>1562.0</v>
+        <v>1555.0</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>736</v>
@@ -21287,10 +21287,10 @@
         <v>1194</v>
       </c>
       <c r="D244" s="2" t="n">
-        <v>0.0</v>
+        <v>343.0</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F244" s="2" t="n">
         <v>0.0</v>
@@ -21299,25 +21299,25 @@
         <v>0.0</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>1194</v>
+        <v>194</v>
       </c>
       <c r="I244" s="2" t="n">
-        <v>1347.0</v>
+        <v>0.0</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="K244" s="2" t="n">
-        <v>1053.0</v>
+        <v>887.0</v>
       </c>
       <c r="L244" s="2" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="M244" s="2" t="n">
-        <v>24.0</v>
+        <v>40.0</v>
       </c>
       <c r="N244" s="2" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="245">
@@ -21325,16 +21325,16 @@
         <v>244.0</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1198</v>
+        <v>194</v>
       </c>
       <c r="D245" s="2" t="n">
-        <v>343.0</v>
+        <v>0.0</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>1199</v>
+        <v>194</v>
       </c>
       <c r="F245" s="2" t="n">
         <v>0.0</v>
@@ -21343,25 +21343,25 @@
         <v>0.0</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>194</v>
+        <v>1200</v>
       </c>
       <c r="I245" s="2" t="n">
-        <v>0.0</v>
+        <v>1586.0</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="K245" s="2" t="n">
-        <v>887.0</v>
+        <v>984.0</v>
       </c>
       <c r="L245" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="M245" s="2" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="N245" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="246">
@@ -21369,16 +21369,16 @@
         <v>245.0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>194</v>
+        <v>1205</v>
       </c>
       <c r="D246" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>194</v>
+        <v>1205</v>
       </c>
       <c r="F246" s="2" t="n">
         <v>0.0</v>
@@ -21387,25 +21387,25 @@
         <v>0.0</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="I246" s="2" t="n">
-        <v>1586.0</v>
+        <v>1452.0</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="K246" s="2" t="n">
-        <v>984.0</v>
+        <v>1107.0</v>
       </c>
       <c r="L246" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M246" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N246" s="2" t="s">
         <v>1206</v>
-      </c>
-      <c r="M246" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N246" s="2" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="247">
@@ -21413,16 +21413,16 @@
         <v>246.0</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>1209</v>
-      </c>
       <c r="D247" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F247" s="2" t="n">
         <v>0.0</v>
@@ -21431,22 +21431,22 @@
         <v>0.0</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I247" s="2" t="n">
-        <v>1452.0</v>
+        <v>1401.0</v>
       </c>
       <c r="J247" s="2" t="s">
         <v>1209</v>
       </c>
       <c r="K247" s="2" t="n">
-        <v>1107.0</v>
+        <v>1131.0</v>
       </c>
       <c r="L247" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="M247" s="2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="N247" s="2" t="s">
         <v>1210</v>
@@ -21466,7 +21466,7 @@
         <v>0.0</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F248" s="2" t="n">
         <v>0.0</v>
@@ -21475,25 +21475,25 @@
         <v>0.0</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="I248" s="2" t="n">
-        <v>1401.0</v>
+        <v>1487.0</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="K248" s="2" t="n">
-        <v>1131.0</v>
+        <v>1048.0</v>
       </c>
       <c r="L248" s="2" t="s">
         <v>1212</v>
       </c>
       <c r="M248" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N248" s="2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="249">
@@ -21501,16 +21501,16 @@
         <v>248.0</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D249" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="F249" s="2" t="n">
         <v>0.0</v>
@@ -21522,19 +21522,19 @@
         <v>1217</v>
       </c>
       <c r="I249" s="2" t="n">
-        <v>1487.0</v>
+        <v>1304.0</v>
       </c>
       <c r="J249" s="2" t="s">
         <v>1218</v>
       </c>
       <c r="K249" s="2" t="n">
-        <v>1048.0</v>
+        <v>1053.0</v>
       </c>
       <c r="L249" s="2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="M249" s="2" t="n">
-        <v>2.0</v>
+        <v>24.0</v>
       </c>
       <c r="N249" s="2" t="s">
         <v>1219</v>
@@ -25024,13 +25024,13 @@
         <v>1596</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>194</v>
+        <v>1597</v>
       </c>
       <c r="D329" s="2" t="n">
-        <v>0.0</v>
+        <v>350.0</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>194</v>
+        <v>1597</v>
       </c>
       <c r="F329" s="2" t="n">
         <v>0.0</v>
@@ -25042,10 +25042,10 @@
         <v>1597</v>
       </c>
       <c r="I329" s="2" t="n">
-        <v>1423.0</v>
+        <v>0.0</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="K329" s="2" t="n">
         <v>0.0</v>
@@ -25057,7 +25057,7 @@
         <v>0.0</v>
       </c>
       <c r="N329" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="330">
@@ -25065,28 +25065,28 @@
         <v>329.0</v>
       </c>
       <c r="B330" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F330" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G330" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H330" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="C330" s="2" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D330" s="2" t="n">
-        <v>350.0</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F330" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G330" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H330" s="2" t="s">
-        <v>1601</v>
-      </c>
       <c r="I330" s="2" t="n">
-        <v>0.0</v>
+        <v>1387.0</v>
       </c>
       <c r="J330" s="2" t="s">
         <v>1601</v>
@@ -25095,7 +25095,7 @@
         <v>0.0</v>
       </c>
       <c r="L330" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="M330" s="2" t="n">
         <v>0.0</v>

--- a/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
+++ b/Leaderboards/CurrentCMRITLeaderboard2026.xlsx
@@ -170,7 +170,7 @@
     <t>cmr_22r01a05c9</t>
   </si>
   <si>
-    <t>53.32</t>
+    <t>54.21</t>
   </si>
   <si>
     <t>22R01A05E2</t>
@@ -479,6 +479,21 @@
     <t>40.95</t>
   </si>
   <si>
+    <t>22R01A05N4</t>
+  </si>
+  <si>
+    <t>mkeerthi63027</t>
+  </si>
+  <si>
+    <t>mkeerthify</t>
+  </si>
+  <si>
+    <t>keerthi_mangali</t>
+  </si>
+  <si>
+    <t>40.88</t>
+  </si>
+  <si>
     <t>22R01A66E8</t>
   </si>
   <si>
@@ -527,21 +542,6 @@
     <t>40.26</t>
   </si>
   <si>
-    <t>22R01A05N4</t>
-  </si>
-  <si>
-    <t>mkeerthi63027</t>
-  </si>
-  <si>
-    <t>mkeerthify</t>
-  </si>
-  <si>
-    <t>keerthi_mangali</t>
-  </si>
-  <si>
-    <t>40.13</t>
-  </si>
-  <si>
     <t>22R01A0474</t>
   </si>
   <si>
@@ -1526,7 +1526,7 @@
     <t>chef22r01a67a8</t>
   </si>
   <si>
-    <t>31.6</t>
+    <t>31.5</t>
   </si>
   <si>
     <t>22R01A0549</t>
@@ -4811,7 +4811,7 @@
     <t>Varsha_29</t>
   </si>
   <si>
-    <t>8.54</t>
+    <t>8.68</t>
   </si>
   <si>
     <t>23R05A0505</t>
@@ -10929,7 +10929,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>932.0</v>
+        <v>968.0</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>50</v>
@@ -11897,7 +11897,7 @@
         <v>156</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>887.0</v>
+        <v>628.0</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>157</v>
@@ -11912,22 +11912,22 @@
         <v>158</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>1415.0</v>
+        <v>1487.0</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="K31" s="2" t="n">
-        <v>1484.0</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="32">
@@ -11935,16 +11935,16 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>887.0</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>891.0</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>0.0</v>
@@ -11956,19 +11956,19 @@
         <v>163</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>1369.0</v>
+        <v>1415.0</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>1484.0</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K32" s="2" t="n">
-        <v>921.0</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="M32" s="2" t="n">
-        <v>83.0</v>
+        <v>5.0</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>166</v>
@@ -11985,37 +11985,37 @@
         <v>168</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>850.0</v>
+        <v>891.0</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="I33" s="2" t="n">
-        <v>1412.0</v>
+        <v>1369.0</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>912.0</v>
+        <v>921.0</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>168</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>95.0</v>
+        <v>83.0</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34">
@@ -12023,13 +12023,13 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>598.0</v>
+        <v>850.0</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>173</v>
@@ -12044,19 +12044,19 @@
         <v>174</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>1487.0</v>
+        <v>1412.0</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1082.0</v>
+        <v>912.0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>193.0</v>
+        <v>95.0</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>175</v>
@@ -15080,7 +15080,7 @@
         <v>502</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>1339.0</v>
+        <v>1323.0</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>503</v>
@@ -25068,7 +25068,7 @@
         <v>1597</v>
       </c>
       <c r="I330" s="2" t="n">
-        <v>1387.0</v>
+        <v>1410.0</v>
       </c>
       <c r="J330" s="2" t="s">
         <v>1598</v>
